--- a/窪田/対応表イメージ0_5.xlsx
+++ b/窪田/対応表イメージ0_5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hk15304009\Desktop\卒業制作\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hk15304009\Documents\GitHub\Graduation\窪田\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="749">
   <si>
     <t>product_id</t>
   </si>
@@ -328,22 +328,6 @@
     <t>tag_name</t>
   </si>
   <si>
-    <t>タグ名 例：冬季限定</t>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>トウキ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ゲンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>商品ID</t>
     <rPh sb="0" eb="2">
       <t>ショウヒン</t>
@@ -795,16 +779,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>冬季限定</t>
-    <rPh sb="0" eb="2">
-      <t>トウキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ゲンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>セール</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3279,6 +3253,24 @@
   </si>
   <si>
     <t>04200001</t>
+  </si>
+  <si>
+    <t>タグ名 例：オススメ</t>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オススメ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オススメ</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -4190,7 +4182,7 @@
   <dimension ref="A1:HN45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="81" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4978,661 +4970,661 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I2" t="s">
+        <v>193</v>
+      </c>
+      <c r="J2" t="s">
+        <v>194</v>
+      </c>
+      <c r="K2" t="s">
+        <v>195</v>
+      </c>
+      <c r="L2" t="s">
+        <v>196</v>
+      </c>
+      <c r="M2" t="s">
+        <v>197</v>
+      </c>
+      <c r="N2" t="s">
+        <v>198</v>
+      </c>
+      <c r="O2" t="s">
+        <v>199</v>
+      </c>
+      <c r="P2" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>201</v>
+      </c>
+      <c r="R2" t="s">
+        <v>202</v>
+      </c>
+      <c r="S2" t="s">
+        <v>203</v>
+      </c>
+      <c r="T2" t="s">
+        <v>204</v>
+      </c>
+      <c r="U2" t="s">
+        <v>205</v>
+      </c>
+      <c r="V2" t="s">
+        <v>206</v>
+      </c>
+      <c r="W2" t="s">
+        <v>207</v>
+      </c>
+      <c r="X2" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>212</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>215</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>665</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>666</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>667</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>668</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>669</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>670</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>671</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>672</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>673</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>674</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>675</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>676</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>677</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>678</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>679</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>680</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>218</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>219</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>220</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>221</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>222</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>223</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>224</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>225</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>226</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>227</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>228</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>229</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>230</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>231</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>681</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>682</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>683</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>684</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>685</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>686</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>232</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>233</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>234</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>235</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>236</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>237</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>238</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>239</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>687</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>688</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>689</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>690</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>691</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>692</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>693</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>694</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>695</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>696</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>697</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>698</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>174</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>259</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>260</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>699</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>700</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>175</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>261</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>262</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>263</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>264</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>265</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>266</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>701</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>702</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>703</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>704</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>705</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>706</v>
+      </c>
+      <c r="DE2" t="s">
         <v>173</v>
       </c>
-      <c r="E2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F2" t="s">
-        <v>192</v>
-      </c>
-      <c r="G2" t="s">
-        <v>193</v>
-      </c>
-      <c r="H2" t="s">
-        <v>194</v>
-      </c>
-      <c r="I2" t="s">
-        <v>195</v>
-      </c>
-      <c r="J2" t="s">
-        <v>196</v>
-      </c>
-      <c r="K2" t="s">
-        <v>197</v>
-      </c>
-      <c r="L2" t="s">
-        <v>198</v>
-      </c>
-      <c r="M2" t="s">
-        <v>199</v>
-      </c>
-      <c r="N2" t="s">
-        <v>200</v>
-      </c>
-      <c r="O2" t="s">
-        <v>201</v>
-      </c>
-      <c r="P2" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>203</v>
-      </c>
-      <c r="R2" t="s">
-        <v>204</v>
-      </c>
-      <c r="S2" t="s">
-        <v>205</v>
-      </c>
-      <c r="T2" t="s">
-        <v>206</v>
-      </c>
-      <c r="U2" t="s">
-        <v>207</v>
-      </c>
-      <c r="V2" t="s">
-        <v>208</v>
-      </c>
-      <c r="W2" t="s">
-        <v>209</v>
-      </c>
-      <c r="X2" t="s">
-        <v>210</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>211</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>212</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>213</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>214</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>215</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>216</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>217</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>218</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>219</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>667</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>668</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>669</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>670</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>671</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>672</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>673</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>674</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>675</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>676</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>677</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>678</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>679</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>680</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>681</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>682</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>174</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>220</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>221</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>222</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>223</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>224</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>225</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>226</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>227</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>228</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>229</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>230</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>231</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>232</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>233</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>683</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>684</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>685</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>686</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>687</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>688</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>234</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>235</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>236</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>237</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>238</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>239</v>
-      </c>
-      <c r="BY2" t="s">
+      <c r="DF2" t="s">
         <v>240</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="DG2" t="s">
         <v>241</v>
       </c>
-      <c r="CA2" t="s">
-        <v>689</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>690</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>691</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>692</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>693</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>694</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>695</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>696</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>697</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>698</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>699</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>700</v>
-      </c>
-      <c r="CM2" t="s">
+      <c r="DH2" t="s">
+        <v>242</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>243</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>244</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>245</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>246</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>247</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>248</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>249</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>250</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>251</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>252</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>253</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>254</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>255</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>256</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>257</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>258</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>707</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>708</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>709</v>
+      </c>
+      <c r="EB2" t="s">
         <v>176</v>
       </c>
-      <c r="CN2" t="s">
-        <v>261</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>262</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>701</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>702</v>
-      </c>
-      <c r="CR2" t="s">
+      <c r="EC2" t="s">
+        <v>267</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>268</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>269</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>270</v>
+      </c>
+      <c r="EG2" t="s">
         <v>177</v>
       </c>
-      <c r="CS2" t="s">
-        <v>263</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>264</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>265</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>266</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>267</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>268</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>703</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>704</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>705</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>706</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>707</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>708</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>175</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>242</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>243</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>244</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>245</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>246</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>247</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>248</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>249</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>250</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>251</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>252</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>253</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>254</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>255</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>256</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>257</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>258</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>259</v>
-      </c>
-      <c r="DX2" t="s">
-        <v>260</v>
-      </c>
-      <c r="DY2" t="s">
-        <v>709</v>
-      </c>
-      <c r="DZ2" t="s">
+      <c r="EH2" t="s">
+        <v>271</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>272</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>273</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>274</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>178</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>275</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>276</v>
+      </c>
+      <c r="EO2" t="s">
         <v>710</v>
       </c>
-      <c r="EA2" t="s">
+      <c r="EP2" t="s">
         <v>711</v>
       </c>
-      <c r="EB2" t="s">
-        <v>178</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>269</v>
-      </c>
-      <c r="ED2" t="s">
-        <v>270</v>
-      </c>
-      <c r="EE2" t="s">
-        <v>271</v>
-      </c>
-      <c r="EF2" t="s">
-        <v>272</v>
-      </c>
-      <c r="EG2" t="s">
+      <c r="EQ2" t="s">
+        <v>712</v>
+      </c>
+      <c r="ER2" t="s">
+        <v>713</v>
+      </c>
+      <c r="ES2" t="s">
+        <v>714</v>
+      </c>
+      <c r="ET2" t="s">
+        <v>715</v>
+      </c>
+      <c r="EU2" t="s">
+        <v>180</v>
+      </c>
+      <c r="EV2" t="s">
+        <v>279</v>
+      </c>
+      <c r="EW2" t="s">
+        <v>280</v>
+      </c>
+      <c r="EX2" t="s">
+        <v>716</v>
+      </c>
+      <c r="EY2" t="s">
         <v>179</v>
       </c>
-      <c r="EH2" t="s">
-        <v>273</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>274</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>275</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>276</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>180</v>
-      </c>
-      <c r="EM2" t="s">
+      <c r="EZ2" t="s">
         <v>277</v>
       </c>
-      <c r="EN2" t="s">
+      <c r="FA2" t="s">
         <v>278</v>
       </c>
-      <c r="EO2" t="s">
-        <v>712</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>713</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>714</v>
-      </c>
-      <c r="ER2" t="s">
-        <v>715</v>
-      </c>
-      <c r="ES2" t="s">
-        <v>716</v>
-      </c>
-      <c r="ET2" t="s">
+      <c r="FB2" t="s">
         <v>717</v>
       </c>
-      <c r="EU2" t="s">
+      <c r="FC2" t="s">
+        <v>718</v>
+      </c>
+      <c r="FD2" t="s">
+        <v>181</v>
+      </c>
+      <c r="FE2" t="s">
+        <v>281</v>
+      </c>
+      <c r="FF2" t="s">
+        <v>282</v>
+      </c>
+      <c r="FG2" t="s">
+        <v>719</v>
+      </c>
+      <c r="FH2" t="s">
+        <v>720</v>
+      </c>
+      <c r="FI2" t="s">
+        <v>721</v>
+      </c>
+      <c r="FJ2" t="s">
+        <v>722</v>
+      </c>
+      <c r="FK2" t="s">
         <v>182</v>
       </c>
-      <c r="EV2" t="s">
-        <v>281</v>
-      </c>
-      <c r="EW2" t="s">
-        <v>282</v>
-      </c>
-      <c r="EX2" t="s">
-        <v>718</v>
-      </c>
-      <c r="EY2" t="s">
-        <v>181</v>
-      </c>
-      <c r="EZ2" t="s">
-        <v>279</v>
-      </c>
-      <c r="FA2" t="s">
-        <v>280</v>
-      </c>
-      <c r="FB2" t="s">
-        <v>719</v>
-      </c>
-      <c r="FC2" t="s">
-        <v>720</v>
-      </c>
-      <c r="FD2" t="s">
+      <c r="FL2" t="s">
+        <v>283</v>
+      </c>
+      <c r="FM2" t="s">
+        <v>284</v>
+      </c>
+      <c r="FN2" t="s">
+        <v>723</v>
+      </c>
+      <c r="FO2" t="s">
         <v>183</v>
       </c>
-      <c r="FE2" t="s">
-        <v>283</v>
-      </c>
-      <c r="FF2" t="s">
-        <v>284</v>
-      </c>
-      <c r="FG2" t="s">
-        <v>721</v>
-      </c>
-      <c r="FH2" t="s">
-        <v>722</v>
-      </c>
-      <c r="FI2" t="s">
-        <v>723</v>
-      </c>
-      <c r="FJ2" t="s">
+      <c r="FP2" t="s">
         <v>724</v>
       </c>
-      <c r="FK2" t="s">
+      <c r="FQ2" t="s">
+        <v>285</v>
+      </c>
+      <c r="FR2" t="s">
+        <v>286</v>
+      </c>
+      <c r="FS2" t="s">
+        <v>287</v>
+      </c>
+      <c r="FT2" t="s">
+        <v>288</v>
+      </c>
+      <c r="FU2" t="s">
+        <v>289</v>
+      </c>
+      <c r="FV2" t="s">
+        <v>290</v>
+      </c>
+      <c r="FW2" t="s">
+        <v>291</v>
+      </c>
+      <c r="FX2" t="s">
+        <v>292</v>
+      </c>
+      <c r="FY2" t="s">
+        <v>725</v>
+      </c>
+      <c r="FZ2" t="s">
+        <v>726</v>
+      </c>
+      <c r="GA2" t="s">
+        <v>727</v>
+      </c>
+      <c r="GB2" t="s">
+        <v>728</v>
+      </c>
+      <c r="GC2" t="s">
+        <v>729</v>
+      </c>
+      <c r="GD2" t="s">
+        <v>730</v>
+      </c>
+      <c r="GE2" t="s">
+        <v>731</v>
+      </c>
+      <c r="GF2" t="s">
+        <v>732</v>
+      </c>
+      <c r="GG2" t="s">
         <v>184</v>
       </c>
-      <c r="FL2" t="s">
-        <v>285</v>
-      </c>
-      <c r="FM2" t="s">
-        <v>286</v>
-      </c>
-      <c r="FN2" t="s">
-        <v>725</v>
-      </c>
-      <c r="FO2" t="s">
+      <c r="GH2" t="s">
+        <v>293</v>
+      </c>
+      <c r="GI2" t="s">
+        <v>294</v>
+      </c>
+      <c r="GJ2" t="s">
+        <v>295</v>
+      </c>
+      <c r="GK2" t="s">
+        <v>296</v>
+      </c>
+      <c r="GL2" t="s">
+        <v>297</v>
+      </c>
+      <c r="GM2" t="s">
+        <v>298</v>
+      </c>
+      <c r="GN2" t="s">
+        <v>299</v>
+      </c>
+      <c r="GO2" t="s">
+        <v>300</v>
+      </c>
+      <c r="GP2" t="s">
+        <v>301</v>
+      </c>
+      <c r="GQ2" t="s">
+        <v>733</v>
+      </c>
+      <c r="GR2" t="s">
+        <v>734</v>
+      </c>
+      <c r="GS2" t="s">
+        <v>735</v>
+      </c>
+      <c r="GT2" t="s">
+        <v>736</v>
+      </c>
+      <c r="GU2" t="s">
+        <v>737</v>
+      </c>
+      <c r="GV2" t="s">
+        <v>738</v>
+      </c>
+      <c r="GW2" t="s">
         <v>185</v>
       </c>
-      <c r="FP2" t="s">
-        <v>726</v>
-      </c>
-      <c r="FQ2" t="s">
-        <v>287</v>
-      </c>
-      <c r="FR2" t="s">
-        <v>288</v>
-      </c>
-      <c r="FS2" t="s">
-        <v>289</v>
-      </c>
-      <c r="FT2" t="s">
-        <v>290</v>
-      </c>
-      <c r="FU2" t="s">
-        <v>291</v>
-      </c>
-      <c r="FV2" t="s">
-        <v>292</v>
-      </c>
-      <c r="FW2" t="s">
-        <v>293</v>
-      </c>
-      <c r="FX2" t="s">
-        <v>294</v>
-      </c>
-      <c r="FY2" t="s">
-        <v>727</v>
-      </c>
-      <c r="FZ2" t="s">
-        <v>728</v>
-      </c>
-      <c r="GA2" t="s">
-        <v>729</v>
-      </c>
-      <c r="GB2" t="s">
-        <v>730</v>
-      </c>
-      <c r="GC2" t="s">
-        <v>731</v>
-      </c>
-      <c r="GD2" t="s">
-        <v>732</v>
-      </c>
-      <c r="GE2" t="s">
-        <v>733</v>
-      </c>
-      <c r="GF2" t="s">
-        <v>734</v>
-      </c>
-      <c r="GG2" t="s">
+      <c r="GX2" t="s">
+        <v>302</v>
+      </c>
+      <c r="GY2" t="s">
+        <v>739</v>
+      </c>
+      <c r="GZ2" t="s">
+        <v>303</v>
+      </c>
+      <c r="HA2" t="s">
+        <v>304</v>
+      </c>
+      <c r="HB2" t="s">
         <v>186</v>
       </c>
-      <c r="GH2" t="s">
-        <v>295</v>
-      </c>
-      <c r="GI2" t="s">
-        <v>296</v>
-      </c>
-      <c r="GJ2" t="s">
-        <v>297</v>
-      </c>
-      <c r="GK2" t="s">
-        <v>298</v>
-      </c>
-      <c r="GL2" t="s">
-        <v>299</v>
-      </c>
-      <c r="GM2" t="s">
-        <v>300</v>
-      </c>
-      <c r="GN2" t="s">
-        <v>301</v>
-      </c>
-      <c r="GO2" t="s">
-        <v>302</v>
-      </c>
-      <c r="GP2" t="s">
-        <v>303</v>
-      </c>
-      <c r="GQ2" t="s">
-        <v>735</v>
-      </c>
-      <c r="GR2" t="s">
-        <v>736</v>
-      </c>
-      <c r="GS2" t="s">
-        <v>737</v>
-      </c>
-      <c r="GT2" t="s">
-        <v>738</v>
-      </c>
-      <c r="GU2" t="s">
-        <v>739</v>
-      </c>
-      <c r="GV2" t="s">
+      <c r="HC2" t="s">
+        <v>187</v>
+      </c>
+      <c r="HD2" t="s">
+        <v>305</v>
+      </c>
+      <c r="HE2" t="s">
+        <v>306</v>
+      </c>
+      <c r="HF2" t="s">
+        <v>307</v>
+      </c>
+      <c r="HG2" t="s">
+        <v>308</v>
+      </c>
+      <c r="HH2" t="s">
         <v>740</v>
       </c>
-      <c r="GW2" t="s">
-        <v>187</v>
-      </c>
-      <c r="GX2" t="s">
-        <v>304</v>
-      </c>
-      <c r="GY2" t="s">
+      <c r="HI2" t="s">
         <v>741</v>
       </c>
-      <c r="GZ2" t="s">
-        <v>305</v>
-      </c>
-      <c r="HA2" t="s">
-        <v>306</v>
-      </c>
-      <c r="HB2" t="s">
+      <c r="HJ2" t="s">
+        <v>742</v>
+      </c>
+      <c r="HK2" t="s">
+        <v>743</v>
+      </c>
+      <c r="HL2" t="s">
         <v>188</v>
       </c>
-      <c r="HC2" t="s">
-        <v>189</v>
-      </c>
-      <c r="HD2" t="s">
-        <v>307</v>
-      </c>
-      <c r="HE2" t="s">
-        <v>308</v>
-      </c>
-      <c r="HF2" t="s">
-        <v>309</v>
-      </c>
-      <c r="HG2" t="s">
-        <v>310</v>
-      </c>
-      <c r="HH2" t="s">
-        <v>742</v>
-      </c>
-      <c r="HI2" t="s">
-        <v>743</v>
-      </c>
-      <c r="HJ2" t="s">
+      <c r="HM2" t="s">
         <v>744</v>
       </c>
-      <c r="HK2" t="s">
+      <c r="HN2" t="s">
         <v>745</v>
-      </c>
-      <c r="HL2" t="s">
-        <v>190</v>
-      </c>
-      <c r="HM2" t="s">
-        <v>746</v>
-      </c>
-      <c r="HN2" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="3" spans="1:222" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -5646,661 +5638,661 @@
         <v>10</v>
       </c>
       <c r="D3" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="F3" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="G3" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="H3" s="38" t="s">
+        <v>354</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>352</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>351</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>353</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>330</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="N3" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="O3" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="P3" s="38" t="s">
         <v>356</v>
       </c>
-      <c r="I3" s="38" t="s">
-        <v>354</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>353</v>
-      </c>
-      <c r="K3" s="38" t="s">
-        <v>355</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>332</v>
-      </c>
-      <c r="M3" s="38" t="s">
+      <c r="Q3" s="38" t="s">
+        <v>356</v>
+      </c>
+      <c r="R3" s="38" t="s">
+        <v>356</v>
+      </c>
+      <c r="S3" s="38" t="s">
         <v>357</v>
       </c>
-      <c r="N3" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="O3" s="38" t="s">
+      <c r="T3" s="38" t="s">
+        <v>357</v>
+      </c>
+      <c r="U3" s="38" t="s">
+        <v>357</v>
+      </c>
+      <c r="V3" s="38" t="s">
+        <v>358</v>
+      </c>
+      <c r="W3" s="38" t="s">
+        <v>358</v>
+      </c>
+      <c r="X3" s="38" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y3" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="Z3" s="38" t="s">
+        <v>359</v>
+      </c>
+      <c r="AA3" s="38" t="s">
+        <v>360</v>
+      </c>
+      <c r="AB3" s="38" t="s">
+        <v>361</v>
+      </c>
+      <c r="AC3" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="P3" s="38" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q3" s="38" t="s">
-        <v>358</v>
-      </c>
-      <c r="R3" s="38" t="s">
-        <v>358</v>
-      </c>
-      <c r="S3" s="38" t="s">
-        <v>359</v>
-      </c>
-      <c r="T3" s="38" t="s">
-        <v>359</v>
-      </c>
-      <c r="U3" s="38" t="s">
-        <v>359</v>
-      </c>
-      <c r="V3" s="38" t="s">
-        <v>360</v>
-      </c>
-      <c r="W3" s="38" t="s">
-        <v>360</v>
-      </c>
-      <c r="X3" s="38" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y3" s="38" t="s">
+      <c r="AD3" s="38" t="s">
+        <v>362</v>
+      </c>
+      <c r="AE3" s="38" t="s">
+        <v>362</v>
+      </c>
+      <c r="AF3" s="38" t="s">
+        <v>362</v>
+      </c>
+      <c r="AG3" s="38" t="s">
+        <v>363</v>
+      </c>
+      <c r="AH3" s="38" t="s">
+        <v>363</v>
+      </c>
+      <c r="AI3" s="38" t="s">
+        <v>363</v>
+      </c>
+      <c r="AJ3" s="38" t="s">
+        <v>363</v>
+      </c>
+      <c r="AK3" s="38" t="s">
+        <v>364</v>
+      </c>
+      <c r="AL3" s="38" t="s">
+        <v>364</v>
+      </c>
+      <c r="AM3" s="38" t="s">
+        <v>364</v>
+      </c>
+      <c r="AN3" s="38" t="s">
+        <v>365</v>
+      </c>
+      <c r="AO3" s="38" t="s">
+        <v>365</v>
+      </c>
+      <c r="AP3" s="38" t="s">
+        <v>365</v>
+      </c>
+      <c r="AQ3" s="38" t="s">
+        <v>365</v>
+      </c>
+      <c r="AR3" s="38" t="s">
+        <v>366</v>
+      </c>
+      <c r="AS3" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="AT3" s="38" t="s">
+        <v>367</v>
+      </c>
+      <c r="AU3" s="38" t="s">
+        <v>368</v>
+      </c>
+      <c r="AV3" s="38" t="s">
+        <v>369</v>
+      </c>
+      <c r="AW3" s="38" t="s">
+        <v>370</v>
+      </c>
+      <c r="AX3" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY3" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ3" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA3" s="38" t="s">
+        <v>371</v>
+      </c>
+      <c r="BB3" s="38" t="s">
+        <v>372</v>
+      </c>
+      <c r="BC3" s="38" t="s">
+        <v>372</v>
+      </c>
+      <c r="BD3" s="38" t="s">
+        <v>373</v>
+      </c>
+      <c r="BE3" s="38" t="s">
+        <v>373</v>
+      </c>
+      <c r="BF3" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="BG3" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH3" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="BI3" s="38" t="s">
+        <v>375</v>
+      </c>
+      <c r="BJ3" s="38" t="s">
+        <v>374</v>
+      </c>
+      <c r="BK3" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="BL3" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM3" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="BN3" s="38" t="s">
+        <v>376</v>
+      </c>
+      <c r="BO3" s="38" t="s">
+        <v>376</v>
+      </c>
+      <c r="BP3" s="38" t="s">
+        <v>377</v>
+      </c>
+      <c r="BQ3" s="38" t="s">
+        <v>377</v>
+      </c>
+      <c r="BR3" s="38" t="s">
+        <v>378</v>
+      </c>
+      <c r="BS3" s="38" t="s">
+        <v>378</v>
+      </c>
+      <c r="BT3" s="38" t="s">
+        <v>378</v>
+      </c>
+      <c r="BU3" s="38" t="s">
+        <v>378</v>
+      </c>
+      <c r="BV3" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="BW3" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="BX3" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="BY3" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="BZ3" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="CA3" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="CB3" s="38" t="s">
+        <v>380</v>
+      </c>
+      <c r="CC3" s="38" t="s">
+        <v>380</v>
+      </c>
+      <c r="CD3" s="38" t="s">
+        <v>380</v>
+      </c>
+      <c r="CE3" s="38" t="s">
+        <v>381</v>
+      </c>
+      <c r="CF3" s="38" t="s">
+        <v>381</v>
+      </c>
+      <c r="CG3" s="38" t="s">
+        <v>381</v>
+      </c>
+      <c r="CH3" s="38" t="s">
+        <v>382</v>
+      </c>
+      <c r="CI3" s="38" t="s">
+        <v>383</v>
+      </c>
+      <c r="CJ3" s="38" t="s">
+        <v>384</v>
+      </c>
+      <c r="CK3" s="38" t="s">
+        <v>385</v>
+      </c>
+      <c r="CL3" s="38" t="s">
+        <v>386</v>
+      </c>
+      <c r="CM3" s="38" t="s">
+        <v>387</v>
+      </c>
+      <c r="CN3" s="38" t="s">
+        <v>388</v>
+      </c>
+      <c r="CO3" s="38" t="s">
+        <v>388</v>
+      </c>
+      <c r="CP3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="CQ3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="CR3" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="CS3" s="38" t="s">
+        <v>389</v>
+      </c>
+      <c r="CT3" s="38" t="s">
+        <v>390</v>
+      </c>
+      <c r="CU3" s="38" t="s">
+        <v>391</v>
+      </c>
+      <c r="CV3" s="38" t="s">
+        <v>392</v>
+      </c>
+      <c r="CW3" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="CX3" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="CY3" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ3" s="38" t="s">
+        <v>393</v>
+      </c>
+      <c r="DA3" s="38" t="s">
+        <v>393</v>
+      </c>
+      <c r="DB3" s="38" t="s">
+        <v>393</v>
+      </c>
+      <c r="DC3" s="38" t="s">
+        <v>394</v>
+      </c>
+      <c r="DD3" s="38" t="s">
+        <v>395</v>
+      </c>
+      <c r="DE3" s="38" t="s">
+        <v>396</v>
+      </c>
+      <c r="DF3" s="38" t="s">
+        <v>396</v>
+      </c>
+      <c r="DG3" s="38" t="s">
+        <v>397</v>
+      </c>
+      <c r="DH3" s="38" t="s">
+        <v>398</v>
+      </c>
+      <c r="DI3" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="DJ3" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="DK3" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="DL3" s="38" t="s">
+        <v>399</v>
+      </c>
+      <c r="DM3" s="38" t="s">
+        <v>400</v>
+      </c>
+      <c r="DN3" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="DO3" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="DP3" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="DQ3" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="DR3" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="DS3" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="DT3" s="38" t="s">
+        <v>401</v>
+      </c>
+      <c r="DU3" s="38" t="s">
+        <v>401</v>
+      </c>
+      <c r="DV3" s="38" t="s">
+        <v>402</v>
+      </c>
+      <c r="DW3" s="38" t="s">
+        <v>402</v>
+      </c>
+      <c r="DX3" s="38" t="s">
+        <v>403</v>
+      </c>
+      <c r="DY3" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="DZ3" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="EA3" s="38" t="s">
+        <v>404</v>
+      </c>
+      <c r="EB3" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="EC3" s="38" t="s">
+        <v>405</v>
+      </c>
+      <c r="ED3" s="38" t="s">
+        <v>406</v>
+      </c>
+      <c r="EE3" s="38" t="s">
+        <v>407</v>
+      </c>
+      <c r="EF3" s="38" t="s">
+        <v>408</v>
+      </c>
+      <c r="EG3" s="38" t="s">
+        <v>409</v>
+      </c>
+      <c r="EH3" s="38" t="s">
+        <v>410</v>
+      </c>
+      <c r="EI3" s="38" t="s">
+        <v>411</v>
+      </c>
+      <c r="EJ3" s="38" t="s">
+        <v>412</v>
+      </c>
+      <c r="EK3" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="EL3" s="38" t="s">
+        <v>413</v>
+      </c>
+      <c r="EM3" s="38" t="s">
+        <v>413</v>
+      </c>
+      <c r="EN3" s="38" t="s">
+        <v>413</v>
+      </c>
+      <c r="EO3" s="38" t="s">
+        <v>414</v>
+      </c>
+      <c r="EP3" s="38" t="s">
+        <v>414</v>
+      </c>
+      <c r="EQ3" s="38" t="s">
+        <v>414</v>
+      </c>
+      <c r="ER3" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="ES3" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="ET3" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="EU3" s="38" t="s">
+        <v>415</v>
+      </c>
+      <c r="EV3" s="38" t="s">
+        <v>415</v>
+      </c>
+      <c r="EW3" s="38" t="s">
+        <v>416</v>
+      </c>
+      <c r="EX3" s="38" t="s">
+        <v>417</v>
+      </c>
+      <c r="EY3" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="EZ3" s="38" t="s">
+        <v>419</v>
+      </c>
+      <c r="FA3" s="38" t="s">
+        <v>419</v>
+      </c>
+      <c r="FB3" s="38" t="s">
+        <v>420</v>
+      </c>
+      <c r="FC3" s="38" t="s">
+        <v>420</v>
+      </c>
+      <c r="FD3" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="FE3" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="FF3" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="FG3" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="FH3" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="FI3" s="50" t="s">
+        <v>421</v>
+      </c>
+      <c r="FJ3" s="50" t="s">
+        <v>421</v>
+      </c>
+      <c r="FK3" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="FL3" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="FM3" s="38" t="s">
+        <v>423</v>
+      </c>
+      <c r="FN3" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="FO3" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="FP3" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="FQ3" s="38" t="s">
+        <v>425</v>
+      </c>
+      <c r="FR3" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="FS3" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="FT3" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="FU3" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="FV3" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="FW3" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="FX3" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="FY3" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="FZ3" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="GA3" s="38" t="s">
+        <v>348</v>
+      </c>
+      <c r="GB3" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="GC3" s="38" t="s">
+        <v>427</v>
+      </c>
+      <c r="GD3" s="38" t="s">
+        <v>427</v>
+      </c>
+      <c r="GE3" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="GF3" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="GG3" s="38" t="s">
+        <v>428</v>
+      </c>
+      <c r="GH3" s="38" t="s">
+        <v>429</v>
+      </c>
+      <c r="GI3" s="38" t="s">
+        <v>430</v>
+      </c>
+      <c r="GJ3" s="38" t="s">
+        <v>431</v>
+      </c>
+      <c r="GK3" s="38" t="s">
+        <v>431</v>
+      </c>
+      <c r="GL3" s="38" t="s">
+        <v>432</v>
+      </c>
+      <c r="GM3" s="38" t="s">
+        <v>432</v>
+      </c>
+      <c r="GN3" s="38" t="s">
+        <v>433</v>
+      </c>
+      <c r="GO3" s="38" t="s">
+        <v>433</v>
+      </c>
+      <c r="GP3" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="GQ3" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="GR3" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="GS3" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="GT3" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="GU3" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="Z3" s="38" t="s">
-        <v>361</v>
-      </c>
-      <c r="AA3" s="38" t="s">
-        <v>362</v>
-      </c>
-      <c r="AB3" s="38" t="s">
-        <v>363</v>
-      </c>
-      <c r="AC3" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD3" s="38" t="s">
-        <v>364</v>
-      </c>
-      <c r="AE3" s="38" t="s">
-        <v>364</v>
-      </c>
-      <c r="AF3" s="38" t="s">
-        <v>364</v>
-      </c>
-      <c r="AG3" s="38" t="s">
-        <v>365</v>
-      </c>
-      <c r="AH3" s="38" t="s">
-        <v>365</v>
-      </c>
-      <c r="AI3" s="38" t="s">
-        <v>365</v>
-      </c>
-      <c r="AJ3" s="38" t="s">
-        <v>365</v>
-      </c>
-      <c r="AK3" s="38" t="s">
-        <v>366</v>
-      </c>
-      <c r="AL3" s="38" t="s">
-        <v>366</v>
-      </c>
-      <c r="AM3" s="38" t="s">
-        <v>366</v>
-      </c>
-      <c r="AN3" s="38" t="s">
-        <v>367</v>
-      </c>
-      <c r="AO3" s="38" t="s">
-        <v>367</v>
-      </c>
-      <c r="AP3" s="38" t="s">
-        <v>367</v>
-      </c>
-      <c r="AQ3" s="38" t="s">
-        <v>367</v>
-      </c>
-      <c r="AR3" s="38" t="s">
-        <v>368</v>
-      </c>
-      <c r="AS3" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="AT3" s="38" t="s">
-        <v>369</v>
-      </c>
-      <c r="AU3" s="38" t="s">
-        <v>370</v>
-      </c>
-      <c r="AV3" s="38" t="s">
-        <v>371</v>
-      </c>
-      <c r="AW3" s="38" t="s">
-        <v>372</v>
-      </c>
-      <c r="AX3" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="AY3" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="AZ3" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="BA3" s="38" t="s">
-        <v>373</v>
-      </c>
-      <c r="BB3" s="38" t="s">
-        <v>374</v>
-      </c>
-      <c r="BC3" s="38" t="s">
-        <v>374</v>
-      </c>
-      <c r="BD3" s="38" t="s">
-        <v>375</v>
-      </c>
-      <c r="BE3" s="38" t="s">
-        <v>375</v>
-      </c>
-      <c r="BF3" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG3" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="BH3" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI3" s="38" t="s">
-        <v>377</v>
-      </c>
-      <c r="BJ3" s="38" t="s">
-        <v>376</v>
-      </c>
-      <c r="BK3" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="BL3" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="BM3" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="BN3" s="38" t="s">
-        <v>378</v>
-      </c>
-      <c r="BO3" s="38" t="s">
-        <v>378</v>
-      </c>
-      <c r="BP3" s="38" t="s">
-        <v>379</v>
-      </c>
-      <c r="BQ3" s="38" t="s">
-        <v>379</v>
-      </c>
-      <c r="BR3" s="38" t="s">
-        <v>380</v>
-      </c>
-      <c r="BS3" s="38" t="s">
-        <v>380</v>
-      </c>
-      <c r="BT3" s="38" t="s">
-        <v>380</v>
-      </c>
-      <c r="BU3" s="38" t="s">
-        <v>380</v>
-      </c>
-      <c r="BV3" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="BW3" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="BX3" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="BY3" s="38" t="s">
-        <v>381</v>
-      </c>
-      <c r="BZ3" s="38" t="s">
-        <v>381</v>
-      </c>
-      <c r="CA3" s="38" t="s">
-        <v>381</v>
-      </c>
-      <c r="CB3" s="38" t="s">
-        <v>382</v>
-      </c>
-      <c r="CC3" s="38" t="s">
-        <v>382</v>
-      </c>
-      <c r="CD3" s="38" t="s">
-        <v>382</v>
-      </c>
-      <c r="CE3" s="38" t="s">
-        <v>383</v>
-      </c>
-      <c r="CF3" s="38" t="s">
-        <v>383</v>
-      </c>
-      <c r="CG3" s="38" t="s">
-        <v>383</v>
-      </c>
-      <c r="CH3" s="38" t="s">
-        <v>384</v>
-      </c>
-      <c r="CI3" s="38" t="s">
-        <v>385</v>
-      </c>
-      <c r="CJ3" s="38" t="s">
-        <v>386</v>
-      </c>
-      <c r="CK3" s="38" t="s">
-        <v>387</v>
-      </c>
-      <c r="CL3" s="38" t="s">
-        <v>388</v>
-      </c>
-      <c r="CM3" s="38" t="s">
-        <v>389</v>
-      </c>
-      <c r="CN3" s="38" t="s">
-        <v>390</v>
-      </c>
-      <c r="CO3" s="38" t="s">
-        <v>390</v>
-      </c>
-      <c r="CP3" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="CQ3" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="CR3" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="CS3" s="38" t="s">
-        <v>391</v>
-      </c>
-      <c r="CT3" s="38" t="s">
-        <v>392</v>
-      </c>
-      <c r="CU3" s="38" t="s">
-        <v>393</v>
-      </c>
-      <c r="CV3" s="38" t="s">
-        <v>394</v>
-      </c>
-      <c r="CW3" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="CX3" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="CY3" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="CZ3" s="38" t="s">
-        <v>395</v>
-      </c>
-      <c r="DA3" s="38" t="s">
-        <v>395</v>
-      </c>
-      <c r="DB3" s="38" t="s">
-        <v>395</v>
-      </c>
-      <c r="DC3" s="38" t="s">
-        <v>396</v>
-      </c>
-      <c r="DD3" s="38" t="s">
-        <v>397</v>
-      </c>
-      <c r="DE3" s="38" t="s">
-        <v>398</v>
-      </c>
-      <c r="DF3" s="38" t="s">
-        <v>398</v>
-      </c>
-      <c r="DG3" s="38" t="s">
-        <v>399</v>
-      </c>
-      <c r="DH3" s="38" t="s">
-        <v>400</v>
-      </c>
-      <c r="DI3" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="DJ3" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="DK3" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="DL3" s="38" t="s">
-        <v>401</v>
-      </c>
-      <c r="DM3" s="38" t="s">
-        <v>402</v>
-      </c>
-      <c r="DN3" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="DO3" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="DP3" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="DQ3" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="DR3" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="DS3" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="DT3" s="38" t="s">
-        <v>403</v>
-      </c>
-      <c r="DU3" s="38" t="s">
-        <v>403</v>
-      </c>
-      <c r="DV3" s="38" t="s">
-        <v>404</v>
-      </c>
-      <c r="DW3" s="38" t="s">
-        <v>404</v>
-      </c>
-      <c r="DX3" s="38" t="s">
-        <v>405</v>
-      </c>
-      <c r="DY3" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="DZ3" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="EA3" s="38" t="s">
-        <v>406</v>
-      </c>
-      <c r="EB3" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="EC3" s="38" t="s">
-        <v>407</v>
-      </c>
-      <c r="ED3" s="38" t="s">
-        <v>408</v>
-      </c>
-      <c r="EE3" s="38" t="s">
-        <v>409</v>
-      </c>
-      <c r="EF3" s="38" t="s">
-        <v>410</v>
-      </c>
-      <c r="EG3" s="38" t="s">
-        <v>411</v>
-      </c>
-      <c r="EH3" s="38" t="s">
-        <v>412</v>
-      </c>
-      <c r="EI3" s="38" t="s">
-        <v>413</v>
-      </c>
-      <c r="EJ3" s="38" t="s">
-        <v>414</v>
-      </c>
-      <c r="EK3" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="EL3" s="38" t="s">
-        <v>415</v>
-      </c>
-      <c r="EM3" s="38" t="s">
-        <v>415</v>
-      </c>
-      <c r="EN3" s="38" t="s">
-        <v>415</v>
-      </c>
-      <c r="EO3" s="38" t="s">
-        <v>416</v>
-      </c>
-      <c r="EP3" s="38" t="s">
-        <v>416</v>
-      </c>
-      <c r="EQ3" s="38" t="s">
-        <v>416</v>
-      </c>
-      <c r="ER3" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="ES3" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="ET3" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="EU3" s="38" t="s">
-        <v>417</v>
-      </c>
-      <c r="EV3" s="38" t="s">
-        <v>417</v>
-      </c>
-      <c r="EW3" s="38" t="s">
-        <v>418</v>
-      </c>
-      <c r="EX3" s="38" t="s">
-        <v>419</v>
-      </c>
-      <c r="EY3" s="38" t="s">
-        <v>420</v>
-      </c>
-      <c r="EZ3" s="38" t="s">
-        <v>421</v>
-      </c>
-      <c r="FA3" s="38" t="s">
-        <v>421</v>
-      </c>
-      <c r="FB3" s="38" t="s">
-        <v>422</v>
-      </c>
-      <c r="FC3" s="38" t="s">
-        <v>422</v>
-      </c>
-      <c r="FD3" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="FE3" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="FF3" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="FG3" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="FH3" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="FI3" s="50" t="s">
-        <v>423</v>
-      </c>
-      <c r="FJ3" s="50" t="s">
-        <v>423</v>
-      </c>
-      <c r="FK3" s="38" t="s">
-        <v>424</v>
-      </c>
-      <c r="FL3" s="38" t="s">
-        <v>424</v>
-      </c>
-      <c r="FM3" s="38" t="s">
-        <v>425</v>
-      </c>
-      <c r="FN3" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="FO3" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="FP3" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="FQ3" s="38" t="s">
-        <v>427</v>
-      </c>
-      <c r="FR3" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="FS3" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="FT3" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="FU3" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="FV3" s="38" t="s">
-        <v>428</v>
-      </c>
-      <c r="FW3" s="38" t="s">
-        <v>428</v>
-      </c>
-      <c r="FX3" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="FY3" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="FZ3" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="GA3" s="38" t="s">
-        <v>350</v>
-      </c>
-      <c r="GB3" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="GC3" s="38" t="s">
-        <v>429</v>
-      </c>
-      <c r="GD3" s="38" t="s">
-        <v>429</v>
-      </c>
-      <c r="GE3" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="GF3" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="GG3" s="38" t="s">
-        <v>430</v>
-      </c>
-      <c r="GH3" s="38" t="s">
-        <v>431</v>
-      </c>
-      <c r="GI3" s="38" t="s">
-        <v>432</v>
-      </c>
-      <c r="GJ3" s="38" t="s">
-        <v>433</v>
-      </c>
-      <c r="GK3" s="38" t="s">
-        <v>433</v>
-      </c>
-      <c r="GL3" s="38" t="s">
+      <c r="GV3" s="38" t="s">
         <v>434</v>
       </c>
-      <c r="GM3" s="38" t="s">
-        <v>434</v>
-      </c>
-      <c r="GN3" s="38" t="s">
+      <c r="GW3" s="38" t="s">
+        <v>436</v>
+      </c>
+      <c r="GX3" s="38" t="s">
         <v>435</v>
       </c>
-      <c r="GO3" s="38" t="s">
-        <v>435</v>
-      </c>
-      <c r="GP3" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="GQ3" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="GR3" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="GS3" s="38" t="s">
+      <c r="GY3" s="38" t="s">
+        <v>437</v>
+      </c>
+      <c r="GZ3" s="38" t="s">
+        <v>438</v>
+      </c>
+      <c r="HA3" s="38" t="s">
+        <v>439</v>
+      </c>
+      <c r="HB3" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="GT3" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="GU3" s="38" t="s">
-        <v>447</v>
-      </c>
-      <c r="GV3" s="38" t="s">
-        <v>436</v>
-      </c>
-      <c r="GW3" s="38" t="s">
-        <v>438</v>
-      </c>
-      <c r="GX3" s="38" t="s">
-        <v>437</v>
-      </c>
-      <c r="GY3" s="38" t="s">
-        <v>439</v>
-      </c>
-      <c r="GZ3" s="38" t="s">
+      <c r="HC3" s="38" t="s">
         <v>440</v>
       </c>
-      <c r="HA3" s="38" t="s">
+      <c r="HD3" s="38" t="s">
+        <v>440</v>
+      </c>
+      <c r="HE3" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="HF3" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="HG3" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="HH3" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="HI3" s="38" t="s">
         <v>441</v>
       </c>
-      <c r="HB3" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="HC3" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="HD3" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="HE3" s="38" t="s">
+      <c r="HJ3" s="38" t="s">
+        <v>441</v>
+      </c>
+      <c r="HK3" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="HF3" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="HG3" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="HH3" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="HI3" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="HJ3" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="HK3" s="38" t="s">
+      <c r="HL3" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="HL3" s="38" t="s">
+      <c r="HM3" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="HM3" s="38" t="s">
+      <c r="HN3" s="38" t="s">
         <v>123</v>
-      </c>
-      <c r="HN3" s="38" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:222" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -6980,661 +6972,661 @@
         <v>12</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="L5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="M5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="N5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="O5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="P5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="Q5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="R5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="S5" s="38" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="T5" s="38" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="U5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="V5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="W5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="X5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="Y5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="Z5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AA5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AB5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AC5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AD5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AE5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AF5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AG5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AH5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AI5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AJ5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AK5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AL5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AM5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AN5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AO5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AP5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AQ5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AR5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AS5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AT5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AU5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AV5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AW5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AX5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AY5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AZ5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="BA5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="BB5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="BC5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="BD5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="BE5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="BF5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="BG5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="BH5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="BI5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="BJ5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="BK5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="BL5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="BM5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="BN5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="BO5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="BP5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="BQ5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="BR5" s="38" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="BS5" s="38" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="BT5" s="38" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="BU5" s="38" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="BV5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="BW5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="BX5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="BY5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="BZ5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CA5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CB5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CC5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CF5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CG5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CH5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CI5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CJ5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CK5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CL5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CM5" s="38" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="CN5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CO5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CP5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CQ5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CR5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CS5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CT5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CU5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CV5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CW5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CX5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CY5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CZ5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="DA5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="DB5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="DC5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="DD5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="DE5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="DF5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="DG5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="DH5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="DI5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="DJ5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="DK5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="DL5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="DM5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="DN5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="DO5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="DP5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="DQ5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="DR5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="DS5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="DT5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="DU5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="DV5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="DW5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="DX5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="DY5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="DZ5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="EA5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="EB5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="EC5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="ED5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="EE5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="EF5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="EG5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="EH5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="EI5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="EJ5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="EK5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="EL5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="EM5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="EN5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="EO5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="EP5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="EQ5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="ER5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="ES5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="ET5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="EU5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="EV5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="EW5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="EX5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="EY5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="EZ5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="FA5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="FB5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="FC5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="FD5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="FE5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="FF5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="FG5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="FH5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="FI5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="FJ5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="FK5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="FL5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="FM5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="FN5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="FO5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="FP5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="FQ5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="FR5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="FS5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="FT5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="FU5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="FV5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="FW5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="FX5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="FY5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="FZ5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="GA5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="GB5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="GC5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="GD5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="GE5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="GF5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="GG5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="GH5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="GI5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="GJ5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="GK5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="GL5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="GM5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="GN5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="GO5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="GP5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="GQ5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="GR5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="GS5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="GT5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="GU5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="GV5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="GW5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="GX5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="GY5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="GZ5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="HA5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="HB5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="HC5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="HD5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="HE5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="HF5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="HG5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="HH5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="HI5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="HJ5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="HK5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="HL5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="HM5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="HN5" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:222" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -8982,661 +8974,661 @@
         <v>15</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="M8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="N8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="P8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="Q8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="R8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="S8" s="38" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="T8" s="38" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="U8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="V8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="W8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="X8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="Y8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="Z8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AA8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AB8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AC8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AD8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AE8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AF8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AG8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AH8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AI8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AJ8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AK8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AL8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AM8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AN8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AO8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AP8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AQ8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AR8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AS8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AT8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AU8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AV8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AW8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AX8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AY8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AZ8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="BA8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="BB8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="BC8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="BD8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="BE8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="BF8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="BG8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="BH8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="BI8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="BJ8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="BK8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="BL8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="BM8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="BN8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="BO8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="BP8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="BQ8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="BR8" s="38" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="BS8" s="38" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="BT8" s="38" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="BU8" s="38" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="BV8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="BW8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="BX8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="BY8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="BZ8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CA8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CB8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CC8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CD8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CE8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CF8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CG8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CH8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CJ8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CK8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CL8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CM8" s="38" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="CN8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CO8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CP8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CQ8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CR8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CS8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CT8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CU8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CV8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CW8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CX8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CY8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CZ8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="DA8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="DB8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="DC8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="DD8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="DE8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="DF8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="DG8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="DH8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="DI8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="DJ8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="DK8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="DL8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="DM8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="DN8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="DO8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="DP8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="DQ8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="DR8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="DS8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="DT8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="DU8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="DV8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="DW8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="DX8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="DY8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="DZ8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="EA8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="EB8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="EC8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="ED8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="EE8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="EF8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="EG8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="EH8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="EI8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="EJ8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="EK8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="EL8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="EM8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="EN8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="EO8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="EP8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="EQ8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="ER8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="ES8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="ET8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="EU8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="EV8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="EW8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="EX8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="EY8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="EZ8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="FA8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="FB8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="FC8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="FD8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="FE8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="FF8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="FG8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="FH8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="FI8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="FJ8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="FK8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="FL8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="FM8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="FN8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="FO8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="FP8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="FQ8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="FR8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="FS8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="FT8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="FU8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="FV8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="FW8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="FX8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="FY8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="FZ8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="GA8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="GB8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="GC8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="GD8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="GE8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="GF8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="GG8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="GH8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="GI8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="GJ8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="GK8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="GL8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="GM8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="GN8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="GO8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="GP8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="GQ8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="GR8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="GS8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="GT8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="GU8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="GV8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="GW8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="GX8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="GY8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="GZ8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="HA8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="HB8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="HC8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="HD8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="HE8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="HF8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="HG8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="HH8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="HI8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="HJ8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="HK8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="HL8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="HM8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="HN8" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:222" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -9648,661 +9640,661 @@
         <v>16</v>
       </c>
       <c r="D9" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="F9" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="I9" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="J9" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="K9" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="L9" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="M9" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="N9" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="O9" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="P9" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q9" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="S9" s="50" t="s">
+        <v>313</v>
+      </c>
+      <c r="T9" s="50" t="s">
+        <v>314</v>
+      </c>
+      <c r="U9" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="V9" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="W9" s="50" t="s">
+        <v>334</v>
+      </c>
+      <c r="X9" s="50" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y9" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z9" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA9" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB9" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC9" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD9" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE9" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF9" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG9" s="38" t="s">
+        <v>315</v>
+      </c>
+      <c r="AH9" s="38" t="s">
+        <v>316</v>
+      </c>
+      <c r="AI9" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ9" s="38" t="s">
+        <v>317</v>
+      </c>
+      <c r="AK9" s="38" t="s">
+        <v>336</v>
+      </c>
+      <c r="AL9" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="AM9" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="AN9" s="38" t="s">
+        <v>338</v>
+      </c>
+      <c r="AO9" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP9" s="38" t="s">
+        <v>337</v>
+      </c>
+      <c r="AQ9" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR9" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS9" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="AT9" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU9" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="AV9" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW9" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="AX9" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="AY9" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="AZ9" s="38" t="s">
+        <v>339</v>
+      </c>
+      <c r="BA9" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="BB9" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="H9" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="I9" s="38" t="s">
+      <c r="BC9" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD9" s="38" t="s">
+        <v>318</v>
+      </c>
+      <c r="BE9" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="BF9" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="BG9" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="J9" s="38" t="s">
+      <c r="BH9" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="BI9" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ9" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="BK9" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="BL9" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="BM9" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="BN9" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="BO9" s="38" t="s">
+        <v>340</v>
+      </c>
+      <c r="BP9" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="BQ9" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="BR9" s="50" t="s">
+        <v>444</v>
+      </c>
+      <c r="BS9" s="50" t="s">
+        <v>314</v>
+      </c>
+      <c r="BT9" s="50" t="s">
+        <v>345</v>
+      </c>
+      <c r="BU9" s="50" t="s">
+        <v>334</v>
+      </c>
+      <c r="BV9" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="BW9" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="BX9" s="38" t="s">
+        <v>342</v>
+      </c>
+      <c r="BY9" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="BZ9" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="CA9" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="CB9" s="38" t="s">
+        <v>344</v>
+      </c>
+      <c r="CC9" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="CD9" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="K9" s="38" t="s">
+      <c r="CE9" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="CF9" s="38" t="s">
+        <v>320</v>
+      </c>
+      <c r="CG9" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="CH9" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="CI9" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="CJ9" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="CK9" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="CL9" s="38" t="s">
+        <v>343</v>
+      </c>
+      <c r="CM9" s="50" t="s">
+        <v>334</v>
+      </c>
+      <c r="CN9" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="CO9" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="CP9" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="CQ9" s="38" t="s">
+        <v>346</v>
+      </c>
+      <c r="CR9" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="CS9" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="CT9" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="L9" s="38" t="s">
+      <c r="CU9" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="CV9" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="CW9" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="CX9" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="CY9" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="CZ9" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="DA9" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="DB9" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="DC9" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="DD9" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="DE9" s="38" t="s">
+        <v>318</v>
+      </c>
+      <c r="DF9" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="DG9" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="DH9" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="DI9" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="DJ9" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="DK9" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="DL9" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="DM9" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="DN9" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="DO9" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="DP9" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="DQ9" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="DR9" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="DS9" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="DT9" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="DU9" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="DV9" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="DW9" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="DX9" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="DY9" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="DZ9" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="EA9" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="EB9" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="EC9" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="ED9" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="EE9" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="EF9" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="EG9" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="EH9" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="EI9" s="38" t="s">
+        <v>336</v>
+      </c>
+      <c r="EJ9" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="EK9" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="EL9" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="EM9" s="38" t="s">
+        <v>320</v>
+      </c>
+      <c r="EN9" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="EO9" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="EP9" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="EQ9" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="ER9" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="ES9" s="38" t="s">
+        <v>323</v>
+      </c>
+      <c r="ET9" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="EU9" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="EV9" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="EW9" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="EX9" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="EY9" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="EZ9" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="FA9" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="FB9" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="FC9" s="38" t="s">
+        <v>324</v>
+      </c>
+      <c r="FD9" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="FE9" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="FF9" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="FG9" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="FH9" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="FI9" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="FJ9" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="FK9" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="FL9" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="FM9" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="FN9" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="FO9" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="FP9" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="FQ9" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="FR9" s="38" t="s">
+        <v>347</v>
+      </c>
+      <c r="FS9" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="FT9" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="FU9" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="FV9" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="FW9" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="FX9" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="FY9" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="FZ9" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="GA9" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="GB9" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="GC9" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="GD9" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="GE9" s="38" t="s">
+        <v>329</v>
+      </c>
+      <c r="GF9" s="38" t="s">
+        <v>318</v>
+      </c>
+      <c r="GG9" s="50" t="s">
+        <v>332</v>
+      </c>
+      <c r="GH9" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="GI9" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="GJ9" s="38" t="s">
+        <v>326</v>
+      </c>
+      <c r="GK9" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="GL9" s="38" t="s">
+        <v>318</v>
+      </c>
+      <c r="GM9" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="GN9" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="GO9" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="GP9" s="38" t="s">
+        <v>327</v>
+      </c>
+      <c r="GQ9" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="GR9" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="GS9" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="M9" s="38" t="s">
+      <c r="GT9" s="38" t="s">
+        <v>328</v>
+      </c>
+      <c r="GU9" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="N9" s="38" t="s">
+      <c r="GV9" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="GW9" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="O9" s="38" t="s">
+      <c r="GX9" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="GY9" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="GZ9" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="HA9" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="HB9" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="HC9" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="HD9" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="HE9" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="HF9" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="HG9" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="HH9" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="P9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q9" s="38" t="s">
+      <c r="HI9" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="R9" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="S9" s="50" t="s">
-        <v>315</v>
-      </c>
-      <c r="T9" s="50" t="s">
-        <v>316</v>
-      </c>
-      <c r="U9" s="38" t="s">
+      <c r="HJ9" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="HK9" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="V9" s="50" t="s">
-        <v>335</v>
-      </c>
-      <c r="W9" s="50" t="s">
-        <v>336</v>
-      </c>
-      <c r="X9" s="50" t="s">
-        <v>337</v>
-      </c>
-      <c r="Y9" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z9" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC9" s="38" t="s">
+      <c r="HL9" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="HM9" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="AD9" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE9" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="AG9" s="38" t="s">
-        <v>317</v>
-      </c>
-      <c r="AH9" s="38" t="s">
-        <v>318</v>
-      </c>
-      <c r="AI9" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="AJ9" s="38" t="s">
-        <v>319</v>
-      </c>
-      <c r="AK9" s="38" t="s">
-        <v>338</v>
-      </c>
-      <c r="AL9" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="AN9" s="38" t="s">
-        <v>340</v>
-      </c>
-      <c r="AO9" s="38" t="s">
+      <c r="HN9" s="38" t="s">
         <v>125</v>
-      </c>
-      <c r="AP9" s="38" t="s">
-        <v>339</v>
-      </c>
-      <c r="AQ9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="AR9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="AS9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="AT9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="AU9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="AV9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="AW9" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="AX9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="AY9" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="AZ9" s="38" t="s">
-        <v>341</v>
-      </c>
-      <c r="BA9" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="BB9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="BC9" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="BD9" s="38" t="s">
-        <v>320</v>
-      </c>
-      <c r="BE9" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="BF9" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="BG9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="BH9" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="BI9" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="BJ9" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="BK9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="BL9" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="BM9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="BN9" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="BO9" s="38" t="s">
-        <v>342</v>
-      </c>
-      <c r="BP9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="BQ9" s="38" t="s">
-        <v>321</v>
-      </c>
-      <c r="BR9" s="50" t="s">
-        <v>446</v>
-      </c>
-      <c r="BS9" s="50" t="s">
-        <v>316</v>
-      </c>
-      <c r="BT9" s="50" t="s">
-        <v>347</v>
-      </c>
-      <c r="BU9" s="50" t="s">
-        <v>336</v>
-      </c>
-      <c r="BV9" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="BW9" s="38" t="s">
-        <v>343</v>
-      </c>
-      <c r="BX9" s="38" t="s">
-        <v>344</v>
-      </c>
-      <c r="BY9" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="BZ9" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="CA9" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="CB9" s="38" t="s">
-        <v>346</v>
-      </c>
-      <c r="CC9" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="CD9" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="CE9" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="CF9" s="38" t="s">
-        <v>322</v>
-      </c>
-      <c r="CG9" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="CH9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="CI9" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="CJ9" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="CK9" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="CL9" s="38" t="s">
-        <v>345</v>
-      </c>
-      <c r="CM9" s="50" t="s">
-        <v>336</v>
-      </c>
-      <c r="CN9" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="CO9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="CP9" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="CQ9" s="38" t="s">
-        <v>348</v>
-      </c>
-      <c r="CR9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="CS9" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="CT9" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="CU9" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="CV9" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="CW9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="CX9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="CY9" s="38" t="s">
-        <v>323</v>
-      </c>
-      <c r="CZ9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="DA9" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="DB9" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="DC9" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="DD9" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="DE9" s="38" t="s">
-        <v>320</v>
-      </c>
-      <c r="DF9" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="DG9" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="DH9" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="DI9" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="DJ9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="DK9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="DL9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="DM9" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="DN9" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="DO9" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="DP9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="DQ9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="DR9" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="DS9" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="DT9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="DU9" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="DV9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="DW9" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="DX9" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="DY9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="DZ9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="EA9" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="EB9" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="EC9" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="ED9" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="EE9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="EF9" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="EG9" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="EH9" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="EI9" s="38" t="s">
-        <v>338</v>
-      </c>
-      <c r="EJ9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="EK9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="EL9" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="EM9" s="38" t="s">
-        <v>322</v>
-      </c>
-      <c r="EN9" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="EO9" s="38" t="s">
-        <v>324</v>
-      </c>
-      <c r="EP9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="EQ9" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="ER9" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="ES9" s="38" t="s">
-        <v>325</v>
-      </c>
-      <c r="ET9" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="EU9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="EV9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="EW9" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="EX9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="EY9" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="EZ9" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="FA9" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="FB9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="FC9" s="38" t="s">
-        <v>326</v>
-      </c>
-      <c r="FD9" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="FE9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="FF9" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="FG9" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="FH9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="FI9" s="38" t="s">
-        <v>327</v>
-      </c>
-      <c r="FJ9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="FK9" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="FL9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="FM9" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="FN9" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="FO9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="FP9" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="FQ9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="FR9" s="38" t="s">
-        <v>349</v>
-      </c>
-      <c r="FS9" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="FT9" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="FU9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="FV9" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="FW9" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="FX9" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="FY9" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="FZ9" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="GA9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="GB9" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="GC9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="GD9" s="38" t="s">
-        <v>351</v>
-      </c>
-      <c r="GE9" s="38" t="s">
-        <v>331</v>
-      </c>
-      <c r="GF9" s="38" t="s">
-        <v>320</v>
-      </c>
-      <c r="GG9" s="50" t="s">
-        <v>334</v>
-      </c>
-      <c r="GH9" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="GI9" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="GJ9" s="38" t="s">
-        <v>328</v>
-      </c>
-      <c r="GK9" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="GL9" s="38" t="s">
-        <v>320</v>
-      </c>
-      <c r="GM9" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="GN9" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="GO9" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="GP9" s="38" t="s">
-        <v>329</v>
-      </c>
-      <c r="GQ9" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="GR9" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="GS9" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="GT9" s="38" t="s">
-        <v>330</v>
-      </c>
-      <c r="GU9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="GV9" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="GW9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="GX9" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="GY9" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="GZ9" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="HA9" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="HB9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="HC9" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="HD9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="HE9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="HF9" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="HG9" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="HH9" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="HI9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="HJ9" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="HK9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="HL9" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="HM9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="HN9" s="38" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:222" s="41" customFormat="1" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -10976,7 +10968,7 @@
     <row r="11" spans="1:222" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="50"/>
       <c r="C11" s="50" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D11" s="58">
         <v>1</v>
@@ -11778,661 +11770,661 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
+        <v>446</v>
+      </c>
+      <c r="E14" t="s">
+        <v>447</v>
+      </c>
+      <c r="F14" t="s">
         <v>448</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G14" t="s">
         <v>449</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
         <v>450</v>
       </c>
-      <c r="G14" t="s">
+      <c r="I14" t="s">
         <v>451</v>
       </c>
-      <c r="H14" t="s">
+      <c r="J14" t="s">
         <v>452</v>
       </c>
-      <c r="I14" t="s">
+      <c r="K14" t="s">
         <v>453</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
         <v>454</v>
       </c>
-      <c r="K14" t="s">
+      <c r="M14" t="s">
         <v>455</v>
       </c>
-      <c r="L14" t="s">
+      <c r="N14" t="s">
         <v>456</v>
       </c>
-      <c r="M14" t="s">
+      <c r="O14" t="s">
         <v>457</v>
       </c>
-      <c r="N14" t="s">
+      <c r="P14" t="s">
         <v>458</v>
       </c>
-      <c r="O14" t="s">
+      <c r="Q14" t="s">
         <v>459</v>
       </c>
-      <c r="P14" t="s">
+      <c r="R14" t="s">
         <v>460</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="S14" t="s">
         <v>461</v>
       </c>
-      <c r="R14" t="s">
+      <c r="T14" t="s">
         <v>462</v>
       </c>
-      <c r="S14" t="s">
+      <c r="U14" t="s">
         <v>463</v>
       </c>
-      <c r="T14" t="s">
+      <c r="V14" t="s">
         <v>464</v>
       </c>
-      <c r="U14" t="s">
+      <c r="W14" t="s">
         <v>465</v>
       </c>
-      <c r="V14" t="s">
+      <c r="X14" t="s">
         <v>466</v>
       </c>
-      <c r="W14" t="s">
+      <c r="Y14" t="s">
         <v>467</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Z14" t="s">
         <v>468</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="AA14" t="s">
         <v>469</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AB14" t="s">
         <v>470</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AC14" t="s">
         <v>471</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AD14" t="s">
         <v>472</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AE14" t="s">
         <v>473</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AF14" t="s">
         <v>474</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AG14" t="s">
         <v>475</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AH14" t="s">
         <v>476</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AI14" t="s">
         <v>477</v>
       </c>
-      <c r="AH14" t="s">
+      <c r="AJ14" t="s">
         <v>478</v>
       </c>
-      <c r="AI14" t="s">
+      <c r="AK14" t="s">
         <v>479</v>
       </c>
-      <c r="AJ14" t="s">
+      <c r="AL14" t="s">
         <v>480</v>
       </c>
-      <c r="AK14" t="s">
+      <c r="AM14" t="s">
         <v>481</v>
       </c>
-      <c r="AL14" t="s">
+      <c r="AN14" t="s">
         <v>482</v>
       </c>
-      <c r="AM14" t="s">
+      <c r="AO14" t="s">
         <v>483</v>
       </c>
-      <c r="AN14" t="s">
+      <c r="AP14" t="s">
         <v>484</v>
       </c>
-      <c r="AO14" t="s">
+      <c r="AQ14" t="s">
         <v>485</v>
       </c>
-      <c r="AP14" t="s">
+      <c r="AR14" t="s">
         <v>486</v>
       </c>
-      <c r="AQ14" t="s">
+      <c r="AS14" t="s">
         <v>487</v>
       </c>
-      <c r="AR14" t="s">
+      <c r="AT14" t="s">
         <v>488</v>
       </c>
-      <c r="AS14" t="s">
+      <c r="AU14" t="s">
         <v>489</v>
       </c>
-      <c r="AT14" t="s">
+      <c r="AV14" t="s">
         <v>490</v>
       </c>
-      <c r="AU14" t="s">
+      <c r="AW14" t="s">
         <v>491</v>
       </c>
-      <c r="AV14" t="s">
+      <c r="AX14" t="s">
         <v>492</v>
       </c>
-      <c r="AW14" t="s">
+      <c r="AY14" t="s">
         <v>493</v>
       </c>
-      <c r="AX14" t="s">
+      <c r="AZ14" t="s">
         <v>494</v>
       </c>
-      <c r="AY14" t="s">
+      <c r="BA14" t="s">
         <v>495</v>
       </c>
-      <c r="AZ14" t="s">
+      <c r="BB14" t="s">
         <v>496</v>
       </c>
-      <c r="BA14" t="s">
+      <c r="BC14" t="s">
         <v>497</v>
       </c>
-      <c r="BB14" t="s">
+      <c r="BD14" t="s">
         <v>498</v>
       </c>
-      <c r="BC14" t="s">
+      <c r="BE14" t="s">
         <v>499</v>
       </c>
-      <c r="BD14" t="s">
+      <c r="BF14" t="s">
         <v>500</v>
       </c>
-      <c r="BE14" t="s">
+      <c r="BG14" t="s">
         <v>501</v>
       </c>
-      <c r="BF14" t="s">
+      <c r="BH14" t="s">
         <v>502</v>
       </c>
-      <c r="BG14" t="s">
+      <c r="BI14" t="s">
         <v>503</v>
       </c>
-      <c r="BH14" t="s">
+      <c r="BJ14" t="s">
         <v>504</v>
       </c>
-      <c r="BI14" t="s">
+      <c r="BK14" t="s">
         <v>505</v>
       </c>
-      <c r="BJ14" t="s">
+      <c r="BL14" t="s">
         <v>506</v>
       </c>
-      <c r="BK14" t="s">
+      <c r="BM14" t="s">
         <v>507</v>
       </c>
-      <c r="BL14" t="s">
+      <c r="BN14" t="s">
         <v>508</v>
       </c>
-      <c r="BM14" t="s">
+      <c r="BO14" t="s">
         <v>509</v>
       </c>
-      <c r="BN14" t="s">
+      <c r="BP14" t="s">
         <v>510</v>
       </c>
-      <c r="BO14" t="s">
+      <c r="BQ14" t="s">
         <v>511</v>
       </c>
-      <c r="BP14" t="s">
+      <c r="BR14" t="s">
         <v>512</v>
       </c>
-      <c r="BQ14" t="s">
+      <c r="BS14" t="s">
         <v>513</v>
       </c>
-      <c r="BR14" t="s">
+      <c r="BT14" t="s">
         <v>514</v>
       </c>
-      <c r="BS14" t="s">
+      <c r="BU14" t="s">
         <v>515</v>
       </c>
-      <c r="BT14" t="s">
+      <c r="BV14" t="s">
         <v>516</v>
       </c>
-      <c r="BU14" t="s">
+      <c r="BW14" t="s">
         <v>517</v>
       </c>
-      <c r="BV14" t="s">
+      <c r="BX14" t="s">
         <v>518</v>
       </c>
-      <c r="BW14" t="s">
+      <c r="BY14" t="s">
         <v>519</v>
       </c>
-      <c r="BX14" t="s">
+      <c r="BZ14" t="s">
         <v>520</v>
       </c>
-      <c r="BY14" t="s">
+      <c r="CA14" t="s">
         <v>521</v>
       </c>
-      <c r="BZ14" t="s">
+      <c r="CB14" t="s">
         <v>522</v>
       </c>
-      <c r="CA14" t="s">
+      <c r="CC14" t="s">
         <v>523</v>
       </c>
-      <c r="CB14" t="s">
+      <c r="CD14" t="s">
         <v>524</v>
       </c>
-      <c r="CC14" t="s">
+      <c r="CE14" t="s">
         <v>525</v>
       </c>
-      <c r="CD14" t="s">
+      <c r="CF14" t="s">
         <v>526</v>
       </c>
-      <c r="CE14" t="s">
+      <c r="CG14" t="s">
         <v>527</v>
       </c>
-      <c r="CF14" t="s">
+      <c r="CH14" t="s">
         <v>528</v>
       </c>
-      <c r="CG14" t="s">
+      <c r="CI14" t="s">
         <v>529</v>
       </c>
-      <c r="CH14" t="s">
+      <c r="CJ14" t="s">
         <v>530</v>
       </c>
-      <c r="CI14" t="s">
+      <c r="CK14" t="s">
         <v>531</v>
       </c>
-      <c r="CJ14" t="s">
+      <c r="CL14" t="s">
         <v>532</v>
       </c>
-      <c r="CK14" t="s">
+      <c r="CM14" t="s">
         <v>533</v>
       </c>
-      <c r="CL14" t="s">
+      <c r="CN14" t="s">
         <v>534</v>
       </c>
-      <c r="CM14" t="s">
+      <c r="CO14" t="s">
         <v>535</v>
       </c>
-      <c r="CN14" t="s">
+      <c r="CP14" t="s">
         <v>536</v>
       </c>
-      <c r="CO14" t="s">
+      <c r="CQ14" t="s">
         <v>537</v>
       </c>
-      <c r="CP14" t="s">
+      <c r="CR14" t="s">
         <v>538</v>
       </c>
-      <c r="CQ14" t="s">
+      <c r="CS14" t="s">
         <v>539</v>
       </c>
-      <c r="CR14" t="s">
+      <c r="CT14" t="s">
         <v>540</v>
       </c>
-      <c r="CS14" t="s">
+      <c r="CU14" t="s">
         <v>541</v>
       </c>
-      <c r="CT14" t="s">
+      <c r="CV14" t="s">
         <v>542</v>
       </c>
-      <c r="CU14" t="s">
+      <c r="CW14" t="s">
         <v>543</v>
       </c>
-      <c r="CV14" t="s">
+      <c r="CX14" t="s">
         <v>544</v>
       </c>
-      <c r="CW14" t="s">
+      <c r="CY14" t="s">
         <v>545</v>
       </c>
-      <c r="CX14" t="s">
+      <c r="CZ14" t="s">
         <v>546</v>
       </c>
-      <c r="CY14" t="s">
+      <c r="DA14" t="s">
         <v>547</v>
       </c>
-      <c r="CZ14" t="s">
+      <c r="DB14" t="s">
         <v>548</v>
       </c>
-      <c r="DA14" t="s">
+      <c r="DC14" t="s">
         <v>549</v>
       </c>
-      <c r="DB14" t="s">
+      <c r="DD14" t="s">
         <v>550</v>
       </c>
-      <c r="DC14" t="s">
+      <c r="DE14" t="s">
         <v>551</v>
       </c>
-      <c r="DD14" t="s">
+      <c r="DF14" t="s">
         <v>552</v>
       </c>
-      <c r="DE14" t="s">
+      <c r="DG14" t="s">
         <v>553</v>
       </c>
-      <c r="DF14" t="s">
+      <c r="DH14" t="s">
         <v>554</v>
       </c>
-      <c r="DG14" t="s">
+      <c r="DI14" t="s">
         <v>555</v>
       </c>
-      <c r="DH14" t="s">
+      <c r="DJ14" t="s">
         <v>556</v>
       </c>
-      <c r="DI14" t="s">
+      <c r="DK14" t="s">
         <v>557</v>
       </c>
-      <c r="DJ14" t="s">
+      <c r="DL14" t="s">
         <v>558</v>
       </c>
-      <c r="DK14" t="s">
+      <c r="DM14" t="s">
         <v>559</v>
       </c>
-      <c r="DL14" t="s">
+      <c r="DN14" t="s">
         <v>560</v>
       </c>
-      <c r="DM14" t="s">
+      <c r="DO14" t="s">
         <v>561</v>
       </c>
-      <c r="DN14" t="s">
+      <c r="DP14" t="s">
         <v>562</v>
       </c>
-      <c r="DO14" t="s">
+      <c r="DQ14" t="s">
         <v>563</v>
       </c>
-      <c r="DP14" t="s">
+      <c r="DR14" t="s">
         <v>564</v>
       </c>
-      <c r="DQ14" t="s">
+      <c r="DS14" t="s">
         <v>565</v>
       </c>
-      <c r="DR14" t="s">
+      <c r="DT14" t="s">
         <v>566</v>
       </c>
-      <c r="DS14" t="s">
+      <c r="DU14" t="s">
         <v>567</v>
       </c>
-      <c r="DT14" t="s">
+      <c r="DV14" t="s">
         <v>568</v>
       </c>
-      <c r="DU14" t="s">
+      <c r="DW14" t="s">
         <v>569</v>
       </c>
-      <c r="DV14" t="s">
+      <c r="DX14" t="s">
         <v>570</v>
       </c>
-      <c r="DW14" t="s">
+      <c r="DY14" t="s">
         <v>571</v>
       </c>
-      <c r="DX14" t="s">
+      <c r="DZ14" t="s">
         <v>572</v>
       </c>
-      <c r="DY14" t="s">
+      <c r="EA14" t="s">
         <v>573</v>
       </c>
-      <c r="DZ14" t="s">
+      <c r="EB14" t="s">
         <v>574</v>
       </c>
-      <c r="EA14" t="s">
+      <c r="EC14" t="s">
         <v>575</v>
       </c>
-      <c r="EB14" t="s">
+      <c r="ED14" t="s">
         <v>576</v>
       </c>
-      <c r="EC14" t="s">
+      <c r="EE14" t="s">
         <v>577</v>
       </c>
-      <c r="ED14" t="s">
+      <c r="EF14" t="s">
         <v>578</v>
       </c>
-      <c r="EE14" t="s">
+      <c r="EG14" t="s">
         <v>579</v>
       </c>
-      <c r="EF14" t="s">
+      <c r="EH14" t="s">
         <v>580</v>
       </c>
-      <c r="EG14" t="s">
+      <c r="EI14" t="s">
         <v>581</v>
       </c>
-      <c r="EH14" t="s">
+      <c r="EJ14" t="s">
         <v>582</v>
       </c>
-      <c r="EI14" t="s">
+      <c r="EK14" t="s">
         <v>583</v>
       </c>
-      <c r="EJ14" t="s">
+      <c r="EL14" t="s">
         <v>584</v>
       </c>
-      <c r="EK14" t="s">
+      <c r="EM14" t="s">
         <v>585</v>
       </c>
-      <c r="EL14" t="s">
+      <c r="EN14" t="s">
         <v>586</v>
       </c>
-      <c r="EM14" t="s">
+      <c r="EO14" t="s">
         <v>587</v>
       </c>
-      <c r="EN14" t="s">
+      <c r="EP14" t="s">
         <v>588</v>
       </c>
-      <c r="EO14" t="s">
+      <c r="EQ14" t="s">
         <v>589</v>
       </c>
-      <c r="EP14" t="s">
+      <c r="ER14" t="s">
         <v>590</v>
       </c>
-      <c r="EQ14" t="s">
+      <c r="ES14" t="s">
         <v>591</v>
       </c>
-      <c r="ER14" t="s">
+      <c r="ET14" t="s">
         <v>592</v>
       </c>
-      <c r="ES14" t="s">
+      <c r="EU14" t="s">
         <v>593</v>
       </c>
-      <c r="ET14" t="s">
+      <c r="EV14" t="s">
         <v>594</v>
       </c>
-      <c r="EU14" t="s">
+      <c r="EW14" t="s">
         <v>595</v>
       </c>
-      <c r="EV14" t="s">
+      <c r="EX14" t="s">
         <v>596</v>
       </c>
-      <c r="EW14" t="s">
+      <c r="EY14" t="s">
         <v>597</v>
       </c>
-      <c r="EX14" t="s">
+      <c r="EZ14" t="s">
         <v>598</v>
       </c>
-      <c r="EY14" t="s">
+      <c r="FA14" t="s">
         <v>599</v>
       </c>
-      <c r="EZ14" t="s">
+      <c r="FB14" t="s">
         <v>600</v>
       </c>
-      <c r="FA14" t="s">
+      <c r="FC14" t="s">
         <v>601</v>
       </c>
-      <c r="FB14" t="s">
+      <c r="FD14" t="s">
         <v>602</v>
       </c>
-      <c r="FC14" t="s">
+      <c r="FE14" t="s">
         <v>603</v>
       </c>
-      <c r="FD14" t="s">
+      <c r="FF14" t="s">
         <v>604</v>
       </c>
-      <c r="FE14" t="s">
+      <c r="FG14" t="s">
         <v>605</v>
       </c>
-      <c r="FF14" t="s">
+      <c r="FH14" t="s">
         <v>606</v>
       </c>
-      <c r="FG14" t="s">
+      <c r="FI14" t="s">
         <v>607</v>
       </c>
-      <c r="FH14" t="s">
+      <c r="FJ14" t="s">
         <v>608</v>
       </c>
-      <c r="FI14" t="s">
+      <c r="FK14" t="s">
         <v>609</v>
       </c>
-      <c r="FJ14" t="s">
+      <c r="FL14" t="s">
         <v>610</v>
       </c>
-      <c r="FK14" t="s">
+      <c r="FM14" t="s">
         <v>611</v>
       </c>
-      <c r="FL14" t="s">
+      <c r="FN14" t="s">
         <v>612</v>
       </c>
-      <c r="FM14" t="s">
+      <c r="FO14" t="s">
         <v>613</v>
       </c>
-      <c r="FN14" t="s">
+      <c r="FP14" t="s">
         <v>614</v>
       </c>
-      <c r="FO14" t="s">
+      <c r="FQ14" t="s">
         <v>615</v>
       </c>
-      <c r="FP14" t="s">
+      <c r="FR14" t="s">
         <v>616</v>
       </c>
-      <c r="FQ14" t="s">
+      <c r="FS14" t="s">
         <v>617</v>
       </c>
-      <c r="FR14" t="s">
+      <c r="FT14" t="s">
         <v>618</v>
       </c>
-      <c r="FS14" t="s">
+      <c r="FU14" t="s">
         <v>619</v>
       </c>
-      <c r="FT14" t="s">
+      <c r="FV14" t="s">
         <v>620</v>
       </c>
-      <c r="FU14" t="s">
+      <c r="FW14" t="s">
         <v>621</v>
       </c>
-      <c r="FV14" t="s">
+      <c r="FX14" t="s">
         <v>622</v>
       </c>
-      <c r="FW14" t="s">
+      <c r="FY14" t="s">
         <v>623</v>
       </c>
-      <c r="FX14" t="s">
+      <c r="FZ14" t="s">
         <v>624</v>
       </c>
-      <c r="FY14" t="s">
+      <c r="GA14" t="s">
         <v>625</v>
       </c>
-      <c r="FZ14" t="s">
+      <c r="GB14" t="s">
         <v>626</v>
       </c>
-      <c r="GA14" t="s">
+      <c r="GC14" t="s">
         <v>627</v>
       </c>
-      <c r="GB14" t="s">
+      <c r="GD14" t="s">
         <v>628</v>
       </c>
-      <c r="GC14" t="s">
+      <c r="GE14" t="s">
         <v>629</v>
       </c>
-      <c r="GD14" t="s">
+      <c r="GF14" t="s">
         <v>630</v>
       </c>
-      <c r="GE14" t="s">
+      <c r="GG14" t="s">
         <v>631</v>
       </c>
-      <c r="GF14" t="s">
+      <c r="GH14" t="s">
         <v>632</v>
       </c>
-      <c r="GG14" t="s">
+      <c r="GI14" t="s">
         <v>633</v>
       </c>
-      <c r="GH14" t="s">
+      <c r="GJ14" t="s">
         <v>634</v>
       </c>
-      <c r="GI14" t="s">
+      <c r="GK14" t="s">
         <v>635</v>
       </c>
-      <c r="GJ14" t="s">
+      <c r="GL14" t="s">
         <v>636</v>
       </c>
-      <c r="GK14" t="s">
+      <c r="GM14" t="s">
         <v>637</v>
       </c>
-      <c r="GL14" t="s">
+      <c r="GN14" t="s">
         <v>638</v>
       </c>
-      <c r="GM14" t="s">
+      <c r="GO14" t="s">
         <v>639</v>
       </c>
-      <c r="GN14" t="s">
+      <c r="GP14" t="s">
         <v>640</v>
       </c>
-      <c r="GO14" t="s">
+      <c r="GQ14" t="s">
         <v>641</v>
       </c>
-      <c r="GP14" t="s">
+      <c r="GR14" t="s">
         <v>642</v>
       </c>
-      <c r="GQ14" t="s">
+      <c r="GS14" t="s">
         <v>643</v>
       </c>
-      <c r="GR14" t="s">
+      <c r="GT14" t="s">
         <v>644</v>
       </c>
-      <c r="GS14" t="s">
+      <c r="GU14" t="s">
         <v>645</v>
       </c>
-      <c r="GT14" t="s">
+      <c r="GV14" t="s">
         <v>646</v>
       </c>
-      <c r="GU14" t="s">
+      <c r="GW14" t="s">
         <v>647</v>
       </c>
-      <c r="GV14" t="s">
+      <c r="GX14" t="s">
         <v>648</v>
       </c>
-      <c r="GW14" t="s">
+      <c r="GY14" t="s">
         <v>649</v>
       </c>
-      <c r="GX14" t="s">
+      <c r="GZ14" t="s">
         <v>650</v>
       </c>
-      <c r="GY14" t="s">
+      <c r="HA14" t="s">
         <v>651</v>
       </c>
-      <c r="GZ14" t="s">
+      <c r="HB14" t="s">
         <v>652</v>
       </c>
-      <c r="HA14" t="s">
+      <c r="HC14" t="s">
         <v>653</v>
       </c>
-      <c r="HB14" t="s">
+      <c r="HD14" t="s">
         <v>654</v>
       </c>
-      <c r="HC14" t="s">
+      <c r="HE14" t="s">
         <v>655</v>
       </c>
-      <c r="HD14" t="s">
+      <c r="HF14" t="s">
         <v>656</v>
       </c>
-      <c r="HE14" t="s">
+      <c r="HG14" t="s">
         <v>657</v>
       </c>
-      <c r="HF14" t="s">
+      <c r="HH14" t="s">
         <v>658</v>
       </c>
-      <c r="HG14" t="s">
+      <c r="HI14" t="s">
         <v>659</v>
       </c>
-      <c r="HH14" t="s">
+      <c r="HJ14" t="s">
         <v>660</v>
       </c>
-      <c r="HI14" t="s">
+      <c r="HK14" t="s">
         <v>661</v>
       </c>
-      <c r="HJ14" t="s">
+      <c r="HL14" t="s">
         <v>662</v>
       </c>
-      <c r="HK14" t="s">
+      <c r="HM14" t="s">
         <v>663</v>
       </c>
-      <c r="HL14" t="s">
+      <c r="HN14" t="s">
         <v>664</v>
-      </c>
-      <c r="HM14" t="s">
-        <v>665</v>
-      </c>
-      <c r="HN14" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="15" spans="1:222" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -12446,661 +12438,661 @@
         <v>21</v>
       </c>
       <c r="D15" t="s">
+        <v>171</v>
+      </c>
+      <c r="E15" t="s">
+        <v>189</v>
+      </c>
+      <c r="F15" t="s">
+        <v>190</v>
+      </c>
+      <c r="G15" t="s">
+        <v>191</v>
+      </c>
+      <c r="H15" t="s">
+        <v>192</v>
+      </c>
+      <c r="I15" t="s">
+        <v>193</v>
+      </c>
+      <c r="J15" t="s">
+        <v>194</v>
+      </c>
+      <c r="K15" t="s">
+        <v>195</v>
+      </c>
+      <c r="L15" t="s">
+        <v>196</v>
+      </c>
+      <c r="M15" t="s">
+        <v>197</v>
+      </c>
+      <c r="N15" t="s">
+        <v>198</v>
+      </c>
+      <c r="O15" t="s">
+        <v>199</v>
+      </c>
+      <c r="P15" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>201</v>
+      </c>
+      <c r="R15" t="s">
+        <v>202</v>
+      </c>
+      <c r="S15" t="s">
+        <v>203</v>
+      </c>
+      <c r="T15" t="s">
+        <v>204</v>
+      </c>
+      <c r="U15" t="s">
+        <v>205</v>
+      </c>
+      <c r="V15" t="s">
+        <v>206</v>
+      </c>
+      <c r="W15" t="s">
+        <v>207</v>
+      </c>
+      <c r="X15" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>212</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>213</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>215</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>216</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>217</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>665</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>666</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>667</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>668</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>669</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>670</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>671</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>672</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>673</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>674</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>675</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>676</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>677</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>678</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>679</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>680</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>172</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>218</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>219</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>220</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>221</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>222</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>223</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>224</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>225</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>226</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>227</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>228</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>229</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>230</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>231</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>681</v>
+      </c>
+      <c r="BN15" t="s">
+        <v>682</v>
+      </c>
+      <c r="BO15" t="s">
+        <v>683</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>684</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>685</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>686</v>
+      </c>
+      <c r="BS15" t="s">
+        <v>232</v>
+      </c>
+      <c r="BT15" t="s">
+        <v>233</v>
+      </c>
+      <c r="BU15" t="s">
+        <v>234</v>
+      </c>
+      <c r="BV15" t="s">
+        <v>235</v>
+      </c>
+      <c r="BW15" t="s">
+        <v>236</v>
+      </c>
+      <c r="BX15" t="s">
+        <v>237</v>
+      </c>
+      <c r="BY15" t="s">
+        <v>238</v>
+      </c>
+      <c r="BZ15" t="s">
+        <v>239</v>
+      </c>
+      <c r="CA15" t="s">
+        <v>687</v>
+      </c>
+      <c r="CB15" t="s">
+        <v>688</v>
+      </c>
+      <c r="CC15" t="s">
+        <v>689</v>
+      </c>
+      <c r="CD15" t="s">
+        <v>690</v>
+      </c>
+      <c r="CE15" t="s">
+        <v>691</v>
+      </c>
+      <c r="CF15" t="s">
+        <v>692</v>
+      </c>
+      <c r="CG15" t="s">
+        <v>693</v>
+      </c>
+      <c r="CH15" t="s">
+        <v>694</v>
+      </c>
+      <c r="CI15" t="s">
+        <v>695</v>
+      </c>
+      <c r="CJ15" t="s">
+        <v>696</v>
+      </c>
+      <c r="CK15" t="s">
+        <v>697</v>
+      </c>
+      <c r="CL15" t="s">
+        <v>698</v>
+      </c>
+      <c r="CM15" t="s">
+        <v>174</v>
+      </c>
+      <c r="CN15" t="s">
+        <v>259</v>
+      </c>
+      <c r="CO15" t="s">
+        <v>260</v>
+      </c>
+      <c r="CP15" t="s">
+        <v>699</v>
+      </c>
+      <c r="CQ15" t="s">
+        <v>700</v>
+      </c>
+      <c r="CR15" t="s">
+        <v>175</v>
+      </c>
+      <c r="CS15" t="s">
+        <v>261</v>
+      </c>
+      <c r="CT15" t="s">
+        <v>262</v>
+      </c>
+      <c r="CU15" t="s">
+        <v>263</v>
+      </c>
+      <c r="CV15" t="s">
+        <v>264</v>
+      </c>
+      <c r="CW15" t="s">
+        <v>265</v>
+      </c>
+      <c r="CX15" t="s">
+        <v>266</v>
+      </c>
+      <c r="CY15" t="s">
+        <v>701</v>
+      </c>
+      <c r="CZ15" t="s">
+        <v>702</v>
+      </c>
+      <c r="DA15" t="s">
+        <v>703</v>
+      </c>
+      <c r="DB15" t="s">
+        <v>704</v>
+      </c>
+      <c r="DC15" t="s">
+        <v>705</v>
+      </c>
+      <c r="DD15" t="s">
+        <v>706</v>
+      </c>
+      <c r="DE15" t="s">
         <v>173</v>
       </c>
-      <c r="E15" t="s">
-        <v>191</v>
-      </c>
-      <c r="F15" t="s">
-        <v>192</v>
-      </c>
-      <c r="G15" t="s">
-        <v>193</v>
-      </c>
-      <c r="H15" t="s">
-        <v>194</v>
-      </c>
-      <c r="I15" t="s">
-        <v>195</v>
-      </c>
-      <c r="J15" t="s">
-        <v>196</v>
-      </c>
-      <c r="K15" t="s">
-        <v>197</v>
-      </c>
-      <c r="L15" t="s">
-        <v>198</v>
-      </c>
-      <c r="M15" t="s">
-        <v>199</v>
-      </c>
-      <c r="N15" t="s">
-        <v>200</v>
-      </c>
-      <c r="O15" t="s">
-        <v>201</v>
-      </c>
-      <c r="P15" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>203</v>
-      </c>
-      <c r="R15" t="s">
-        <v>204</v>
-      </c>
-      <c r="S15" t="s">
-        <v>205</v>
-      </c>
-      <c r="T15" t="s">
-        <v>206</v>
-      </c>
-      <c r="U15" t="s">
-        <v>207</v>
-      </c>
-      <c r="V15" t="s">
-        <v>208</v>
-      </c>
-      <c r="W15" t="s">
-        <v>209</v>
-      </c>
-      <c r="X15" t="s">
-        <v>210</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>211</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>212</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>213</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>214</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>215</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>216</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>217</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>218</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>219</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>667</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>668</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>669</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>670</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>671</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>672</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>673</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>674</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>675</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>676</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>677</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>678</v>
-      </c>
-      <c r="AT15" t="s">
-        <v>679</v>
-      </c>
-      <c r="AU15" t="s">
-        <v>680</v>
-      </c>
-      <c r="AV15" t="s">
-        <v>681</v>
-      </c>
-      <c r="AW15" t="s">
-        <v>682</v>
-      </c>
-      <c r="AX15" t="s">
-        <v>174</v>
-      </c>
-      <c r="AY15" t="s">
-        <v>220</v>
-      </c>
-      <c r="AZ15" t="s">
-        <v>221</v>
-      </c>
-      <c r="BA15" t="s">
-        <v>222</v>
-      </c>
-      <c r="BB15" t="s">
-        <v>223</v>
-      </c>
-      <c r="BC15" t="s">
-        <v>224</v>
-      </c>
-      <c r="BD15" t="s">
-        <v>225</v>
-      </c>
-      <c r="BE15" t="s">
-        <v>226</v>
-      </c>
-      <c r="BF15" t="s">
-        <v>227</v>
-      </c>
-      <c r="BG15" t="s">
-        <v>228</v>
-      </c>
-      <c r="BH15" t="s">
-        <v>229</v>
-      </c>
-      <c r="BI15" t="s">
-        <v>230</v>
-      </c>
-      <c r="BJ15" t="s">
-        <v>231</v>
-      </c>
-      <c r="BK15" t="s">
-        <v>232</v>
-      </c>
-      <c r="BL15" t="s">
-        <v>233</v>
-      </c>
-      <c r="BM15" t="s">
-        <v>683</v>
-      </c>
-      <c r="BN15" t="s">
-        <v>684</v>
-      </c>
-      <c r="BO15" t="s">
-        <v>685</v>
-      </c>
-      <c r="BP15" t="s">
-        <v>686</v>
-      </c>
-      <c r="BQ15" t="s">
-        <v>687</v>
-      </c>
-      <c r="BR15" t="s">
-        <v>688</v>
-      </c>
-      <c r="BS15" t="s">
-        <v>234</v>
-      </c>
-      <c r="BT15" t="s">
-        <v>235</v>
-      </c>
-      <c r="BU15" t="s">
-        <v>236</v>
-      </c>
-      <c r="BV15" t="s">
-        <v>237</v>
-      </c>
-      <c r="BW15" t="s">
-        <v>238</v>
-      </c>
-      <c r="BX15" t="s">
-        <v>239</v>
-      </c>
-      <c r="BY15" t="s">
+      <c r="DF15" t="s">
         <v>240</v>
       </c>
-      <c r="BZ15" t="s">
+      <c r="DG15" t="s">
         <v>241</v>
       </c>
-      <c r="CA15" t="s">
-        <v>689</v>
-      </c>
-      <c r="CB15" t="s">
-        <v>690</v>
-      </c>
-      <c r="CC15" t="s">
-        <v>691</v>
-      </c>
-      <c r="CD15" t="s">
-        <v>692</v>
-      </c>
-      <c r="CE15" t="s">
-        <v>693</v>
-      </c>
-      <c r="CF15" t="s">
-        <v>694</v>
-      </c>
-      <c r="CG15" t="s">
-        <v>695</v>
-      </c>
-      <c r="CH15" t="s">
-        <v>696</v>
-      </c>
-      <c r="CI15" t="s">
-        <v>697</v>
-      </c>
-      <c r="CJ15" t="s">
-        <v>698</v>
-      </c>
-      <c r="CK15" t="s">
-        <v>699</v>
-      </c>
-      <c r="CL15" t="s">
-        <v>700</v>
-      </c>
-      <c r="CM15" t="s">
+      <c r="DH15" t="s">
+        <v>242</v>
+      </c>
+      <c r="DI15" t="s">
+        <v>243</v>
+      </c>
+      <c r="DJ15" t="s">
+        <v>244</v>
+      </c>
+      <c r="DK15" t="s">
+        <v>245</v>
+      </c>
+      <c r="DL15" t="s">
+        <v>246</v>
+      </c>
+      <c r="DM15" t="s">
+        <v>247</v>
+      </c>
+      <c r="DN15" t="s">
+        <v>248</v>
+      </c>
+      <c r="DO15" t="s">
+        <v>249</v>
+      </c>
+      <c r="DP15" t="s">
+        <v>250</v>
+      </c>
+      <c r="DQ15" t="s">
+        <v>251</v>
+      </c>
+      <c r="DR15" t="s">
+        <v>252</v>
+      </c>
+      <c r="DS15" t="s">
+        <v>253</v>
+      </c>
+      <c r="DT15" t="s">
+        <v>254</v>
+      </c>
+      <c r="DU15" t="s">
+        <v>255</v>
+      </c>
+      <c r="DV15" t="s">
+        <v>256</v>
+      </c>
+      <c r="DW15" t="s">
+        <v>257</v>
+      </c>
+      <c r="DX15" t="s">
+        <v>258</v>
+      </c>
+      <c r="DY15" t="s">
+        <v>707</v>
+      </c>
+      <c r="DZ15" t="s">
+        <v>708</v>
+      </c>
+      <c r="EA15" t="s">
+        <v>709</v>
+      </c>
+      <c r="EB15" t="s">
         <v>176</v>
       </c>
-      <c r="CN15" t="s">
-        <v>261</v>
-      </c>
-      <c r="CO15" t="s">
-        <v>262</v>
-      </c>
-      <c r="CP15" t="s">
-        <v>701</v>
-      </c>
-      <c r="CQ15" t="s">
-        <v>702</v>
-      </c>
-      <c r="CR15" t="s">
+      <c r="EC15" t="s">
+        <v>267</v>
+      </c>
+      <c r="ED15" t="s">
+        <v>268</v>
+      </c>
+      <c r="EE15" t="s">
+        <v>269</v>
+      </c>
+      <c r="EF15" t="s">
+        <v>270</v>
+      </c>
+      <c r="EG15" t="s">
         <v>177</v>
       </c>
-      <c r="CS15" t="s">
-        <v>263</v>
-      </c>
-      <c r="CT15" t="s">
-        <v>264</v>
-      </c>
-      <c r="CU15" t="s">
-        <v>265</v>
-      </c>
-      <c r="CV15" t="s">
-        <v>266</v>
-      </c>
-      <c r="CW15" t="s">
-        <v>267</v>
-      </c>
-      <c r="CX15" t="s">
-        <v>268</v>
-      </c>
-      <c r="CY15" t="s">
-        <v>703</v>
-      </c>
-      <c r="CZ15" t="s">
-        <v>704</v>
-      </c>
-      <c r="DA15" t="s">
-        <v>705</v>
-      </c>
-      <c r="DB15" t="s">
-        <v>706</v>
-      </c>
-      <c r="DC15" t="s">
-        <v>707</v>
-      </c>
-      <c r="DD15" t="s">
-        <v>708</v>
-      </c>
-      <c r="DE15" t="s">
-        <v>175</v>
-      </c>
-      <c r="DF15" t="s">
-        <v>242</v>
-      </c>
-      <c r="DG15" t="s">
-        <v>243</v>
-      </c>
-      <c r="DH15" t="s">
-        <v>244</v>
-      </c>
-      <c r="DI15" t="s">
-        <v>245</v>
-      </c>
-      <c r="DJ15" t="s">
-        <v>246</v>
-      </c>
-      <c r="DK15" t="s">
-        <v>247</v>
-      </c>
-      <c r="DL15" t="s">
-        <v>248</v>
-      </c>
-      <c r="DM15" t="s">
-        <v>249</v>
-      </c>
-      <c r="DN15" t="s">
-        <v>250</v>
-      </c>
-      <c r="DO15" t="s">
-        <v>251</v>
-      </c>
-      <c r="DP15" t="s">
-        <v>252</v>
-      </c>
-      <c r="DQ15" t="s">
-        <v>253</v>
-      </c>
-      <c r="DR15" t="s">
-        <v>254</v>
-      </c>
-      <c r="DS15" t="s">
-        <v>255</v>
-      </c>
-      <c r="DT15" t="s">
-        <v>256</v>
-      </c>
-      <c r="DU15" t="s">
-        <v>257</v>
-      </c>
-      <c r="DV15" t="s">
-        <v>258</v>
-      </c>
-      <c r="DW15" t="s">
-        <v>259</v>
-      </c>
-      <c r="DX15" t="s">
-        <v>260</v>
-      </c>
-      <c r="DY15" t="s">
-        <v>709</v>
-      </c>
-      <c r="DZ15" t="s">
+      <c r="EH15" t="s">
+        <v>271</v>
+      </c>
+      <c r="EI15" t="s">
+        <v>272</v>
+      </c>
+      <c r="EJ15" t="s">
+        <v>273</v>
+      </c>
+      <c r="EK15" t="s">
+        <v>274</v>
+      </c>
+      <c r="EL15" t="s">
+        <v>178</v>
+      </c>
+      <c r="EM15" t="s">
+        <v>275</v>
+      </c>
+      <c r="EN15" t="s">
+        <v>276</v>
+      </c>
+      <c r="EO15" t="s">
         <v>710</v>
       </c>
-      <c r="EA15" t="s">
+      <c r="EP15" t="s">
         <v>711</v>
       </c>
-      <c r="EB15" t="s">
-        <v>178</v>
-      </c>
-      <c r="EC15" t="s">
-        <v>269</v>
-      </c>
-      <c r="ED15" t="s">
-        <v>270</v>
-      </c>
-      <c r="EE15" t="s">
-        <v>271</v>
-      </c>
-      <c r="EF15" t="s">
-        <v>272</v>
-      </c>
-      <c r="EG15" t="s">
+      <c r="EQ15" t="s">
+        <v>712</v>
+      </c>
+      <c r="ER15" t="s">
+        <v>713</v>
+      </c>
+      <c r="ES15" t="s">
+        <v>714</v>
+      </c>
+      <c r="ET15" t="s">
+        <v>715</v>
+      </c>
+      <c r="EU15" t="s">
+        <v>180</v>
+      </c>
+      <c r="EV15" t="s">
+        <v>279</v>
+      </c>
+      <c r="EW15" t="s">
+        <v>280</v>
+      </c>
+      <c r="EX15" t="s">
+        <v>716</v>
+      </c>
+      <c r="EY15" t="s">
         <v>179</v>
       </c>
-      <c r="EH15" t="s">
-        <v>273</v>
-      </c>
-      <c r="EI15" t="s">
-        <v>274</v>
-      </c>
-      <c r="EJ15" t="s">
-        <v>275</v>
-      </c>
-      <c r="EK15" t="s">
-        <v>276</v>
-      </c>
-      <c r="EL15" t="s">
-        <v>180</v>
-      </c>
-      <c r="EM15" t="s">
+      <c r="EZ15" t="s">
         <v>277</v>
       </c>
-      <c r="EN15" t="s">
+      <c r="FA15" t="s">
         <v>278</v>
       </c>
-      <c r="EO15" t="s">
-        <v>712</v>
-      </c>
-      <c r="EP15" t="s">
-        <v>713</v>
-      </c>
-      <c r="EQ15" t="s">
-        <v>714</v>
-      </c>
-      <c r="ER15" t="s">
-        <v>715</v>
-      </c>
-      <c r="ES15" t="s">
-        <v>716</v>
-      </c>
-      <c r="ET15" t="s">
+      <c r="FB15" t="s">
         <v>717</v>
       </c>
-      <c r="EU15" t="s">
+      <c r="FC15" t="s">
+        <v>718</v>
+      </c>
+      <c r="FD15" t="s">
+        <v>181</v>
+      </c>
+      <c r="FE15" t="s">
+        <v>281</v>
+      </c>
+      <c r="FF15" t="s">
+        <v>282</v>
+      </c>
+      <c r="FG15" t="s">
+        <v>719</v>
+      </c>
+      <c r="FH15" t="s">
+        <v>720</v>
+      </c>
+      <c r="FI15" t="s">
+        <v>721</v>
+      </c>
+      <c r="FJ15" t="s">
+        <v>722</v>
+      </c>
+      <c r="FK15" t="s">
         <v>182</v>
       </c>
-      <c r="EV15" t="s">
-        <v>281</v>
-      </c>
-      <c r="EW15" t="s">
-        <v>282</v>
-      </c>
-      <c r="EX15" t="s">
-        <v>718</v>
-      </c>
-      <c r="EY15" t="s">
-        <v>181</v>
-      </c>
-      <c r="EZ15" t="s">
-        <v>279</v>
-      </c>
-      <c r="FA15" t="s">
-        <v>280</v>
-      </c>
-      <c r="FB15" t="s">
-        <v>719</v>
-      </c>
-      <c r="FC15" t="s">
-        <v>720</v>
-      </c>
-      <c r="FD15" t="s">
+      <c r="FL15" t="s">
+        <v>283</v>
+      </c>
+      <c r="FM15" t="s">
+        <v>284</v>
+      </c>
+      <c r="FN15" t="s">
+        <v>723</v>
+      </c>
+      <c r="FO15" t="s">
         <v>183</v>
       </c>
-      <c r="FE15" t="s">
-        <v>283</v>
-      </c>
-      <c r="FF15" t="s">
-        <v>284</v>
-      </c>
-      <c r="FG15" t="s">
-        <v>721</v>
-      </c>
-      <c r="FH15" t="s">
-        <v>722</v>
-      </c>
-      <c r="FI15" t="s">
-        <v>723</v>
-      </c>
-      <c r="FJ15" t="s">
+      <c r="FP15" t="s">
         <v>724</v>
       </c>
-      <c r="FK15" t="s">
+      <c r="FQ15" t="s">
+        <v>285</v>
+      </c>
+      <c r="FR15" t="s">
+        <v>286</v>
+      </c>
+      <c r="FS15" t="s">
+        <v>287</v>
+      </c>
+      <c r="FT15" t="s">
+        <v>288</v>
+      </c>
+      <c r="FU15" t="s">
+        <v>289</v>
+      </c>
+      <c r="FV15" t="s">
+        <v>290</v>
+      </c>
+      <c r="FW15" t="s">
+        <v>291</v>
+      </c>
+      <c r="FX15" t="s">
+        <v>292</v>
+      </c>
+      <c r="FY15" t="s">
+        <v>725</v>
+      </c>
+      <c r="FZ15" t="s">
+        <v>726</v>
+      </c>
+      <c r="GA15" t="s">
+        <v>727</v>
+      </c>
+      <c r="GB15" t="s">
+        <v>728</v>
+      </c>
+      <c r="GC15" t="s">
+        <v>729</v>
+      </c>
+      <c r="GD15" t="s">
+        <v>730</v>
+      </c>
+      <c r="GE15" t="s">
+        <v>731</v>
+      </c>
+      <c r="GF15" t="s">
+        <v>732</v>
+      </c>
+      <c r="GG15" t="s">
         <v>184</v>
       </c>
-      <c r="FL15" t="s">
-        <v>285</v>
-      </c>
-      <c r="FM15" t="s">
-        <v>286</v>
-      </c>
-      <c r="FN15" t="s">
-        <v>725</v>
-      </c>
-      <c r="FO15" t="s">
+      <c r="GH15" t="s">
+        <v>293</v>
+      </c>
+      <c r="GI15" t="s">
+        <v>294</v>
+      </c>
+      <c r="GJ15" t="s">
+        <v>295</v>
+      </c>
+      <c r="GK15" t="s">
+        <v>296</v>
+      </c>
+      <c r="GL15" t="s">
+        <v>297</v>
+      </c>
+      <c r="GM15" t="s">
+        <v>298</v>
+      </c>
+      <c r="GN15" t="s">
+        <v>299</v>
+      </c>
+      <c r="GO15" t="s">
+        <v>300</v>
+      </c>
+      <c r="GP15" t="s">
+        <v>301</v>
+      </c>
+      <c r="GQ15" t="s">
+        <v>733</v>
+      </c>
+      <c r="GR15" t="s">
+        <v>734</v>
+      </c>
+      <c r="GS15" t="s">
+        <v>735</v>
+      </c>
+      <c r="GT15" t="s">
+        <v>736</v>
+      </c>
+      <c r="GU15" t="s">
+        <v>737</v>
+      </c>
+      <c r="GV15" t="s">
+        <v>738</v>
+      </c>
+      <c r="GW15" t="s">
         <v>185</v>
       </c>
-      <c r="FP15" t="s">
-        <v>726</v>
-      </c>
-      <c r="FQ15" t="s">
-        <v>287</v>
-      </c>
-      <c r="FR15" t="s">
-        <v>288</v>
-      </c>
-      <c r="FS15" t="s">
-        <v>289</v>
-      </c>
-      <c r="FT15" t="s">
-        <v>290</v>
-      </c>
-      <c r="FU15" t="s">
-        <v>291</v>
-      </c>
-      <c r="FV15" t="s">
-        <v>292</v>
-      </c>
-      <c r="FW15" t="s">
-        <v>293</v>
-      </c>
-      <c r="FX15" t="s">
-        <v>294</v>
-      </c>
-      <c r="FY15" t="s">
-        <v>727</v>
-      </c>
-      <c r="FZ15" t="s">
-        <v>728</v>
-      </c>
-      <c r="GA15" t="s">
-        <v>729</v>
-      </c>
-      <c r="GB15" t="s">
-        <v>730</v>
-      </c>
-      <c r="GC15" t="s">
-        <v>731</v>
-      </c>
-      <c r="GD15" t="s">
-        <v>732</v>
-      </c>
-      <c r="GE15" t="s">
-        <v>733</v>
-      </c>
-      <c r="GF15" t="s">
-        <v>734</v>
-      </c>
-      <c r="GG15" t="s">
+      <c r="GX15" t="s">
+        <v>302</v>
+      </c>
+      <c r="GY15" t="s">
+        <v>739</v>
+      </c>
+      <c r="GZ15" t="s">
+        <v>303</v>
+      </c>
+      <c r="HA15" t="s">
+        <v>304</v>
+      </c>
+      <c r="HB15" t="s">
         <v>186</v>
       </c>
-      <c r="GH15" t="s">
-        <v>295</v>
-      </c>
-      <c r="GI15" t="s">
-        <v>296</v>
-      </c>
-      <c r="GJ15" t="s">
-        <v>297</v>
-      </c>
-      <c r="GK15" t="s">
-        <v>298</v>
-      </c>
-      <c r="GL15" t="s">
-        <v>299</v>
-      </c>
-      <c r="GM15" t="s">
-        <v>300</v>
-      </c>
-      <c r="GN15" t="s">
-        <v>301</v>
-      </c>
-      <c r="GO15" t="s">
-        <v>302</v>
-      </c>
-      <c r="GP15" t="s">
-        <v>303</v>
-      </c>
-      <c r="GQ15" t="s">
-        <v>735</v>
-      </c>
-      <c r="GR15" t="s">
-        <v>736</v>
-      </c>
-      <c r="GS15" t="s">
-        <v>737</v>
-      </c>
-      <c r="GT15" t="s">
-        <v>738</v>
-      </c>
-      <c r="GU15" t="s">
-        <v>739</v>
-      </c>
-      <c r="GV15" t="s">
+      <c r="HC15" t="s">
+        <v>187</v>
+      </c>
+      <c r="HD15" t="s">
+        <v>305</v>
+      </c>
+      <c r="HE15" t="s">
+        <v>306</v>
+      </c>
+      <c r="HF15" t="s">
+        <v>307</v>
+      </c>
+      <c r="HG15" t="s">
+        <v>308</v>
+      </c>
+      <c r="HH15" t="s">
         <v>740</v>
       </c>
-      <c r="GW15" t="s">
-        <v>187</v>
-      </c>
-      <c r="GX15" t="s">
-        <v>304</v>
-      </c>
-      <c r="GY15" t="s">
+      <c r="HI15" t="s">
         <v>741</v>
       </c>
-      <c r="GZ15" t="s">
-        <v>305</v>
-      </c>
-      <c r="HA15" t="s">
-        <v>306</v>
-      </c>
-      <c r="HB15" t="s">
+      <c r="HJ15" t="s">
+        <v>742</v>
+      </c>
+      <c r="HK15" t="s">
+        <v>743</v>
+      </c>
+      <c r="HL15" t="s">
         <v>188</v>
       </c>
-      <c r="HC15" t="s">
-        <v>189</v>
-      </c>
-      <c r="HD15" t="s">
-        <v>307</v>
-      </c>
-      <c r="HE15" t="s">
-        <v>308</v>
-      </c>
-      <c r="HF15" t="s">
-        <v>309</v>
-      </c>
-      <c r="HG15" t="s">
-        <v>310</v>
-      </c>
-      <c r="HH15" t="s">
-        <v>742</v>
-      </c>
-      <c r="HI15" t="s">
-        <v>743</v>
-      </c>
-      <c r="HJ15" t="s">
+      <c r="HM15" t="s">
         <v>744</v>
       </c>
-      <c r="HK15" t="s">
+      <c r="HN15" t="s">
         <v>745</v>
-      </c>
-      <c r="HL15" t="s">
-        <v>190</v>
-      </c>
-      <c r="HM15" t="s">
-        <v>746</v>
-      </c>
-      <c r="HN15" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="16" spans="1:222" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
@@ -13149,19 +13141,19 @@
         <v>34</v>
       </c>
       <c r="D19" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="F19" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="37" t="s">
-        <v>58</v>
-      </c>
       <c r="G19" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="37" t="s">
         <v>54</v>
-      </c>
-      <c r="H19" s="37" t="s">
-        <v>55</v>
       </c>
       <c r="I19" s="50"/>
       <c r="J19" s="37"/>
@@ -13258,67 +13250,67 @@
         <v>37</v>
       </c>
       <c r="D23" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="37" t="s">
+      <c r="F23" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="37" t="s">
+      <c r="G23" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="G23" s="37" t="s">
+      <c r="H23" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="I23" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="H23" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="I23" s="37" t="s">
+      <c r="J23" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="K23" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="L23" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="M23" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="N23" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="O23" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="P23" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q23" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="J23" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="K23" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="L23" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="M23" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="N23" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="O23" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="P23" s="37" t="s">
+      <c r="R23" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="Q23" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="R23" s="37" t="s">
+      <c r="S23" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="S23" s="37" t="s">
+      <c r="T23" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="T23" s="37" t="s">
+      <c r="U23" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="U23" s="37" t="s">
+      <c r="V23" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="V23" s="37" t="s">
+      <c r="W23" s="37" t="s">
+        <v>350</v>
+      </c>
+      <c r="X23" s="37" t="s">
         <v>70</v>
-      </c>
-      <c r="W23" s="37" t="s">
-        <v>352</v>
-      </c>
-      <c r="X23" s="37" t="s">
-        <v>71</v>
       </c>
       <c r="AD23" s="50"/>
       <c r="AE23" s="50"/>
@@ -13437,20 +13429,21 @@
         <v>43</v>
       </c>
       <c r="D28" t="s">
+        <v>137</v>
+      </c>
+      <c r="E28" t="s">
         <v>138</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>139</v>
-      </c>
-      <c r="F28" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:217" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="30" spans="1:217" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>48</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="F30" s="45"/>
     </row>
     <row r="31" spans="1:217" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="55" t="s">
@@ -13492,28 +13485,28 @@
         <v>26</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>46</v>
+        <v>746</v>
       </c>
       <c r="D32" s="37" t="s">
-        <v>141</v>
+        <v>747</v>
       </c>
       <c r="E32" s="37" t="s">
-        <v>141</v>
+        <v>748</v>
       </c>
       <c r="F32" s="37" t="s">
-        <v>141</v>
+        <v>748</v>
       </c>
       <c r="G32" s="37" t="s">
-        <v>141</v>
+        <v>748</v>
       </c>
       <c r="H32" s="37" t="s">
-        <v>141</v>
+        <v>747</v>
       </c>
       <c r="I32" s="37" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J32" s="37" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K32" s="45"/>
       <c r="L32" s="45"/>
@@ -13616,7 +13609,7 @@
         <v>27</v>
       </c>
       <c r="C33" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D33" s="51">
         <v>1</v>
@@ -13736,13 +13729,13 @@
     </row>
     <row r="35" spans="1:217" x14ac:dyDescent="0.2">
       <c r="A35" s="43" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B35" s="46" t="s">
         <v>25</v>
       </c>
       <c r="C35" s="47" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -13848,22 +13841,22 @@
     </row>
     <row r="36" spans="1:217" x14ac:dyDescent="0.2">
       <c r="A36" s="43" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B36" s="46" t="s">
         <v>26</v>
       </c>
       <c r="C36" s="47" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D36" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="E36" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="F36" s="50" t="s">
         <v>164</v>
-      </c>
-      <c r="E36" s="50" t="s">
-        <v>165</v>
-      </c>
-      <c r="F36" s="50" t="s">
-        <v>166</v>
       </c>
       <c r="K36" s="45"/>
       <c r="L36" s="45"/>
@@ -13960,22 +13953,22 @@
     </row>
     <row r="37" spans="1:217" x14ac:dyDescent="0.2">
       <c r="A37" s="43" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B37" s="46" t="s">
         <v>26</v>
       </c>
       <c r="C37" s="47" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D37" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="E37" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="F37" s="50" t="s">
         <v>167</v>
-      </c>
-      <c r="E37" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="F37" s="50" t="s">
-        <v>169</v>
       </c>
       <c r="K37" s="45"/>
       <c r="L37" s="45"/>
@@ -14072,13 +14065,13 @@
     </row>
     <row r="38" spans="1:217" x14ac:dyDescent="0.2">
       <c r="A38" s="43" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B38" s="46" t="s">
         <v>26</v>
       </c>
       <c r="C38" s="47" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D38">
         <v>1640003</v>
@@ -14184,33 +14177,33 @@
     </row>
     <row r="39" spans="1:217" x14ac:dyDescent="0.2">
       <c r="A39" s="43" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B39" s="46" t="s">
         <v>26</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D39" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="E39" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="F39" s="50" t="s">
         <v>170</v>
-      </c>
-      <c r="E39" s="50" t="s">
-        <v>171</v>
-      </c>
-      <c r="F39" s="50" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:217" x14ac:dyDescent="0.2">
       <c r="A40" s="43" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B40" s="46" t="s">
         <v>26</v>
       </c>
       <c r="C40" s="47" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D40">
         <v>120117117</v>
@@ -14221,42 +14214,42 @@
     </row>
     <row r="41" spans="1:217" x14ac:dyDescent="0.2">
       <c r="A41" s="43" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B41" s="46"/>
       <c r="C41" s="47" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:217" x14ac:dyDescent="0.2">
       <c r="A42" s="43" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B42" s="46" t="s">
         <v>26</v>
       </c>
       <c r="C42" s="47" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:217" x14ac:dyDescent="0.2">
       <c r="A43" s="43" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B43" s="46"/>
       <c r="C43" s="47" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:217" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="44" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B44" s="48" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C44" s="49" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:217" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>

--- a/窪田/対応表イメージ0_5.xlsx
+++ b/窪田/対応表イメージ0_5.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hk15304009\Documents\GitHub\Graduation\窪田\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\as15304012\Documents\GitHub\Graduation\窪田\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10670"/>
+    <workbookView xWindow="1110" yWindow="0" windowWidth="21600" windowHeight="10665"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4181,123 +4181,123 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:HN45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="81" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.36328125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="37.453125" customWidth="1" collapsed="1"/>
-    <col min="4" max="15" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="18" max="20" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="22" max="23" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
-    <col min="24" max="29" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="30" max="31" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="33" max="35" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="37" max="38" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="40" max="42" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
-    <col min="43" max="49" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="50" max="51" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
-    <col min="52" max="53" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
-    <col min="55" max="55" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="56" max="56" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="58" max="59" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
-    <col min="60" max="65" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="68" max="68" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
-    <col min="69" max="69" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="70" max="75" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
-    <col min="76" max="76" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="77" max="78" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
-    <col min="79" max="79" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="80" max="81" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
-    <col min="82" max="82" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="83" max="84" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
-    <col min="85" max="90" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="91" max="92" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
-    <col min="93" max="93" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="94" max="94" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
-    <col min="95" max="101" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="102" max="102" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
-    <col min="103" max="103" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="104" max="105" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
-    <col min="106" max="108" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="109" max="109" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
-    <col min="110" max="123" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="124" max="124" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
-    <col min="125" max="125" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="126" max="126" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
-    <col min="127" max="141" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="142" max="143" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
-    <col min="144" max="144" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="145" max="146" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
-    <col min="147" max="147" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="148" max="149" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
-    <col min="150" max="150" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="151" max="151" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
-    <col min="152" max="155" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="156" max="156" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
-    <col min="157" max="157" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="158" max="158" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
-    <col min="159" max="159" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="160" max="160" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
-    <col min="161" max="161" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="162" max="163" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
-    <col min="164" max="164" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="165" max="165" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
-    <col min="166" max="166" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="167" max="167" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
-    <col min="168" max="170" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="171" max="171" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
-    <col min="172" max="173" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="174" max="174" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
-    <col min="175" max="175" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="176" max="176" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
-    <col min="177" max="177" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="178" max="178" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
-    <col min="179" max="180" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="181" max="181" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
-    <col min="182" max="182" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="183" max="183" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
-    <col min="184" max="184" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="185" max="185" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
-    <col min="186" max="186" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="187" max="187" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
-    <col min="188" max="191" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="192" max="192" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
-    <col min="193" max="193" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="194" max="194" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
-    <col min="195" max="195" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="196" max="196" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
-    <col min="197" max="197" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="198" max="199" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
-    <col min="200" max="200" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="201" max="201" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
-    <col min="202" max="207" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="208" max="208" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
-    <col min="209" max="210" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="211" max="211" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
-    <col min="212" max="212" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="213" max="213" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
-    <col min="214" max="214" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="215" max="215" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
-    <col min="216" max="216" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="217" max="217" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
-    <col min="218" max="222" width="18.6328125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="19.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.5" customWidth="1" collapsed="1"/>
+    <col min="4" max="15" width="18.625" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="18.625" style="45" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="18.625" customWidth="1" collapsed="1"/>
+    <col min="18" max="20" width="18.625" style="45" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="18.625" customWidth="1" collapsed="1"/>
+    <col min="22" max="23" width="18.625" style="45" customWidth="1" collapsed="1"/>
+    <col min="24" max="29" width="18.625" customWidth="1" collapsed="1"/>
+    <col min="30" max="31" width="18.625" style="45" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="18.625" customWidth="1" collapsed="1"/>
+    <col min="33" max="35" width="18.625" style="45" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="18.625" customWidth="1" collapsed="1"/>
+    <col min="37" max="38" width="18.625" style="45" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="18.625" customWidth="1" collapsed="1"/>
+    <col min="40" max="42" width="18.625" style="45" customWidth="1" collapsed="1"/>
+    <col min="43" max="49" width="18.625" customWidth="1" collapsed="1"/>
+    <col min="50" max="51" width="18.625" style="45" customWidth="1" collapsed="1"/>
+    <col min="52" max="53" width="18.625" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="18.625" style="45" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="18.625" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="18.625" style="45" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="18.625" customWidth="1" collapsed="1"/>
+    <col min="58" max="59" width="18.625" style="45" customWidth="1" collapsed="1"/>
+    <col min="60" max="65" width="18.625" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="18.625" style="45" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="18.625" customWidth="1" collapsed="1"/>
+    <col min="68" max="68" width="18.625" style="45" customWidth="1" collapsed="1"/>
+    <col min="69" max="69" width="18.625" customWidth="1" collapsed="1"/>
+    <col min="70" max="75" width="18.625" style="45" customWidth="1" collapsed="1"/>
+    <col min="76" max="76" width="18.625" customWidth="1" collapsed="1"/>
+    <col min="77" max="78" width="18.625" style="45" customWidth="1" collapsed="1"/>
+    <col min="79" max="79" width="18.625" customWidth="1" collapsed="1"/>
+    <col min="80" max="81" width="18.625" style="45" customWidth="1" collapsed="1"/>
+    <col min="82" max="82" width="18.625" customWidth="1" collapsed="1"/>
+    <col min="83" max="84" width="18.625" style="45" customWidth="1" collapsed="1"/>
+    <col min="85" max="90" width="18.625" customWidth="1" collapsed="1"/>
+    <col min="91" max="92" width="18.625" style="45" customWidth="1" collapsed="1"/>
+    <col min="93" max="93" width="18.625" customWidth="1" collapsed="1"/>
+    <col min="94" max="94" width="18.625" style="45" customWidth="1" collapsed="1"/>
+    <col min="95" max="101" width="18.625" customWidth="1" collapsed="1"/>
+    <col min="102" max="102" width="18.625" style="45" customWidth="1" collapsed="1"/>
+    <col min="103" max="103" width="18.625" customWidth="1" collapsed="1"/>
+    <col min="104" max="105" width="18.625" style="45" customWidth="1" collapsed="1"/>
+    <col min="106" max="108" width="18.625" customWidth="1" collapsed="1"/>
+    <col min="109" max="109" width="18.625" style="45" customWidth="1" collapsed="1"/>
+    <col min="110" max="123" width="18.625" customWidth="1" collapsed="1"/>
+    <col min="124" max="124" width="18.625" style="45" customWidth="1" collapsed="1"/>
+    <col min="125" max="125" width="18.625" customWidth="1" collapsed="1"/>
+    <col min="126" max="126" width="18.625" style="45" customWidth="1" collapsed="1"/>
+    <col min="127" max="141" width="18.625" customWidth="1" collapsed="1"/>
+    <col min="142" max="143" width="18.625" style="45" customWidth="1" collapsed="1"/>
+    <col min="144" max="144" width="18.625" customWidth="1" collapsed="1"/>
+    <col min="145" max="146" width="18.625" style="45" customWidth="1" collapsed="1"/>
+    <col min="147" max="147" width="18.625" customWidth="1" collapsed="1"/>
+    <col min="148" max="149" width="18.625" style="45" customWidth="1" collapsed="1"/>
+    <col min="150" max="150" width="18.625" customWidth="1" collapsed="1"/>
+    <col min="151" max="151" width="18.625" style="45" customWidth="1" collapsed="1"/>
+    <col min="152" max="155" width="18.625" customWidth="1" collapsed="1"/>
+    <col min="156" max="156" width="18.625" style="45" customWidth="1" collapsed="1"/>
+    <col min="157" max="157" width="18.625" customWidth="1" collapsed="1"/>
+    <col min="158" max="158" width="18.625" style="45" customWidth="1" collapsed="1"/>
+    <col min="159" max="159" width="18.625" customWidth="1" collapsed="1"/>
+    <col min="160" max="160" width="18.625" style="45" customWidth="1" collapsed="1"/>
+    <col min="161" max="161" width="18.625" customWidth="1" collapsed="1"/>
+    <col min="162" max="163" width="18.625" style="45" customWidth="1" collapsed="1"/>
+    <col min="164" max="164" width="18.625" customWidth="1" collapsed="1"/>
+    <col min="165" max="165" width="18.625" style="45" customWidth="1" collapsed="1"/>
+    <col min="166" max="166" width="18.625" customWidth="1" collapsed="1"/>
+    <col min="167" max="167" width="18.625" style="45" customWidth="1" collapsed="1"/>
+    <col min="168" max="170" width="18.625" customWidth="1" collapsed="1"/>
+    <col min="171" max="171" width="18.625" style="45" customWidth="1" collapsed="1"/>
+    <col min="172" max="173" width="18.625" customWidth="1" collapsed="1"/>
+    <col min="174" max="174" width="18.625" style="45" customWidth="1" collapsed="1"/>
+    <col min="175" max="175" width="18.625" customWidth="1" collapsed="1"/>
+    <col min="176" max="176" width="18.625" style="45" customWidth="1" collapsed="1"/>
+    <col min="177" max="177" width="18.625" customWidth="1" collapsed="1"/>
+    <col min="178" max="178" width="18.625" style="45" customWidth="1" collapsed="1"/>
+    <col min="179" max="180" width="18.625" customWidth="1" collapsed="1"/>
+    <col min="181" max="181" width="18.625" style="45" customWidth="1" collapsed="1"/>
+    <col min="182" max="182" width="18.625" customWidth="1" collapsed="1"/>
+    <col min="183" max="183" width="18.625" style="45" customWidth="1" collapsed="1"/>
+    <col min="184" max="184" width="18.625" customWidth="1" collapsed="1"/>
+    <col min="185" max="185" width="18.625" style="45" customWidth="1" collapsed="1"/>
+    <col min="186" max="186" width="18.625" customWidth="1" collapsed="1"/>
+    <col min="187" max="187" width="18.625" style="45" customWidth="1" collapsed="1"/>
+    <col min="188" max="191" width="18.625" customWidth="1" collapsed="1"/>
+    <col min="192" max="192" width="18.625" style="45" customWidth="1" collapsed="1"/>
+    <col min="193" max="193" width="18.625" customWidth="1" collapsed="1"/>
+    <col min="194" max="194" width="18.625" style="45" customWidth="1" collapsed="1"/>
+    <col min="195" max="195" width="18.625" customWidth="1" collapsed="1"/>
+    <col min="196" max="196" width="18.625" style="45" customWidth="1" collapsed="1"/>
+    <col min="197" max="197" width="18.625" customWidth="1" collapsed="1"/>
+    <col min="198" max="199" width="18.625" style="45" customWidth="1" collapsed="1"/>
+    <col min="200" max="200" width="18.625" customWidth="1" collapsed="1"/>
+    <col min="201" max="201" width="18.625" style="45" customWidth="1" collapsed="1"/>
+    <col min="202" max="207" width="18.625" customWidth="1" collapsed="1"/>
+    <col min="208" max="208" width="18.625" style="45" customWidth="1" collapsed="1"/>
+    <col min="209" max="210" width="18.625" customWidth="1" collapsed="1"/>
+    <col min="211" max="211" width="18.625" style="45" customWidth="1" collapsed="1"/>
+    <col min="212" max="212" width="18.625" customWidth="1" collapsed="1"/>
+    <col min="213" max="213" width="18.625" style="45" customWidth="1" collapsed="1"/>
+    <col min="214" max="214" width="18.625" customWidth="1" collapsed="1"/>
+    <col min="215" max="215" width="18.625" style="45" customWidth="1" collapsed="1"/>
+    <col min="216" max="216" width="18.625" customWidth="1" collapsed="1"/>
+    <col min="217" max="217" width="18.625" style="45" customWidth="1" collapsed="1"/>
+    <col min="218" max="222" width="18.625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:222" s="38" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:222" s="38" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
         <v>23</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:222" s="62" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:222" s="62" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="59" t="s">
         <v>0</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="3" spans="1:222" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:222" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="39" t="s">
         <v>1</v>
       </c>
@@ -6295,7 +6295,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:222" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:222" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="39" t="s">
         <v>2</v>
       </c>
@@ -6963,7 +6963,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="5" spans="1:222" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:222" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="39" t="s">
         <v>3</v>
       </c>
@@ -7629,7 +7629,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:222" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:222" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="39" t="s">
         <v>4</v>
       </c>
@@ -8297,7 +8297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:222" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:222" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="39" t="s">
         <v>5</v>
       </c>
@@ -8965,7 +8965,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:222" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:222" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="39" t="s">
         <v>6</v>
       </c>
@@ -9631,7 +9631,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="9" spans="1:222" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:222" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="39" t="s">
         <v>7</v>
       </c>
@@ -10297,7 +10297,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:222" s="41" customFormat="1" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:222" s="41" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="42" t="s">
         <v>8</v>
       </c>
@@ -10965,7 +10965,7 @@
         <v>42590</v>
       </c>
     </row>
-    <row r="11" spans="1:222" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:222" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="50"/>
       <c r="C11" s="50" t="s">
         <v>331</v>
@@ -11628,7 +11628,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:222" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:222" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
@@ -11738,7 +11738,7 @@
       <c r="EN12" s="45"/>
       <c r="EQ12" s="45"/>
     </row>
-    <row r="13" spans="1:222" s="45" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:222" s="45" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -11759,7 +11759,7 @@
       <c r="CL13" s="50"/>
       <c r="CM13" s="50"/>
     </row>
-    <row r="14" spans="1:222" s="45" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:222" s="45" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -12427,7 +12427,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="15" spans="1:222" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:222" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>0</v>
       </c>
@@ -13095,13 +13095,170 @@
         <v>745</v>
       </c>
     </row>
-    <row r="16" spans="1:222" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="1:217" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:222" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="P16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="AD16"/>
+      <c r="AE16"/>
+      <c r="AG16"/>
+      <c r="AH16"/>
+      <c r="AI16"/>
+      <c r="AK16"/>
+      <c r="AL16"/>
+      <c r="AN16"/>
+      <c r="AO16"/>
+      <c r="AP16"/>
+      <c r="AX16"/>
+      <c r="AY16"/>
+      <c r="BB16"/>
+      <c r="BD16"/>
+      <c r="BF16"/>
+      <c r="BG16"/>
+      <c r="BN16"/>
+      <c r="BP16"/>
+      <c r="BR16"/>
+      <c r="BS16"/>
+      <c r="BT16"/>
+      <c r="BU16"/>
+      <c r="BV16"/>
+      <c r="BW16"/>
+      <c r="BY16"/>
+      <c r="BZ16"/>
+      <c r="CB16"/>
+      <c r="CC16"/>
+      <c r="CE16"/>
+      <c r="CF16"/>
+      <c r="CM16"/>
+      <c r="CN16"/>
+      <c r="CP16"/>
+      <c r="CX16"/>
+      <c r="CZ16"/>
+      <c r="DA16"/>
+      <c r="DE16"/>
+      <c r="DT16"/>
+      <c r="DV16"/>
+      <c r="EL16"/>
+      <c r="EM16"/>
+      <c r="EO16"/>
+      <c r="EP16"/>
+      <c r="ER16"/>
+      <c r="ES16"/>
+      <c r="EU16"/>
+      <c r="EZ16"/>
+      <c r="FB16"/>
+      <c r="FD16"/>
+      <c r="FF16"/>
+      <c r="FG16"/>
+      <c r="FI16"/>
+      <c r="FK16"/>
+      <c r="FO16"/>
+      <c r="FR16"/>
+      <c r="FT16"/>
+      <c r="FV16"/>
+      <c r="FY16"/>
+      <c r="GA16"/>
+      <c r="GC16"/>
+      <c r="GE16"/>
+      <c r="GJ16"/>
+      <c r="GL16"/>
+      <c r="GN16"/>
+      <c r="GP16"/>
+      <c r="GQ16"/>
+      <c r="GS16"/>
+      <c r="GZ16"/>
+      <c r="HC16"/>
+      <c r="HE16"/>
+      <c r="HG16"/>
+      <c r="HI16"/>
+    </row>
+    <row r="17" spans="1:217" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>30</v>
       </c>
+      <c r="P17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="AD17"/>
+      <c r="AE17"/>
+      <c r="AG17"/>
+      <c r="AH17"/>
+      <c r="AI17"/>
+      <c r="AK17"/>
+      <c r="AL17"/>
+      <c r="AN17"/>
+      <c r="AO17"/>
+      <c r="AP17"/>
+      <c r="AX17"/>
+      <c r="AY17"/>
+      <c r="BB17"/>
+      <c r="BD17"/>
+      <c r="BF17"/>
+      <c r="BG17"/>
+      <c r="BN17"/>
+      <c r="BP17"/>
+      <c r="BR17"/>
+      <c r="BS17"/>
+      <c r="BT17"/>
+      <c r="BU17"/>
+      <c r="BV17"/>
+      <c r="BW17"/>
+      <c r="BY17"/>
+      <c r="BZ17"/>
+      <c r="CB17"/>
+      <c r="CC17"/>
+      <c r="CE17"/>
+      <c r="CF17"/>
+      <c r="CM17"/>
+      <c r="CN17"/>
+      <c r="CP17"/>
+      <c r="CX17"/>
+      <c r="CZ17"/>
+      <c r="DA17"/>
+      <c r="DE17"/>
+      <c r="DT17"/>
+      <c r="DV17"/>
+      <c r="EL17"/>
+      <c r="EM17"/>
+      <c r="EO17"/>
+      <c r="EP17"/>
+      <c r="ER17"/>
+      <c r="ES17"/>
+      <c r="EU17"/>
+      <c r="EZ17"/>
+      <c r="FB17"/>
+      <c r="FD17"/>
+      <c r="FF17"/>
+      <c r="FG17"/>
+      <c r="FI17"/>
+      <c r="FK17"/>
+      <c r="FO17"/>
+      <c r="FR17"/>
+      <c r="FT17"/>
+      <c r="FV17"/>
+      <c r="FY17"/>
+      <c r="GA17"/>
+      <c r="GC17"/>
+      <c r="GE17"/>
+      <c r="GJ17"/>
+      <c r="GL17"/>
+      <c r="GN17"/>
+      <c r="GP17"/>
+      <c r="GQ17"/>
+      <c r="GS17"/>
+      <c r="GZ17"/>
+      <c r="HC17"/>
+      <c r="HE17"/>
+      <c r="HG17"/>
+      <c r="HI17"/>
     </row>
-    <row r="18" spans="1:217" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:217" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
@@ -13126,11 +13283,86 @@
       <c r="H18" s="45">
         <v>4</v>
       </c>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
+      <c r="P18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="AD18"/>
+      <c r="AE18"/>
+      <c r="AG18"/>
+      <c r="AH18"/>
+      <c r="AI18"/>
+      <c r="AK18"/>
+      <c r="AL18"/>
+      <c r="AN18"/>
+      <c r="AO18"/>
+      <c r="AP18"/>
+      <c r="AX18"/>
+      <c r="AY18"/>
+      <c r="BB18"/>
+      <c r="BD18"/>
+      <c r="BF18"/>
+      <c r="BG18"/>
+      <c r="BN18"/>
+      <c r="BP18"/>
+      <c r="BR18"/>
+      <c r="BS18"/>
+      <c r="BT18"/>
+      <c r="BU18"/>
+      <c r="BV18"/>
+      <c r="BW18"/>
+      <c r="BY18"/>
+      <c r="BZ18"/>
+      <c r="CB18"/>
+      <c r="CC18"/>
+      <c r="CE18"/>
+      <c r="CF18"/>
+      <c r="CM18"/>
+      <c r="CN18"/>
+      <c r="CP18"/>
+      <c r="CX18"/>
+      <c r="CZ18"/>
+      <c r="DA18"/>
+      <c r="DE18"/>
+      <c r="DT18"/>
+      <c r="DV18"/>
+      <c r="EL18"/>
+      <c r="EM18"/>
+      <c r="EO18"/>
+      <c r="EP18"/>
+      <c r="ER18"/>
+      <c r="ES18"/>
+      <c r="EU18"/>
+      <c r="EZ18"/>
+      <c r="FB18"/>
+      <c r="FD18"/>
+      <c r="FF18"/>
+      <c r="FG18"/>
+      <c r="FI18"/>
+      <c r="FK18"/>
+      <c r="FO18"/>
+      <c r="FR18"/>
+      <c r="FT18"/>
+      <c r="FV18"/>
+      <c r="FY18"/>
+      <c r="GA18"/>
+      <c r="GC18"/>
+      <c r="GE18"/>
+      <c r="GJ18"/>
+      <c r="GL18"/>
+      <c r="GN18"/>
+      <c r="GP18"/>
+      <c r="GQ18"/>
+      <c r="GS18"/>
+      <c r="GZ18"/>
+      <c r="HC18"/>
+      <c r="HE18"/>
+      <c r="HG18"/>
+      <c r="HI18"/>
     </row>
-    <row r="19" spans="1:217" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:217" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>31</v>
       </c>
@@ -13155,17 +13387,243 @@
       <c r="H19" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="I19" s="50"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
+      <c r="P19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="AD19"/>
+      <c r="AE19"/>
+      <c r="AG19"/>
+      <c r="AH19"/>
+      <c r="AI19"/>
+      <c r="AK19"/>
+      <c r="AL19"/>
+      <c r="AN19"/>
+      <c r="AO19"/>
+      <c r="AP19"/>
+      <c r="AX19"/>
+      <c r="AY19"/>
+      <c r="BB19"/>
+      <c r="BD19"/>
+      <c r="BF19"/>
+      <c r="BG19"/>
+      <c r="BN19"/>
+      <c r="BP19"/>
+      <c r="BR19"/>
+      <c r="BS19"/>
+      <c r="BT19"/>
+      <c r="BU19"/>
+      <c r="BV19"/>
+      <c r="BW19"/>
+      <c r="BY19"/>
+      <c r="BZ19"/>
+      <c r="CB19"/>
+      <c r="CC19"/>
+      <c r="CE19"/>
+      <c r="CF19"/>
+      <c r="CM19"/>
+      <c r="CN19"/>
+      <c r="CP19"/>
+      <c r="CX19"/>
+      <c r="CZ19"/>
+      <c r="DA19"/>
+      <c r="DE19"/>
+      <c r="DT19"/>
+      <c r="DV19"/>
+      <c r="EL19"/>
+      <c r="EM19"/>
+      <c r="EO19"/>
+      <c r="EP19"/>
+      <c r="ER19"/>
+      <c r="ES19"/>
+      <c r="EU19"/>
+      <c r="EZ19"/>
+      <c r="FB19"/>
+      <c r="FD19"/>
+      <c r="FF19"/>
+      <c r="FG19"/>
+      <c r="FI19"/>
+      <c r="FK19"/>
+      <c r="FO19"/>
+      <c r="FR19"/>
+      <c r="FT19"/>
+      <c r="FV19"/>
+      <c r="FY19"/>
+      <c r="GA19"/>
+      <c r="GC19"/>
+      <c r="GE19"/>
+      <c r="GJ19"/>
+      <c r="GL19"/>
+      <c r="GN19"/>
+      <c r="GP19"/>
+      <c r="GQ19"/>
+      <c r="GS19"/>
+      <c r="GZ19"/>
+      <c r="HC19"/>
+      <c r="HE19"/>
+      <c r="HG19"/>
+      <c r="HI19"/>
     </row>
-    <row r="20" spans="1:217" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:217" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:217" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="P20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="AD20"/>
+      <c r="AE20"/>
+      <c r="AG20"/>
+      <c r="AH20"/>
+      <c r="AI20"/>
+      <c r="AK20"/>
+      <c r="AL20"/>
+      <c r="AN20"/>
+      <c r="AO20"/>
+      <c r="AP20"/>
+      <c r="AX20"/>
+      <c r="AY20"/>
+      <c r="BB20"/>
+      <c r="BD20"/>
+      <c r="BF20"/>
+      <c r="BG20"/>
+      <c r="BN20"/>
+      <c r="BP20"/>
+      <c r="BR20"/>
+      <c r="BS20"/>
+      <c r="BT20"/>
+      <c r="BU20"/>
+      <c r="BV20"/>
+      <c r="BW20"/>
+      <c r="BY20"/>
+      <c r="BZ20"/>
+      <c r="CB20"/>
+      <c r="CC20"/>
+      <c r="CE20"/>
+      <c r="CF20"/>
+      <c r="CM20"/>
+      <c r="CN20"/>
+      <c r="CP20"/>
+      <c r="CX20"/>
+      <c r="CZ20"/>
+      <c r="DA20"/>
+      <c r="DE20"/>
+      <c r="DT20"/>
+      <c r="DV20"/>
+      <c r="EL20"/>
+      <c r="EM20"/>
+      <c r="EO20"/>
+      <c r="EP20"/>
+      <c r="ER20"/>
+      <c r="ES20"/>
+      <c r="EU20"/>
+      <c r="EZ20"/>
+      <c r="FB20"/>
+      <c r="FD20"/>
+      <c r="FF20"/>
+      <c r="FG20"/>
+      <c r="FI20"/>
+      <c r="FK20"/>
+      <c r="FO20"/>
+      <c r="FR20"/>
+      <c r="FT20"/>
+      <c r="FV20"/>
+      <c r="FY20"/>
+      <c r="GA20"/>
+      <c r="GC20"/>
+      <c r="GE20"/>
+      <c r="GJ20"/>
+      <c r="GL20"/>
+      <c r="GN20"/>
+      <c r="GP20"/>
+      <c r="GQ20"/>
+      <c r="GS20"/>
+      <c r="GZ20"/>
+      <c r="HC20"/>
+      <c r="HE20"/>
+      <c r="HG20"/>
+      <c r="HI20"/>
+    </row>
+    <row r="21" spans="1:217" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>35</v>
       </c>
+      <c r="AD21"/>
+      <c r="AE21"/>
+      <c r="AG21"/>
+      <c r="AH21"/>
+      <c r="AI21"/>
+      <c r="AK21"/>
+      <c r="AL21"/>
+      <c r="AN21"/>
+      <c r="AO21"/>
+      <c r="AP21"/>
+      <c r="AX21"/>
+      <c r="AY21"/>
+      <c r="BB21"/>
+      <c r="BD21"/>
+      <c r="BF21"/>
+      <c r="BG21"/>
+      <c r="BN21"/>
+      <c r="BP21"/>
+      <c r="BR21"/>
+      <c r="BS21"/>
+      <c r="BT21"/>
+      <c r="BU21"/>
+      <c r="BV21"/>
+      <c r="BW21"/>
+      <c r="BY21"/>
+      <c r="BZ21"/>
+      <c r="CB21"/>
+      <c r="CC21"/>
+      <c r="CE21"/>
+      <c r="CF21"/>
+      <c r="CM21"/>
+      <c r="CN21"/>
+      <c r="CP21"/>
+      <c r="CX21"/>
+      <c r="CZ21"/>
+      <c r="DA21"/>
+      <c r="DE21"/>
+      <c r="DT21"/>
+      <c r="DV21"/>
+      <c r="EL21"/>
+      <c r="EM21"/>
+      <c r="EO21"/>
+      <c r="EP21"/>
+      <c r="ER21"/>
+      <c r="ES21"/>
+      <c r="EU21"/>
+      <c r="EZ21"/>
+      <c r="FB21"/>
+      <c r="FD21"/>
+      <c r="FF21"/>
+      <c r="FG21"/>
+      <c r="FI21"/>
+      <c r="FK21"/>
+      <c r="FO21"/>
+      <c r="FR21"/>
+      <c r="FT21"/>
+      <c r="FV21"/>
+      <c r="FY21"/>
+      <c r="GA21"/>
+      <c r="GC21"/>
+      <c r="GE21"/>
+      <c r="GJ21"/>
+      <c r="GL21"/>
+      <c r="GN21"/>
+      <c r="GP21"/>
+      <c r="GQ21"/>
+      <c r="GS21"/>
+      <c r="GZ21"/>
+      <c r="HC21"/>
+      <c r="HE21"/>
+      <c r="HG21"/>
+      <c r="HI21"/>
     </row>
-    <row r="22" spans="1:217" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:217" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A22" s="12" t="s">
         <v>5</v>
       </c>
@@ -13238,8 +13696,80 @@
       <c r="X22" s="45">
         <v>20</v>
       </c>
+      <c r="AD22"/>
+      <c r="AE22"/>
+      <c r="AG22"/>
+      <c r="AH22"/>
+      <c r="AI22"/>
+      <c r="AK22"/>
+      <c r="AL22"/>
+      <c r="AN22"/>
+      <c r="AO22"/>
+      <c r="AP22"/>
+      <c r="AX22"/>
+      <c r="AY22"/>
+      <c r="BB22"/>
+      <c r="BD22"/>
+      <c r="BF22"/>
+      <c r="BG22"/>
+      <c r="BN22"/>
+      <c r="BP22"/>
+      <c r="BR22"/>
+      <c r="BS22"/>
+      <c r="BT22"/>
+      <c r="BU22"/>
+      <c r="BV22"/>
+      <c r="BW22"/>
+      <c r="BY22"/>
+      <c r="BZ22"/>
+      <c r="CB22"/>
+      <c r="CC22"/>
+      <c r="CE22"/>
+      <c r="CF22"/>
+      <c r="CM22"/>
+      <c r="CN22"/>
+      <c r="CP22"/>
+      <c r="CX22"/>
+      <c r="CZ22"/>
+      <c r="DA22"/>
+      <c r="DE22"/>
+      <c r="DT22"/>
+      <c r="DV22"/>
+      <c r="EL22"/>
+      <c r="EM22"/>
+      <c r="EO22"/>
+      <c r="EP22"/>
+      <c r="ER22"/>
+      <c r="ES22"/>
+      <c r="EU22"/>
+      <c r="EZ22"/>
+      <c r="FB22"/>
+      <c r="FD22"/>
+      <c r="FF22"/>
+      <c r="FG22"/>
+      <c r="FI22"/>
+      <c r="FK22"/>
+      <c r="FO22"/>
+      <c r="FR22"/>
+      <c r="FT22"/>
+      <c r="FV22"/>
+      <c r="FY22"/>
+      <c r="GA22"/>
+      <c r="GC22"/>
+      <c r="GE22"/>
+      <c r="GJ22"/>
+      <c r="GL22"/>
+      <c r="GN22"/>
+      <c r="GP22"/>
+      <c r="GQ22"/>
+      <c r="GS22"/>
+      <c r="GZ22"/>
+      <c r="HC22"/>
+      <c r="HE22"/>
+      <c r="HG22"/>
+      <c r="HI22"/>
     </row>
-    <row r="23" spans="1:217" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:217" x14ac:dyDescent="0.15">
       <c r="A23" s="13" t="s">
         <v>36</v>
       </c>
@@ -13312,13 +13842,80 @@
       <c r="X23" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="AD23" s="50"/>
-      <c r="AE23" s="50"/>
-      <c r="AG23" s="50"/>
-      <c r="AH23" s="50"/>
-      <c r="AI23" s="50"/>
+      <c r="AD23"/>
+      <c r="AE23"/>
+      <c r="AG23"/>
+      <c r="AH23"/>
+      <c r="AI23"/>
+      <c r="AK23"/>
+      <c r="AL23"/>
+      <c r="AN23"/>
+      <c r="AO23"/>
+      <c r="AP23"/>
+      <c r="AX23"/>
+      <c r="AY23"/>
+      <c r="BB23"/>
+      <c r="BD23"/>
+      <c r="BF23"/>
+      <c r="BG23"/>
+      <c r="BN23"/>
+      <c r="BP23"/>
+      <c r="BR23"/>
+      <c r="BS23"/>
+      <c r="BT23"/>
+      <c r="BU23"/>
+      <c r="BV23"/>
+      <c r="BW23"/>
+      <c r="BY23"/>
+      <c r="BZ23"/>
+      <c r="CB23"/>
+      <c r="CC23"/>
+      <c r="CE23"/>
+      <c r="CF23"/>
+      <c r="CM23"/>
+      <c r="CN23"/>
+      <c r="CP23"/>
+      <c r="CX23"/>
+      <c r="CZ23"/>
+      <c r="DA23"/>
+      <c r="DE23"/>
+      <c r="DT23"/>
+      <c r="DV23"/>
+      <c r="EL23"/>
+      <c r="EM23"/>
+      <c r="EO23"/>
+      <c r="EP23"/>
+      <c r="ER23"/>
+      <c r="ES23"/>
+      <c r="EU23"/>
+      <c r="EZ23"/>
+      <c r="FB23"/>
+      <c r="FD23"/>
+      <c r="FF23"/>
+      <c r="FG23"/>
+      <c r="FI23"/>
+      <c r="FK23"/>
+      <c r="FO23"/>
+      <c r="FR23"/>
+      <c r="FT23"/>
+      <c r="FV23"/>
+      <c r="FY23"/>
+      <c r="GA23"/>
+      <c r="GC23"/>
+      <c r="GE23"/>
+      <c r="GJ23"/>
+      <c r="GL23"/>
+      <c r="GN23"/>
+      <c r="GP23"/>
+      <c r="GQ23"/>
+      <c r="GS23"/>
+      <c r="GZ23"/>
+      <c r="HC23"/>
+      <c r="HE23"/>
+      <c r="HG23"/>
+      <c r="HI23"/>
     </row>
-    <row r="24" spans="1:217" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:217" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>4</v>
       </c>
@@ -13391,14 +13988,231 @@
       <c r="X24">
         <v>4</v>
       </c>
+      <c r="AD24"/>
+      <c r="AE24"/>
+      <c r="AG24"/>
+      <c r="AH24"/>
+      <c r="AI24"/>
+      <c r="AK24"/>
+      <c r="AL24"/>
+      <c r="AN24"/>
+      <c r="AO24"/>
+      <c r="AP24"/>
+      <c r="AX24"/>
+      <c r="AY24"/>
+      <c r="BB24"/>
+      <c r="BD24"/>
+      <c r="BF24"/>
+      <c r="BG24"/>
+      <c r="BN24"/>
+      <c r="BP24"/>
+      <c r="BR24"/>
+      <c r="BS24"/>
+      <c r="BT24"/>
+      <c r="BU24"/>
+      <c r="BV24"/>
+      <c r="BW24"/>
+      <c r="BY24"/>
+      <c r="BZ24"/>
+      <c r="CB24"/>
+      <c r="CC24"/>
+      <c r="CE24"/>
+      <c r="CF24"/>
+      <c r="CM24"/>
+      <c r="CN24"/>
+      <c r="CP24"/>
+      <c r="CX24"/>
+      <c r="CZ24"/>
+      <c r="DA24"/>
+      <c r="DE24"/>
+      <c r="DT24"/>
+      <c r="DV24"/>
+      <c r="EL24"/>
+      <c r="EM24"/>
+      <c r="EO24"/>
+      <c r="EP24"/>
+      <c r="ER24"/>
+      <c r="ES24"/>
+      <c r="EU24"/>
+      <c r="EZ24"/>
+      <c r="FB24"/>
+      <c r="FD24"/>
+      <c r="FF24"/>
+      <c r="FG24"/>
+      <c r="FI24"/>
+      <c r="FK24"/>
+      <c r="FO24"/>
+      <c r="FR24"/>
+      <c r="FT24"/>
+      <c r="FV24"/>
+      <c r="FY24"/>
+      <c r="GA24"/>
+      <c r="GC24"/>
+      <c r="GE24"/>
+      <c r="GJ24"/>
+      <c r="GL24"/>
+      <c r="GN24"/>
+      <c r="GP24"/>
+      <c r="GQ24"/>
+      <c r="GS24"/>
+      <c r="GZ24"/>
+      <c r="HC24"/>
+      <c r="HE24"/>
+      <c r="HG24"/>
+      <c r="HI24"/>
     </row>
-    <row r="25" spans="1:217" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:217" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:217" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="AD25"/>
+      <c r="AE25"/>
+      <c r="AG25"/>
+      <c r="AH25"/>
+      <c r="AI25"/>
+      <c r="AK25"/>
+      <c r="AL25"/>
+      <c r="AN25"/>
+      <c r="AO25"/>
+      <c r="AP25"/>
+      <c r="AX25"/>
+      <c r="AY25"/>
+      <c r="BB25"/>
+      <c r="BD25"/>
+      <c r="BF25"/>
+      <c r="BG25"/>
+      <c r="BN25"/>
+      <c r="BP25"/>
+      <c r="BR25"/>
+      <c r="BS25"/>
+      <c r="BT25"/>
+      <c r="BU25"/>
+      <c r="BV25"/>
+      <c r="BW25"/>
+      <c r="BY25"/>
+      <c r="BZ25"/>
+      <c r="CB25"/>
+      <c r="CC25"/>
+      <c r="CE25"/>
+      <c r="CF25"/>
+      <c r="CM25"/>
+      <c r="CN25"/>
+      <c r="CP25"/>
+      <c r="CX25"/>
+      <c r="CZ25"/>
+      <c r="DA25"/>
+      <c r="DE25"/>
+      <c r="DT25"/>
+      <c r="DV25"/>
+      <c r="EL25"/>
+      <c r="EM25"/>
+      <c r="EO25"/>
+      <c r="EP25"/>
+      <c r="ER25"/>
+      <c r="ES25"/>
+      <c r="EU25"/>
+      <c r="EZ25"/>
+      <c r="FB25"/>
+      <c r="FD25"/>
+      <c r="FF25"/>
+      <c r="FG25"/>
+      <c r="FI25"/>
+      <c r="FK25"/>
+      <c r="FO25"/>
+      <c r="FR25"/>
+      <c r="FT25"/>
+      <c r="FV25"/>
+      <c r="FY25"/>
+      <c r="GA25"/>
+      <c r="GC25"/>
+      <c r="GE25"/>
+      <c r="GJ25"/>
+      <c r="GL25"/>
+      <c r="GN25"/>
+      <c r="GP25"/>
+      <c r="GQ25"/>
+      <c r="GS25"/>
+      <c r="GZ25"/>
+      <c r="HC25"/>
+      <c r="HE25"/>
+      <c r="HG25"/>
+      <c r="HI25"/>
+    </row>
+    <row r="26" spans="1:217" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>41</v>
       </c>
+      <c r="AD26"/>
+      <c r="AE26"/>
+      <c r="AG26"/>
+      <c r="AH26"/>
+      <c r="AI26"/>
+      <c r="AK26"/>
+      <c r="AL26"/>
+      <c r="AN26"/>
+      <c r="AO26"/>
+      <c r="AP26"/>
+      <c r="AX26"/>
+      <c r="AY26"/>
+      <c r="BB26"/>
+      <c r="BD26"/>
+      <c r="BF26"/>
+      <c r="BG26"/>
+      <c r="BN26"/>
+      <c r="BP26"/>
+      <c r="BR26"/>
+      <c r="BS26"/>
+      <c r="BT26"/>
+      <c r="BU26"/>
+      <c r="BV26"/>
+      <c r="BW26"/>
+      <c r="BY26"/>
+      <c r="BZ26"/>
+      <c r="CB26"/>
+      <c r="CC26"/>
+      <c r="CE26"/>
+      <c r="CF26"/>
+      <c r="CM26"/>
+      <c r="CN26"/>
+      <c r="CP26"/>
+      <c r="CX26"/>
+      <c r="CZ26"/>
+      <c r="DA26"/>
+      <c r="DE26"/>
+      <c r="DT26"/>
+      <c r="DV26"/>
+      <c r="EL26"/>
+      <c r="EM26"/>
+      <c r="EO26"/>
+      <c r="EP26"/>
+      <c r="ER26"/>
+      <c r="ES26"/>
+      <c r="EU26"/>
+      <c r="EZ26"/>
+      <c r="FB26"/>
+      <c r="FD26"/>
+      <c r="FF26"/>
+      <c r="FG26"/>
+      <c r="FI26"/>
+      <c r="FK26"/>
+      <c r="FO26"/>
+      <c r="FR26"/>
+      <c r="FT26"/>
+      <c r="FV26"/>
+      <c r="FY26"/>
+      <c r="GA26"/>
+      <c r="GC26"/>
+      <c r="GE26"/>
+      <c r="GJ26"/>
+      <c r="GL26"/>
+      <c r="GN26"/>
+      <c r="GP26"/>
+      <c r="GQ26"/>
+      <c r="GS26"/>
+      <c r="GZ26"/>
+      <c r="HC26"/>
+      <c r="HE26"/>
+      <c r="HG26"/>
+      <c r="HI26"/>
     </row>
-    <row r="27" spans="1:217" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:217" x14ac:dyDescent="0.15">
       <c r="A27" s="27" t="s">
         <v>40</v>
       </c>
@@ -13418,7 +14232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:217" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:217" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="28" t="s">
         <v>39</v>
       </c>
@@ -13438,14 +14252,14 @@
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:217" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:217" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:217" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:217" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>47</v>
       </c>
       <c r="F30" s="45"/>
     </row>
-    <row r="31" spans="1:217" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:217" s="51" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="55" t="s">
         <v>44</v>
       </c>
@@ -13477,7 +14291,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:217" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:217" x14ac:dyDescent="0.15">
       <c r="A32" s="33" t="s">
         <v>45</v>
       </c>
@@ -13601,7 +14415,7 @@
       <c r="HG32"/>
       <c r="HI32"/>
     </row>
-    <row r="33" spans="1:217" s="51" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:217" s="51" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
         <v>0</v>
       </c>
@@ -13633,7 +14447,7 @@
         <v>40001</v>
       </c>
     </row>
-    <row r="34" spans="1:217" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:217" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="K34" s="45"/>
       <c r="L34" s="45"/>
       <c r="N34" s="45"/>
@@ -13727,7 +14541,7 @@
       <c r="HG34"/>
       <c r="HI34"/>
     </row>
-    <row r="35" spans="1:217" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:217" x14ac:dyDescent="0.15">
       <c r="A35" s="43" t="s">
         <v>141</v>
       </c>
@@ -13839,7 +14653,7 @@
       <c r="HG35"/>
       <c r="HI35"/>
     </row>
-    <row r="36" spans="1:217" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:217" x14ac:dyDescent="0.15">
       <c r="A36" s="43" t="s">
         <v>142</v>
       </c>
@@ -13951,7 +14765,7 @@
       <c r="HG36"/>
       <c r="HI36"/>
     </row>
-    <row r="37" spans="1:217" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:217" x14ac:dyDescent="0.15">
       <c r="A37" s="43" t="s">
         <v>143</v>
       </c>
@@ -14063,7 +14877,7 @@
       <c r="HG37"/>
       <c r="HI37"/>
     </row>
-    <row r="38" spans="1:217" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:217" x14ac:dyDescent="0.15">
       <c r="A38" s="43" t="s">
         <v>144</v>
       </c>
@@ -14175,7 +14989,7 @@
       <c r="HG38"/>
       <c r="HI38"/>
     </row>
-    <row r="39" spans="1:217" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:217" x14ac:dyDescent="0.15">
       <c r="A39" s="43" t="s">
         <v>145</v>
       </c>
@@ -14195,7 +15009,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="40" spans="1:217" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:217" x14ac:dyDescent="0.15">
       <c r="A40" s="43" t="s">
         <v>146</v>
       </c>
@@ -14212,7 +15026,7 @@
         <v>8011011011</v>
       </c>
     </row>
-    <row r="41" spans="1:217" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:217" x14ac:dyDescent="0.15">
       <c r="A41" s="43" t="s">
         <v>147</v>
       </c>
@@ -14221,7 +15035,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="1:217" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:217" x14ac:dyDescent="0.15">
       <c r="A42" s="43" t="s">
         <v>148</v>
       </c>
@@ -14232,7 +15046,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="43" spans="1:217" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:217" x14ac:dyDescent="0.15">
       <c r="A43" s="43" t="s">
         <v>149</v>
       </c>
@@ -14241,7 +15055,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:217" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:217" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="44" t="s">
         <v>150</v>
       </c>
@@ -14252,7 +15066,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="45" spans="1:217" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:217" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="CI12:CI14 CK12:CM14">
@@ -14274,7 +15088,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14288,7 +15102,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/窪田/対応表イメージ0_5.xlsx
+++ b/窪田/対応表イメージ0_5.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\as15304012\Documents\GitHub\Graduation\窪田\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yn15304017\Documents\GitHub\Graduation\窪田\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="0" windowWidth="21600" windowHeight="10665"/>
+    <workbookView xWindow="2040" yWindow="0" windowWidth="21600" windowHeight="10670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2355,663 +2355,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>outer1.png</t>
-  </si>
-  <si>
-    <t>outer2.png</t>
-  </si>
-  <si>
-    <t>outer3.png</t>
-  </si>
-  <si>
-    <t>outer4.png</t>
-  </si>
-  <si>
-    <t>outer5.png</t>
-  </si>
-  <si>
-    <t>outer6.png</t>
-  </si>
-  <si>
-    <t>outer7.png</t>
-  </si>
-  <si>
-    <t>outer8.png</t>
-  </si>
-  <si>
-    <t>outer9.png</t>
-  </si>
-  <si>
-    <t>outer10.png</t>
-  </si>
-  <si>
-    <t>outer11.png</t>
-  </si>
-  <si>
-    <t>outer12.png</t>
-  </si>
-  <si>
-    <t>outer13.png</t>
-  </si>
-  <si>
-    <t>outer13_2.png</t>
-  </si>
-  <si>
-    <t>outer13_3.png</t>
-  </si>
-  <si>
-    <t>outer14.png</t>
-  </si>
-  <si>
-    <t>outer14_2.png</t>
-  </si>
-  <si>
-    <t>outer14_3.png</t>
-  </si>
-  <si>
-    <t>outer15.png</t>
-  </si>
-  <si>
-    <t>outer15_2.png</t>
-  </si>
-  <si>
-    <t>outer15_3.png</t>
-  </si>
-  <si>
-    <t>outer16.png</t>
-  </si>
-  <si>
-    <t>outer17.png</t>
-  </si>
-  <si>
-    <t>outer18.png</t>
-  </si>
-  <si>
-    <t>outer19.png</t>
-  </si>
-  <si>
-    <t>outer20.png</t>
-  </si>
-  <si>
-    <t>outer21.png</t>
-  </si>
-  <si>
-    <t>outer21_2.png</t>
-  </si>
-  <si>
-    <t>outer21_3.png</t>
-  </si>
-  <si>
-    <t>outer22.png</t>
-  </si>
-  <si>
-    <t>outer22_2.png</t>
-  </si>
-  <si>
-    <t>outer22_3.png</t>
-  </si>
-  <si>
-    <t>outer22_4.png</t>
-  </si>
-  <si>
-    <t>outer23.png</t>
-  </si>
-  <si>
-    <t>outer23_2.png</t>
-  </si>
-  <si>
-    <t>outer23_3.png</t>
-  </si>
-  <si>
-    <t>outer24.png</t>
-  </si>
-  <si>
-    <t>outer24_2.png</t>
-  </si>
-  <si>
-    <t>outer24_3.png</t>
-  </si>
-  <si>
-    <t>outer24_4.png</t>
-  </si>
-  <si>
-    <t>outer25.png</t>
-  </si>
-  <si>
-    <t>outer26.png</t>
-  </si>
-  <si>
-    <t>outer27.png</t>
-  </si>
-  <si>
-    <t>outer28.png</t>
-  </si>
-  <si>
-    <t>outer29.png</t>
-  </si>
-  <si>
-    <t>outer30.png</t>
-  </si>
-  <si>
-    <t>parka1.png</t>
-  </si>
-  <si>
-    <t>parka1_2.png</t>
-  </si>
-  <si>
-    <t>parka1_3.png</t>
-  </si>
-  <si>
-    <t>parka2.png</t>
-  </si>
-  <si>
-    <t>parka3.png</t>
-  </si>
-  <si>
-    <t>parka3_2.png</t>
-  </si>
-  <si>
-    <t>parka4.png</t>
-  </si>
-  <si>
-    <t>parka4_2.png</t>
-  </si>
-  <si>
-    <t>parka5.png</t>
-  </si>
-  <si>
-    <t>parka5_2.png</t>
-  </si>
-  <si>
-    <t>parka5_3.png</t>
-  </si>
-  <si>
-    <t>parka6.png</t>
-  </si>
-  <si>
-    <t>parka7.png</t>
-  </si>
-  <si>
-    <t>parka8.png</t>
-  </si>
-  <si>
-    <t>parka9.png</t>
-  </si>
-  <si>
-    <t>parka10.png</t>
-  </si>
-  <si>
-    <t>parka11.png</t>
-  </si>
-  <si>
-    <t>parka11_2.png</t>
-  </si>
-  <si>
-    <t>parka12.png</t>
-  </si>
-  <si>
-    <t>parka12_2.png</t>
-  </si>
-  <si>
-    <t>shirt1.png</t>
-  </si>
-  <si>
-    <t>shirt1_2.png</t>
-  </si>
-  <si>
-    <t>shirt1_3.png</t>
-  </si>
-  <si>
-    <t>shirt1_4.png</t>
-  </si>
-  <si>
-    <t>shirt2.png</t>
-  </si>
-  <si>
-    <t>shirt2_2.png</t>
-  </si>
-  <si>
-    <t>shirt2_3.png</t>
-  </si>
-  <si>
-    <t>shirt3.png</t>
-  </si>
-  <si>
-    <t>shirt3_2.png</t>
-  </si>
-  <si>
-    <t>shirt3_3.png</t>
-  </si>
-  <si>
-    <t>shirt4.png</t>
-  </si>
-  <si>
-    <t>shirt4_2.png</t>
-  </si>
-  <si>
-    <t>shirt4_3.png</t>
-  </si>
-  <si>
-    <t>shirt5.png</t>
-  </si>
-  <si>
-    <t>shirt5_2.png</t>
-  </si>
-  <si>
-    <t>shirt5_3.png</t>
-  </si>
-  <si>
-    <t>shirt6.png</t>
-  </si>
-  <si>
-    <t>shirt7.png</t>
-  </si>
-  <si>
-    <t>shirt8.png</t>
-  </si>
-  <si>
-    <t>shirt9.png</t>
-  </si>
-  <si>
-    <t>shirt10.png</t>
-  </si>
-  <si>
-    <t>sweat1.png</t>
-  </si>
-  <si>
-    <t>sweat2.png</t>
-  </si>
-  <si>
-    <t>sweat2_2.png</t>
-  </si>
-  <si>
-    <t>sweat3.png</t>
-  </si>
-  <si>
-    <t>sweat3_2.png</t>
-  </si>
-  <si>
-    <t>sweater1.png</t>
-  </si>
-  <si>
-    <t>sweater2.png</t>
-  </si>
-  <si>
-    <t>sweater3.png</t>
-  </si>
-  <si>
-    <t>sweater4.png</t>
-  </si>
-  <si>
-    <t>sweater5.png</t>
-  </si>
-  <si>
-    <t>sweater6.png</t>
-  </si>
-  <si>
-    <t>sweater7.png</t>
-  </si>
-  <si>
-    <t>sweater7_2.png</t>
-  </si>
-  <si>
-    <t>sweater8.png</t>
-  </si>
-  <si>
-    <t>sweater8_2.png</t>
-  </si>
-  <si>
-    <t>sweater8_3.png</t>
-  </si>
-  <si>
-    <t>sweater9.png</t>
-  </si>
-  <si>
-    <t>sweater10.png</t>
-  </si>
-  <si>
-    <t>t_shirt1.png</t>
-  </si>
-  <si>
-    <t>t_shirt1_2.png</t>
-  </si>
-  <si>
-    <t>t_shirt2.png</t>
-  </si>
-  <si>
-    <t>t_shirt3.png</t>
-  </si>
-  <si>
-    <t>t_shirt4.png</t>
-  </si>
-  <si>
-    <t>t_shirt5.png</t>
-  </si>
-  <si>
-    <t>t_shirt6.png</t>
-  </si>
-  <si>
-    <t>t_shirt7.png</t>
-  </si>
-  <si>
-    <t>t_shirt8.png</t>
-  </si>
-  <si>
-    <t>t_shirt9.png</t>
-  </si>
-  <si>
-    <t>t_shirt10.png</t>
-  </si>
-  <si>
-    <t>t_shirt11.png</t>
-  </si>
-  <si>
-    <t>t_shirt12.png</t>
-  </si>
-  <si>
-    <t>t_shirt13.png</t>
-  </si>
-  <si>
-    <t>t_shirt14.png</t>
-  </si>
-  <si>
-    <t>t_shirt15.png</t>
-  </si>
-  <si>
-    <t>t_shirt15_2.png</t>
-  </si>
-  <si>
-    <t>t_shirt16.png</t>
-  </si>
-  <si>
-    <t>t_shirt16_2.png</t>
-  </si>
-  <si>
-    <t>t_shirt17.png</t>
-  </si>
-  <si>
-    <t>t_shirt18.png</t>
-  </si>
-  <si>
-    <t>t_shirt19.png</t>
-  </si>
-  <si>
-    <t>t_shirt20.png</t>
-  </si>
-  <si>
-    <t>denim1.jpg</t>
-  </si>
-  <si>
-    <t>denim2.jpg</t>
-  </si>
-  <si>
-    <t>denim3.jpg</t>
-  </si>
-  <si>
-    <t>denim4.jpg</t>
-  </si>
-  <si>
-    <t>denim5.jpg</t>
-  </si>
-  <si>
-    <t>pants1.jpg</t>
-  </si>
-  <si>
-    <t>pants2.jpg</t>
-  </si>
-  <si>
-    <t>pants3.jpg</t>
-  </si>
-  <si>
-    <t>pants4.jpg</t>
-  </si>
-  <si>
-    <t>pants5.jpg</t>
-  </si>
-  <si>
-    <t>boxer1.jpg</t>
-  </si>
-  <si>
-    <t>boxer1_2.jpg</t>
-  </si>
-  <si>
-    <t>boxer1_3.jpg</t>
-  </si>
-  <si>
-    <t>boxer2.jpg</t>
-  </si>
-  <si>
-    <t>boxer2_2.jpg</t>
-  </si>
-  <si>
-    <t>boxer2_3.jpg</t>
-  </si>
-  <si>
-    <t>boxer3.jpg</t>
-  </si>
-  <si>
-    <t>boxer3_2.jpg</t>
-  </si>
-  <si>
-    <t>boxer3_3.jpg</t>
-  </si>
-  <si>
-    <t>sox1.jpg</t>
-  </si>
-  <si>
-    <t>sox1_2.jpg</t>
-  </si>
-  <si>
-    <t>sox2.jpg</t>
-  </si>
-  <si>
-    <t>sox3.jpg</t>
-  </si>
-  <si>
-    <t>trunks1.jpg</t>
-  </si>
-  <si>
-    <t>trunks2.jpg</t>
-  </si>
-  <si>
-    <t>trunks2_2.jpg</t>
-  </si>
-  <si>
-    <t>trunks3.jpg</t>
-  </si>
-  <si>
-    <t>trunks3_2.jpg</t>
-  </si>
-  <si>
-    <t>boots1.jpg</t>
-  </si>
-  <si>
-    <t>boots1_2.jpg</t>
-  </si>
-  <si>
-    <t>boots2.jpg</t>
-  </si>
-  <si>
-    <t>boots2_2.jpg</t>
-  </si>
-  <si>
-    <t>boots2_3.jpg</t>
-  </si>
-  <si>
-    <t>boots3.jpg</t>
-  </si>
-  <si>
-    <t>boots3_2.jpg</t>
-  </si>
-  <si>
-    <t>sandal1.jpg</t>
-  </si>
-  <si>
-    <t>sandal1_2.jpg</t>
-  </si>
-  <si>
-    <t>sandal2.jpg</t>
-  </si>
-  <si>
-    <t>sandal3.jpg</t>
-  </si>
-  <si>
-    <t>shoes1.jpg</t>
-  </si>
-  <si>
-    <t>shoes1_2.jpg</t>
-  </si>
-  <si>
-    <t>shoes2.jpg</t>
-  </si>
-  <si>
-    <t>shoes3.jpg</t>
-  </si>
-  <si>
-    <t>shoes3_2.jpg</t>
-  </si>
-  <si>
-    <t>shoes4.jpg</t>
-  </si>
-  <si>
-    <t>shoes4_2.jpg</t>
-  </si>
-  <si>
-    <t>shoes5.jpg</t>
-  </si>
-  <si>
-    <t>shoes5_2.jpg</t>
-  </si>
-  <si>
-    <t>shoes6.jpg</t>
-  </si>
-  <si>
-    <t>shoes7.jpg</t>
-  </si>
-  <si>
-    <t>shoes7_2.jpg</t>
-  </si>
-  <si>
-    <t>shoes8.jpg</t>
-  </si>
-  <si>
-    <t>shoes8_2.jpg</t>
-  </si>
-  <si>
-    <t>shoes9.jpg</t>
-  </si>
-  <si>
-    <t>shoes9_2.jpg</t>
-  </si>
-  <si>
-    <t>shoes10.jpg</t>
-  </si>
-  <si>
-    <t>shoes10_2.jpg</t>
-  </si>
-  <si>
-    <t>bag1.jpg</t>
-  </si>
-  <si>
-    <t>bag2.jpg</t>
-  </si>
-  <si>
-    <t>bag3.jpg</t>
-  </si>
-  <si>
-    <t>bag4.jpg</t>
-  </si>
-  <si>
-    <t>bag4_2.jpg</t>
-  </si>
-  <si>
-    <t>bag5.jpg</t>
-  </si>
-  <si>
-    <t>bag5_2.jpg</t>
-  </si>
-  <si>
-    <t>bag6.jpg</t>
-  </si>
-  <si>
-    <t>bag6_2.jpg</t>
-  </si>
-  <si>
-    <t>bag7.jpg</t>
-  </si>
-  <si>
-    <t>bag7_2.jpg</t>
-  </si>
-  <si>
-    <t>bag7_3.jpg</t>
-  </si>
-  <si>
-    <t>bag8.jpg</t>
-  </si>
-  <si>
-    <t>bag8_2.jpg</t>
-  </si>
-  <si>
-    <t>bag9.jpg</t>
-  </si>
-  <si>
-    <t>bag10.jpg</t>
-  </si>
-  <si>
-    <t>belt1.jpg</t>
-  </si>
-  <si>
-    <t>belt2.jpg</t>
-  </si>
-  <si>
-    <t>belt3.jpg</t>
-  </si>
-  <si>
-    <t>belt4.jpg</t>
-  </si>
-  <si>
-    <t>belt5.jpg</t>
-  </si>
-  <si>
-    <t>bracelet.jpg</t>
-  </si>
-  <si>
-    <t>hat1.jpg</t>
-  </si>
-  <si>
-    <t>hat1_2.jpg</t>
-  </si>
-  <si>
-    <t>hat2.jpg</t>
-  </si>
-  <si>
-    <t>hat2_2.jpg</t>
-  </si>
-  <si>
-    <t>hat3.jpg</t>
-  </si>
-  <si>
-    <t>hat3_2.jpg</t>
-  </si>
-  <si>
-    <t>hat4.jpg</t>
-  </si>
-  <si>
-    <t>hat4_2.jpg</t>
-  </si>
-  <si>
-    <t>hat5.jpg</t>
-  </si>
-  <si>
-    <t>necklace.jpg</t>
-  </si>
-  <si>
-    <t>wallet.jpg</t>
-  </si>
-  <si>
-    <t>watch.jpg</t>
-  </si>
-  <si>
     <t>00000031</t>
   </si>
   <si>
@@ -3270,6 +2613,829 @@
   </si>
   <si>
     <t>オススメ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/outer1.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/outer2.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/outer3.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/outer4.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/outer5.png</t>
+  </si>
+  <si>
+    <t>/tops/outer6.png</t>
+  </si>
+  <si>
+    <t>/tops/outer7.png</t>
+  </si>
+  <si>
+    <t>/tops/outer8.png</t>
+  </si>
+  <si>
+    <t>/tops/outer9.png</t>
+  </si>
+  <si>
+    <t>/tops/outer10.png</t>
+  </si>
+  <si>
+    <t>/tops/outer11.png</t>
+  </si>
+  <si>
+    <t>/tops/outer12.png</t>
+  </si>
+  <si>
+    <t>/tops/outer13.png</t>
+  </si>
+  <si>
+    <t>/tops/outer13_2.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/outer13_3.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/outer14.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/outer14_2.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/outer14_3.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/outer15.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/outer15_2.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/outer15_3.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/outer16.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/outer17.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/outer18.png</t>
+  </si>
+  <si>
+    <t>/tops/outer19.png</t>
+  </si>
+  <si>
+    <t>/tops/outer20.png</t>
+  </si>
+  <si>
+    <t>/tops/outer21.png</t>
+  </si>
+  <si>
+    <t>/tops/outer21_2.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/outer21_3.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/outer22.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/outer22_2.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/outer22_3.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/outer22_4.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/outer23.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/outer23_2.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/outer23_3.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/outer24.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/outer24_2.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/outer24_3.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/outer24_4.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/outer25.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/outer26.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/outer27.png</t>
+  </si>
+  <si>
+    <t>/tops/outer28.png</t>
+  </si>
+  <si>
+    <t>/tops/outer29.png</t>
+  </si>
+  <si>
+    <t>/tops/outer30.png</t>
+  </si>
+  <si>
+    <t>/tops/parka1.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/parka1_2.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/parka1_3.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/parka2.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/parka3.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/parka3_2.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/parka4.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/parka4_2.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/parka5.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/parka5_2.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/parka5_3.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/parka6.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/parka7.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/parka8.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/parka9.png</t>
+  </si>
+  <si>
+    <t>/tops/parka10.png</t>
+  </si>
+  <si>
+    <t>/tops/parka11.png</t>
+  </si>
+  <si>
+    <t>/tops/parka11_2.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/parka12.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/parka12_2.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/shirt1.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/shirt1_2.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/shirt1_3.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/shirt1_4.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/shirt2.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/shirt2_2.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/shirt2_3.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/shirt3.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/shirt3_2.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/shirt3_3.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/shirt4.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/shirt4_2.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/shirt4_3.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/shirt5.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/shirt5_2.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/shirt5_3.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/shirt6.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/shirt7.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/shirt8.png</t>
+  </si>
+  <si>
+    <t>/tops/shirt9.png</t>
+  </si>
+  <si>
+    <t>/tops/shirt10.png</t>
+  </si>
+  <si>
+    <t>/tops/sweat1.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/sweat2.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/sweat2_2.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/sweat3.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/sweat3_2.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/sweater1.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/sweater2.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/sweater3.png</t>
+  </si>
+  <si>
+    <t>/tops/sweater4.png</t>
+  </si>
+  <si>
+    <t>/tops/sweater5.png</t>
+  </si>
+  <si>
+    <t>/tops/sweater6.png</t>
+  </si>
+  <si>
+    <t>/tops/sweater7.png</t>
+  </si>
+  <si>
+    <t>/tops/sweater7_2.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/sweater8.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/sweater8_2.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/sweater8_3.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/sweater9.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/sweater10.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/t_shirt1.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/t_shirt1_2.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/t_shirt2.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/t_shirt3.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/t_shirt4.png</t>
+  </si>
+  <si>
+    <t>/tops/t_shirt5.png</t>
+  </si>
+  <si>
+    <t>/tops/t_shirt6.png</t>
+  </si>
+  <si>
+    <t>/tops/t_shirt7.png</t>
+  </si>
+  <si>
+    <t>/tops/t_shirt8.png</t>
+  </si>
+  <si>
+    <t>/tops/t_shirt9.png</t>
+  </si>
+  <si>
+    <t>/tops/t_shirt10.png</t>
+  </si>
+  <si>
+    <t>/tops/t_shirt11.png</t>
+  </si>
+  <si>
+    <t>/tops/t_shirt12.png</t>
+  </si>
+  <si>
+    <t>/tops/t_shirt13.png</t>
+  </si>
+  <si>
+    <t>/tops/t_shirt14.png</t>
+  </si>
+  <si>
+    <t>/tops/t_shirt15.png</t>
+  </si>
+  <si>
+    <t>/tops/t_shirt15_2.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/t_shirt16.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/t_shirt16_2.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/t_shirt17.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/t_shirt18.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tops/t_shirt19.png</t>
+  </si>
+  <si>
+    <t>/tops/t_shirt20.png</t>
+  </si>
+  <si>
+    <t>/bottoms/denim1.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/bottoms/denim2.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/bottoms/denim3.jpg</t>
+  </si>
+  <si>
+    <t>/bottoms/denim4.jpg</t>
+  </si>
+  <si>
+    <t>/bottoms/denim5.jpg</t>
+  </si>
+  <si>
+    <t>/bottoms/pants1.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/bottoms/pants2.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/bottoms/pants3.jpg</t>
+  </si>
+  <si>
+    <t>/bottoms/pants4.jpg</t>
+  </si>
+  <si>
+    <t>/bottoms/pants5.jpg</t>
+  </si>
+  <si>
+    <t>/under/boxer1.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/under/boxer1_2.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/under/boxer1_3.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/under/boxer2.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/under/boxer2_2.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/under/boxer2_3.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/under/boxer3.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/under/boxer3_2.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/under/boxer3_3.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/under/sox1.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/under/sox1_2.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/under/sox2.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/under/sox3.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/under/trunks1.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/under/trunks2.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/under/trunks2_2.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/under/trunks3.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/under/trunks3_2.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/shoes/boots1.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/shoes/boots1_2.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/shoes/boots2.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/shoes/boots2_2.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/shoes/boots2_3.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/shoes/boots3.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/shoes/boots3_2.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/shoes/sandal1.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/shoes/sandal1_2.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/shoes/sandal2.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/shoes/sandal3.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/shoes/shoes1.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/shoes/shoes1_2.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/shoes/shoes2.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/shoes/shoes3.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/shoes/shoes3_2.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/shoes/shoes4.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/shoes/shoes4_2.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/shoes/shoes5.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/shoes/shoes5_2.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/shoes/shoes6.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/shoes/shoes7.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/shoes/shoes7_2.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/shoes/shoes8.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/shoes/shoes8_2.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/shoes/shoes9.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/shoes/shoes9_2.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/shoes/shoes10.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/shoes/shoes10_2.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/accessories/bag1.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/accessories/bag2.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/accessories/bag3.jpg</t>
+  </si>
+  <si>
+    <t>/accessories/bag4.jpg</t>
+  </si>
+  <si>
+    <t>/accessories/bag4_2.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/accessories/bag5.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/accessories/bag5_2.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/accessories/bag6.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/accessories/bag6_2.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/accessories/bag7.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/accessories/bag7_2.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/accessories/bag7_3.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/accessories/bag8.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/accessories/bag8_2.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/accessories/bag9.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/accessories/bag10.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/accessories/belt1.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/accessories/belt2.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/accessories/belt3.jpg</t>
+  </si>
+  <si>
+    <t>/accessories/belt4.jpg</t>
+  </si>
+  <si>
+    <t>/accessories/belt5.jpg</t>
+  </si>
+  <si>
+    <t>/accessories/bracelet.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/accessories/hat1.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/accessories/hat1_2.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/accessories/hat2.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/accessories/hat2_2.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/accessories/hat3.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/accessories/hat3_2.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/accessories/hat4.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/accessories/hat4_2.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/accessories/hat5.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/accessories/necklace.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/accessories/wallet.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/accessories/watch.jpg</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4181,123 +4347,123 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:HN45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="HH6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="HN14" sqref="HN14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="37.5" customWidth="1" collapsed="1"/>
-    <col min="4" max="15" width="18.625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="18.625" style="45" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="18.625" customWidth="1" collapsed="1"/>
-    <col min="18" max="20" width="18.625" style="45" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="18.625" customWidth="1" collapsed="1"/>
-    <col min="22" max="23" width="18.625" style="45" customWidth="1" collapsed="1"/>
-    <col min="24" max="29" width="18.625" customWidth="1" collapsed="1"/>
-    <col min="30" max="31" width="18.625" style="45" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="18.625" customWidth="1" collapsed="1"/>
-    <col min="33" max="35" width="18.625" style="45" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="18.625" customWidth="1" collapsed="1"/>
-    <col min="37" max="38" width="18.625" style="45" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="18.625" customWidth="1" collapsed="1"/>
-    <col min="40" max="42" width="18.625" style="45" customWidth="1" collapsed="1"/>
-    <col min="43" max="49" width="18.625" customWidth="1" collapsed="1"/>
-    <col min="50" max="51" width="18.625" style="45" customWidth="1" collapsed="1"/>
-    <col min="52" max="53" width="18.625" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="18.625" style="45" customWidth="1" collapsed="1"/>
-    <col min="55" max="55" width="18.625" customWidth="1" collapsed="1"/>
-    <col min="56" max="56" width="18.625" style="45" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="18.625" customWidth="1" collapsed="1"/>
-    <col min="58" max="59" width="18.625" style="45" customWidth="1" collapsed="1"/>
-    <col min="60" max="65" width="18.625" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="18.625" style="45" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="18.625" customWidth="1" collapsed="1"/>
-    <col min="68" max="68" width="18.625" style="45" customWidth="1" collapsed="1"/>
-    <col min="69" max="69" width="18.625" customWidth="1" collapsed="1"/>
-    <col min="70" max="75" width="18.625" style="45" customWidth="1" collapsed="1"/>
-    <col min="76" max="76" width="18.625" customWidth="1" collapsed="1"/>
-    <col min="77" max="78" width="18.625" style="45" customWidth="1" collapsed="1"/>
-    <col min="79" max="79" width="18.625" customWidth="1" collapsed="1"/>
-    <col min="80" max="81" width="18.625" style="45" customWidth="1" collapsed="1"/>
-    <col min="82" max="82" width="18.625" customWidth="1" collapsed="1"/>
-    <col min="83" max="84" width="18.625" style="45" customWidth="1" collapsed="1"/>
-    <col min="85" max="90" width="18.625" customWidth="1" collapsed="1"/>
-    <col min="91" max="92" width="18.625" style="45" customWidth="1" collapsed="1"/>
-    <col min="93" max="93" width="18.625" customWidth="1" collapsed="1"/>
-    <col min="94" max="94" width="18.625" style="45" customWidth="1" collapsed="1"/>
-    <col min="95" max="101" width="18.625" customWidth="1" collapsed="1"/>
-    <col min="102" max="102" width="18.625" style="45" customWidth="1" collapsed="1"/>
-    <col min="103" max="103" width="18.625" customWidth="1" collapsed="1"/>
-    <col min="104" max="105" width="18.625" style="45" customWidth="1" collapsed="1"/>
-    <col min="106" max="108" width="18.625" customWidth="1" collapsed="1"/>
-    <col min="109" max="109" width="18.625" style="45" customWidth="1" collapsed="1"/>
-    <col min="110" max="123" width="18.625" customWidth="1" collapsed="1"/>
-    <col min="124" max="124" width="18.625" style="45" customWidth="1" collapsed="1"/>
-    <col min="125" max="125" width="18.625" customWidth="1" collapsed="1"/>
-    <col min="126" max="126" width="18.625" style="45" customWidth="1" collapsed="1"/>
-    <col min="127" max="141" width="18.625" customWidth="1" collapsed="1"/>
-    <col min="142" max="143" width="18.625" style="45" customWidth="1" collapsed="1"/>
-    <col min="144" max="144" width="18.625" customWidth="1" collapsed="1"/>
-    <col min="145" max="146" width="18.625" style="45" customWidth="1" collapsed="1"/>
-    <col min="147" max="147" width="18.625" customWidth="1" collapsed="1"/>
-    <col min="148" max="149" width="18.625" style="45" customWidth="1" collapsed="1"/>
-    <col min="150" max="150" width="18.625" customWidth="1" collapsed="1"/>
-    <col min="151" max="151" width="18.625" style="45" customWidth="1" collapsed="1"/>
-    <col min="152" max="155" width="18.625" customWidth="1" collapsed="1"/>
-    <col min="156" max="156" width="18.625" style="45" customWidth="1" collapsed="1"/>
-    <col min="157" max="157" width="18.625" customWidth="1" collapsed="1"/>
-    <col min="158" max="158" width="18.625" style="45" customWidth="1" collapsed="1"/>
-    <col min="159" max="159" width="18.625" customWidth="1" collapsed="1"/>
-    <col min="160" max="160" width="18.625" style="45" customWidth="1" collapsed="1"/>
-    <col min="161" max="161" width="18.625" customWidth="1" collapsed="1"/>
-    <col min="162" max="163" width="18.625" style="45" customWidth="1" collapsed="1"/>
-    <col min="164" max="164" width="18.625" customWidth="1" collapsed="1"/>
-    <col min="165" max="165" width="18.625" style="45" customWidth="1" collapsed="1"/>
-    <col min="166" max="166" width="18.625" customWidth="1" collapsed="1"/>
-    <col min="167" max="167" width="18.625" style="45" customWidth="1" collapsed="1"/>
-    <col min="168" max="170" width="18.625" customWidth="1" collapsed="1"/>
-    <col min="171" max="171" width="18.625" style="45" customWidth="1" collapsed="1"/>
-    <col min="172" max="173" width="18.625" customWidth="1" collapsed="1"/>
-    <col min="174" max="174" width="18.625" style="45" customWidth="1" collapsed="1"/>
-    <col min="175" max="175" width="18.625" customWidth="1" collapsed="1"/>
-    <col min="176" max="176" width="18.625" style="45" customWidth="1" collapsed="1"/>
-    <col min="177" max="177" width="18.625" customWidth="1" collapsed="1"/>
-    <col min="178" max="178" width="18.625" style="45" customWidth="1" collapsed="1"/>
-    <col min="179" max="180" width="18.625" customWidth="1" collapsed="1"/>
-    <col min="181" max="181" width="18.625" style="45" customWidth="1" collapsed="1"/>
-    <col min="182" max="182" width="18.625" customWidth="1" collapsed="1"/>
-    <col min="183" max="183" width="18.625" style="45" customWidth="1" collapsed="1"/>
-    <col min="184" max="184" width="18.625" customWidth="1" collapsed="1"/>
-    <col min="185" max="185" width="18.625" style="45" customWidth="1" collapsed="1"/>
-    <col min="186" max="186" width="18.625" customWidth="1" collapsed="1"/>
-    <col min="187" max="187" width="18.625" style="45" customWidth="1" collapsed="1"/>
-    <col min="188" max="191" width="18.625" customWidth="1" collapsed="1"/>
-    <col min="192" max="192" width="18.625" style="45" customWidth="1" collapsed="1"/>
-    <col min="193" max="193" width="18.625" customWidth="1" collapsed="1"/>
-    <col min="194" max="194" width="18.625" style="45" customWidth="1" collapsed="1"/>
-    <col min="195" max="195" width="18.625" customWidth="1" collapsed="1"/>
-    <col min="196" max="196" width="18.625" style="45" customWidth="1" collapsed="1"/>
-    <col min="197" max="197" width="18.625" customWidth="1" collapsed="1"/>
-    <col min="198" max="199" width="18.625" style="45" customWidth="1" collapsed="1"/>
-    <col min="200" max="200" width="18.625" customWidth="1" collapsed="1"/>
-    <col min="201" max="201" width="18.625" style="45" customWidth="1" collapsed="1"/>
-    <col min="202" max="207" width="18.625" customWidth="1" collapsed="1"/>
-    <col min="208" max="208" width="18.625" style="45" customWidth="1" collapsed="1"/>
-    <col min="209" max="210" width="18.625" customWidth="1" collapsed="1"/>
-    <col min="211" max="211" width="18.625" style="45" customWidth="1" collapsed="1"/>
-    <col min="212" max="212" width="18.625" customWidth="1" collapsed="1"/>
-    <col min="213" max="213" width="18.625" style="45" customWidth="1" collapsed="1"/>
-    <col min="214" max="214" width="18.625" customWidth="1" collapsed="1"/>
-    <col min="215" max="215" width="18.625" style="45" customWidth="1" collapsed="1"/>
-    <col min="216" max="216" width="18.625" customWidth="1" collapsed="1"/>
-    <col min="217" max="217" width="18.625" style="45" customWidth="1" collapsed="1"/>
-    <col min="218" max="222" width="18.625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="19.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.36328125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.453125" customWidth="1" collapsed="1"/>
+    <col min="4" max="15" width="18.6328125" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="18.6328125" customWidth="1" collapsed="1"/>
+    <col min="18" max="20" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="18.6328125" customWidth="1" collapsed="1"/>
+    <col min="22" max="23" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
+    <col min="24" max="29" width="18.6328125" customWidth="1" collapsed="1"/>
+    <col min="30" max="31" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="18.6328125" customWidth="1" collapsed="1"/>
+    <col min="33" max="35" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="18.6328125" customWidth="1" collapsed="1"/>
+    <col min="37" max="38" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="18.6328125" customWidth="1" collapsed="1"/>
+    <col min="40" max="42" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
+    <col min="43" max="49" width="18.6328125" customWidth="1" collapsed="1"/>
+    <col min="50" max="51" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
+    <col min="52" max="53" width="18.6328125" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="18.6328125" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="18.6328125" customWidth="1" collapsed="1"/>
+    <col min="58" max="59" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
+    <col min="60" max="65" width="18.6328125" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="18.6328125" customWidth="1" collapsed="1"/>
+    <col min="68" max="68" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
+    <col min="69" max="69" width="18.6328125" customWidth="1" collapsed="1"/>
+    <col min="70" max="75" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
+    <col min="76" max="76" width="18.6328125" customWidth="1" collapsed="1"/>
+    <col min="77" max="78" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
+    <col min="79" max="79" width="18.6328125" customWidth="1" collapsed="1"/>
+    <col min="80" max="81" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
+    <col min="82" max="82" width="18.6328125" customWidth="1" collapsed="1"/>
+    <col min="83" max="84" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
+    <col min="85" max="90" width="18.6328125" customWidth="1" collapsed="1"/>
+    <col min="91" max="92" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
+    <col min="93" max="93" width="18.6328125" customWidth="1" collapsed="1"/>
+    <col min="94" max="94" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
+    <col min="95" max="101" width="18.6328125" customWidth="1" collapsed="1"/>
+    <col min="102" max="102" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
+    <col min="103" max="103" width="18.6328125" customWidth="1" collapsed="1"/>
+    <col min="104" max="105" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
+    <col min="106" max="108" width="18.6328125" customWidth="1" collapsed="1"/>
+    <col min="109" max="109" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
+    <col min="110" max="123" width="18.6328125" customWidth="1" collapsed="1"/>
+    <col min="124" max="124" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
+    <col min="125" max="125" width="18.6328125" customWidth="1" collapsed="1"/>
+    <col min="126" max="126" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
+    <col min="127" max="141" width="18.6328125" customWidth="1" collapsed="1"/>
+    <col min="142" max="143" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
+    <col min="144" max="144" width="18.6328125" customWidth="1" collapsed="1"/>
+    <col min="145" max="146" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
+    <col min="147" max="147" width="18.6328125" customWidth="1" collapsed="1"/>
+    <col min="148" max="149" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
+    <col min="150" max="150" width="18.6328125" customWidth="1" collapsed="1"/>
+    <col min="151" max="151" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
+    <col min="152" max="155" width="18.6328125" customWidth="1" collapsed="1"/>
+    <col min="156" max="156" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
+    <col min="157" max="157" width="18.6328125" customWidth="1" collapsed="1"/>
+    <col min="158" max="158" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
+    <col min="159" max="159" width="18.6328125" customWidth="1" collapsed="1"/>
+    <col min="160" max="160" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
+    <col min="161" max="161" width="18.6328125" customWidth="1" collapsed="1"/>
+    <col min="162" max="163" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
+    <col min="164" max="164" width="18.6328125" customWidth="1" collapsed="1"/>
+    <col min="165" max="165" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
+    <col min="166" max="166" width="18.6328125" customWidth="1" collapsed="1"/>
+    <col min="167" max="167" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
+    <col min="168" max="170" width="18.6328125" customWidth="1" collapsed="1"/>
+    <col min="171" max="171" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
+    <col min="172" max="173" width="18.6328125" customWidth="1" collapsed="1"/>
+    <col min="174" max="174" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
+    <col min="175" max="175" width="18.6328125" customWidth="1" collapsed="1"/>
+    <col min="176" max="176" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
+    <col min="177" max="177" width="18.6328125" customWidth="1" collapsed="1"/>
+    <col min="178" max="178" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
+    <col min="179" max="180" width="18.6328125" customWidth="1" collapsed="1"/>
+    <col min="181" max="181" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
+    <col min="182" max="182" width="18.6328125" customWidth="1" collapsed="1"/>
+    <col min="183" max="183" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
+    <col min="184" max="184" width="18.6328125" customWidth="1" collapsed="1"/>
+    <col min="185" max="185" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
+    <col min="186" max="186" width="18.6328125" customWidth="1" collapsed="1"/>
+    <col min="187" max="187" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
+    <col min="188" max="191" width="18.6328125" customWidth="1" collapsed="1"/>
+    <col min="192" max="192" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
+    <col min="193" max="193" width="18.6328125" customWidth="1" collapsed="1"/>
+    <col min="194" max="194" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
+    <col min="195" max="195" width="18.6328125" customWidth="1" collapsed="1"/>
+    <col min="196" max="196" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
+    <col min="197" max="197" width="18.6328125" customWidth="1" collapsed="1"/>
+    <col min="198" max="199" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
+    <col min="200" max="200" width="18.6328125" customWidth="1" collapsed="1"/>
+    <col min="201" max="201" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
+    <col min="202" max="207" width="18.6328125" customWidth="1" collapsed="1"/>
+    <col min="208" max="208" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
+    <col min="209" max="210" width="18.6328125" customWidth="1" collapsed="1"/>
+    <col min="211" max="211" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
+    <col min="212" max="212" width="18.6328125" customWidth="1" collapsed="1"/>
+    <col min="213" max="213" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
+    <col min="214" max="214" width="18.6328125" customWidth="1" collapsed="1"/>
+    <col min="215" max="215" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
+    <col min="216" max="216" width="18.6328125" customWidth="1" collapsed="1"/>
+    <col min="217" max="217" width="18.6328125" style="45" customWidth="1" collapsed="1"/>
+    <col min="218" max="222" width="18.6328125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:222" s="38" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:222" s="38" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>23</v>
       </c>
@@ -4959,7 +5125,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:222" s="62" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:222" s="62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="59" t="s">
         <v>0</v>
       </c>
@@ -5060,52 +5226,52 @@
         <v>217</v>
       </c>
       <c r="AH2" t="s">
-        <v>665</v>
+        <v>446</v>
       </c>
       <c r="AI2" t="s">
-        <v>666</v>
+        <v>447</v>
       </c>
       <c r="AJ2" t="s">
-        <v>667</v>
+        <v>448</v>
       </c>
       <c r="AK2" t="s">
-        <v>668</v>
+        <v>449</v>
       </c>
       <c r="AL2" t="s">
-        <v>669</v>
+        <v>450</v>
       </c>
       <c r="AM2" t="s">
-        <v>670</v>
+        <v>451</v>
       </c>
       <c r="AN2" t="s">
-        <v>671</v>
+        <v>452</v>
       </c>
       <c r="AO2" t="s">
-        <v>672</v>
+        <v>453</v>
       </c>
       <c r="AP2" t="s">
-        <v>673</v>
+        <v>454</v>
       </c>
       <c r="AQ2" t="s">
-        <v>674</v>
+        <v>455</v>
       </c>
       <c r="AR2" t="s">
-        <v>675</v>
+        <v>456</v>
       </c>
       <c r="AS2" t="s">
-        <v>676</v>
+        <v>457</v>
       </c>
       <c r="AT2" t="s">
-        <v>677</v>
+        <v>458</v>
       </c>
       <c r="AU2" t="s">
-        <v>678</v>
+        <v>459</v>
       </c>
       <c r="AV2" t="s">
-        <v>679</v>
+        <v>460</v>
       </c>
       <c r="AW2" t="s">
-        <v>680</v>
+        <v>461</v>
       </c>
       <c r="AX2" t="s">
         <v>172</v>
@@ -5153,22 +5319,22 @@
         <v>231</v>
       </c>
       <c r="BM2" t="s">
-        <v>681</v>
+        <v>462</v>
       </c>
       <c r="BN2" t="s">
-        <v>682</v>
+        <v>463</v>
       </c>
       <c r="BO2" t="s">
-        <v>683</v>
+        <v>464</v>
       </c>
       <c r="BP2" t="s">
-        <v>684</v>
+        <v>465</v>
       </c>
       <c r="BQ2" t="s">
-        <v>685</v>
+        <v>466</v>
       </c>
       <c r="BR2" t="s">
-        <v>686</v>
+        <v>467</v>
       </c>
       <c r="BS2" t="s">
         <v>232</v>
@@ -5195,40 +5361,40 @@
         <v>239</v>
       </c>
       <c r="CA2" t="s">
-        <v>687</v>
+        <v>468</v>
       </c>
       <c r="CB2" t="s">
-        <v>688</v>
+        <v>469</v>
       </c>
       <c r="CC2" t="s">
-        <v>689</v>
+        <v>470</v>
       </c>
       <c r="CD2" t="s">
-        <v>690</v>
+        <v>471</v>
       </c>
       <c r="CE2" t="s">
-        <v>691</v>
+        <v>472</v>
       </c>
       <c r="CF2" t="s">
-        <v>692</v>
+        <v>473</v>
       </c>
       <c r="CG2" t="s">
-        <v>693</v>
+        <v>474</v>
       </c>
       <c r="CH2" t="s">
-        <v>694</v>
+        <v>475</v>
       </c>
       <c r="CI2" t="s">
-        <v>695</v>
+        <v>476</v>
       </c>
       <c r="CJ2" t="s">
-        <v>696</v>
+        <v>477</v>
       </c>
       <c r="CK2" t="s">
-        <v>697</v>
+        <v>478</v>
       </c>
       <c r="CL2" t="s">
-        <v>698</v>
+        <v>479</v>
       </c>
       <c r="CM2" t="s">
         <v>174</v>
@@ -5240,10 +5406,10 @@
         <v>260</v>
       </c>
       <c r="CP2" t="s">
-        <v>699</v>
+        <v>480</v>
       </c>
       <c r="CQ2" t="s">
-        <v>700</v>
+        <v>481</v>
       </c>
       <c r="CR2" t="s">
         <v>175</v>
@@ -5267,22 +5433,22 @@
         <v>266</v>
       </c>
       <c r="CY2" t="s">
-        <v>701</v>
+        <v>482</v>
       </c>
       <c r="CZ2" t="s">
-        <v>702</v>
+        <v>483</v>
       </c>
       <c r="DA2" t="s">
-        <v>703</v>
+        <v>484</v>
       </c>
       <c r="DB2" t="s">
-        <v>704</v>
+        <v>485</v>
       </c>
       <c r="DC2" t="s">
-        <v>705</v>
+        <v>486</v>
       </c>
       <c r="DD2" t="s">
-        <v>706</v>
+        <v>487</v>
       </c>
       <c r="DE2" t="s">
         <v>173</v>
@@ -5345,13 +5511,13 @@
         <v>258</v>
       </c>
       <c r="DY2" t="s">
-        <v>707</v>
+        <v>488</v>
       </c>
       <c r="DZ2" t="s">
-        <v>708</v>
+        <v>489</v>
       </c>
       <c r="EA2" t="s">
-        <v>709</v>
+        <v>490</v>
       </c>
       <c r="EB2" t="s">
         <v>176</v>
@@ -5393,22 +5559,22 @@
         <v>276</v>
       </c>
       <c r="EO2" t="s">
-        <v>710</v>
+        <v>491</v>
       </c>
       <c r="EP2" t="s">
-        <v>711</v>
+        <v>492</v>
       </c>
       <c r="EQ2" t="s">
-        <v>712</v>
+        <v>493</v>
       </c>
       <c r="ER2" t="s">
-        <v>713</v>
+        <v>494</v>
       </c>
       <c r="ES2" t="s">
-        <v>714</v>
+        <v>495</v>
       </c>
       <c r="ET2" t="s">
-        <v>715</v>
+        <v>496</v>
       </c>
       <c r="EU2" t="s">
         <v>180</v>
@@ -5420,7 +5586,7 @@
         <v>280</v>
       </c>
       <c r="EX2" t="s">
-        <v>716</v>
+        <v>497</v>
       </c>
       <c r="EY2" t="s">
         <v>179</v>
@@ -5432,10 +5598,10 @@
         <v>278</v>
       </c>
       <c r="FB2" t="s">
-        <v>717</v>
+        <v>498</v>
       </c>
       <c r="FC2" t="s">
-        <v>718</v>
+        <v>499</v>
       </c>
       <c r="FD2" t="s">
         <v>181</v>
@@ -5447,16 +5613,16 @@
         <v>282</v>
       </c>
       <c r="FG2" t="s">
-        <v>719</v>
+        <v>500</v>
       </c>
       <c r="FH2" t="s">
-        <v>720</v>
+        <v>501</v>
       </c>
       <c r="FI2" t="s">
-        <v>721</v>
+        <v>502</v>
       </c>
       <c r="FJ2" t="s">
-        <v>722</v>
+        <v>503</v>
       </c>
       <c r="FK2" t="s">
         <v>182</v>
@@ -5468,13 +5634,13 @@
         <v>284</v>
       </c>
       <c r="FN2" t="s">
-        <v>723</v>
+        <v>504</v>
       </c>
       <c r="FO2" t="s">
         <v>183</v>
       </c>
       <c r="FP2" t="s">
-        <v>724</v>
+        <v>505</v>
       </c>
       <c r="FQ2" t="s">
         <v>285</v>
@@ -5501,28 +5667,28 @@
         <v>292</v>
       </c>
       <c r="FY2" t="s">
-        <v>725</v>
+        <v>506</v>
       </c>
       <c r="FZ2" t="s">
-        <v>726</v>
+        <v>507</v>
       </c>
       <c r="GA2" t="s">
-        <v>727</v>
+        <v>508</v>
       </c>
       <c r="GB2" t="s">
-        <v>728</v>
+        <v>509</v>
       </c>
       <c r="GC2" t="s">
-        <v>729</v>
+        <v>510</v>
       </c>
       <c r="GD2" t="s">
-        <v>730</v>
+        <v>511</v>
       </c>
       <c r="GE2" t="s">
-        <v>731</v>
+        <v>512</v>
       </c>
       <c r="GF2" t="s">
-        <v>732</v>
+        <v>513</v>
       </c>
       <c r="GG2" t="s">
         <v>184</v>
@@ -5555,22 +5721,22 @@
         <v>301</v>
       </c>
       <c r="GQ2" t="s">
-        <v>733</v>
+        <v>514</v>
       </c>
       <c r="GR2" t="s">
-        <v>734</v>
+        <v>515</v>
       </c>
       <c r="GS2" t="s">
-        <v>735</v>
+        <v>516</v>
       </c>
       <c r="GT2" t="s">
-        <v>736</v>
+        <v>517</v>
       </c>
       <c r="GU2" t="s">
-        <v>737</v>
+        <v>518</v>
       </c>
       <c r="GV2" t="s">
-        <v>738</v>
+        <v>519</v>
       </c>
       <c r="GW2" t="s">
         <v>185</v>
@@ -5579,7 +5745,7 @@
         <v>302</v>
       </c>
       <c r="GY2" t="s">
-        <v>739</v>
+        <v>520</v>
       </c>
       <c r="GZ2" t="s">
         <v>303</v>
@@ -5606,28 +5772,28 @@
         <v>308</v>
       </c>
       <c r="HH2" t="s">
-        <v>740</v>
+        <v>521</v>
       </c>
       <c r="HI2" t="s">
-        <v>741</v>
+        <v>522</v>
       </c>
       <c r="HJ2" t="s">
-        <v>742</v>
+        <v>523</v>
       </c>
       <c r="HK2" t="s">
-        <v>743</v>
+        <v>524</v>
       </c>
       <c r="HL2" t="s">
         <v>188</v>
       </c>
       <c r="HM2" t="s">
-        <v>744</v>
+        <v>525</v>
       </c>
       <c r="HN2" t="s">
-        <v>745</v>
+        <v>526</v>
       </c>
     </row>
-    <row r="3" spans="1:222" s="38" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:222" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="39" t="s">
         <v>1</v>
       </c>
@@ -6295,7 +6461,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:222" s="38" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:222" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="s">
         <v>2</v>
       </c>
@@ -6963,7 +7129,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="5" spans="1:222" s="38" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:222" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
         <v>3</v>
       </c>
@@ -7629,7 +7795,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:222" s="38" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:222" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
         <v>4</v>
       </c>
@@ -8297,7 +8463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:222" s="38" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:222" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="s">
         <v>5</v>
       </c>
@@ -8965,7 +9131,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:222" s="38" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:222" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="s">
         <v>6</v>
       </c>
@@ -9631,7 +9797,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="9" spans="1:222" s="38" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:222" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="s">
         <v>7</v>
       </c>
@@ -10297,7 +10463,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:222" s="41" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:222" s="41" customFormat="1" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
         <v>8</v>
       </c>
@@ -10965,7 +11131,7 @@
         <v>42590</v>
       </c>
     </row>
-    <row r="11" spans="1:222" s="38" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:222" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="50"/>
       <c r="C11" s="50" t="s">
         <v>331</v>
@@ -11628,7 +11794,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:222" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:222" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
@@ -11738,7 +11904,7 @@
       <c r="EN12" s="45"/>
       <c r="EQ12" s="45"/>
     </row>
-    <row r="13" spans="1:222" s="45" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:222" s="45" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -11759,7 +11925,7 @@
       <c r="CL13" s="50"/>
       <c r="CM13" s="50"/>
     </row>
-    <row r="14" spans="1:222" s="45" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:222" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -11770,664 +11936,664 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>446</v>
+        <v>530</v>
       </c>
       <c r="E14" t="s">
-        <v>447</v>
+        <v>531</v>
       </c>
       <c r="F14" t="s">
-        <v>448</v>
+        <v>532</v>
       </c>
       <c r="G14" t="s">
-        <v>449</v>
-      </c>
-      <c r="H14" t="s">
-        <v>450</v>
-      </c>
-      <c r="I14" t="s">
-        <v>451</v>
-      </c>
-      <c r="J14" t="s">
-        <v>452</v>
-      </c>
-      <c r="K14" t="s">
-        <v>453</v>
-      </c>
-      <c r="L14" t="s">
-        <v>454</v>
-      </c>
-      <c r="M14" t="s">
-        <v>455</v>
-      </c>
-      <c r="N14" t="s">
-        <v>456</v>
-      </c>
-      <c r="O14" t="s">
-        <v>457</v>
-      </c>
-      <c r="P14" t="s">
-        <v>458</v>
+        <v>533</v>
+      </c>
+      <c r="H14" s="45" t="s">
+        <v>534</v>
+      </c>
+      <c r="I14" s="45" t="s">
+        <v>535</v>
+      </c>
+      <c r="J14" s="45" t="s">
+        <v>536</v>
+      </c>
+      <c r="K14" s="45" t="s">
+        <v>537</v>
+      </c>
+      <c r="L14" s="45" t="s">
+        <v>538</v>
+      </c>
+      <c r="M14" s="45" t="s">
+        <v>539</v>
+      </c>
+      <c r="N14" s="45" t="s">
+        <v>540</v>
+      </c>
+      <c r="O14" s="45" t="s">
+        <v>541</v>
+      </c>
+      <c r="P14" s="45" t="s">
+        <v>542</v>
       </c>
       <c r="Q14" t="s">
-        <v>459</v>
+        <v>543</v>
       </c>
       <c r="R14" t="s">
-        <v>460</v>
+        <v>544</v>
       </c>
       <c r="S14" t="s">
-        <v>461</v>
+        <v>545</v>
       </c>
       <c r="T14" t="s">
-        <v>462</v>
+        <v>546</v>
       </c>
       <c r="U14" t="s">
-        <v>463</v>
+        <v>547</v>
       </c>
       <c r="V14" t="s">
-        <v>464</v>
+        <v>548</v>
       </c>
       <c r="W14" t="s">
-        <v>465</v>
+        <v>549</v>
       </c>
       <c r="X14" t="s">
-        <v>466</v>
+        <v>550</v>
       </c>
       <c r="Y14" t="s">
-        <v>467</v>
+        <v>551</v>
       </c>
       <c r="Z14" t="s">
-        <v>468</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>469</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>470</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>471</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>472</v>
+        <v>552</v>
+      </c>
+      <c r="AA14" s="45" t="s">
+        <v>553</v>
+      </c>
+      <c r="AB14" s="45" t="s">
+        <v>554</v>
+      </c>
+      <c r="AC14" s="45" t="s">
+        <v>555</v>
+      </c>
+      <c r="AD14" s="45" t="s">
+        <v>556</v>
       </c>
       <c r="AE14" t="s">
-        <v>473</v>
+        <v>557</v>
       </c>
       <c r="AF14" t="s">
-        <v>474</v>
+        <v>558</v>
       </c>
       <c r="AG14" t="s">
-        <v>475</v>
+        <v>559</v>
       </c>
       <c r="AH14" t="s">
-        <v>476</v>
+        <v>560</v>
       </c>
       <c r="AI14" t="s">
-        <v>477</v>
+        <v>561</v>
       </c>
       <c r="AJ14" t="s">
-        <v>478</v>
+        <v>562</v>
       </c>
       <c r="AK14" t="s">
-        <v>479</v>
+        <v>563</v>
       </c>
       <c r="AL14" t="s">
-        <v>480</v>
+        <v>564</v>
       </c>
       <c r="AM14" t="s">
-        <v>481</v>
+        <v>565</v>
       </c>
       <c r="AN14" t="s">
-        <v>482</v>
+        <v>566</v>
       </c>
       <c r="AO14" t="s">
-        <v>483</v>
+        <v>567</v>
       </c>
       <c r="AP14" t="s">
-        <v>484</v>
+        <v>568</v>
       </c>
       <c r="AQ14" t="s">
-        <v>485</v>
+        <v>569</v>
       </c>
       <c r="AR14" t="s">
-        <v>486</v>
+        <v>570</v>
       </c>
       <c r="AS14" t="s">
-        <v>487</v>
-      </c>
-      <c r="AT14" t="s">
-        <v>488</v>
-      </c>
-      <c r="AU14" t="s">
-        <v>489</v>
-      </c>
-      <c r="AV14" t="s">
-        <v>490</v>
-      </c>
-      <c r="AW14" t="s">
-        <v>491</v>
+        <v>571</v>
+      </c>
+      <c r="AT14" s="45" t="s">
+        <v>572</v>
+      </c>
+      <c r="AU14" s="45" t="s">
+        <v>573</v>
+      </c>
+      <c r="AV14" s="45" t="s">
+        <v>574</v>
+      </c>
+      <c r="AW14" s="45" t="s">
+        <v>575</v>
       </c>
       <c r="AX14" t="s">
-        <v>492</v>
+        <v>576</v>
       </c>
       <c r="AY14" t="s">
-        <v>493</v>
+        <v>577</v>
       </c>
       <c r="AZ14" t="s">
-        <v>494</v>
+        <v>578</v>
       </c>
       <c r="BA14" t="s">
-        <v>495</v>
+        <v>579</v>
       </c>
       <c r="BB14" t="s">
-        <v>496</v>
+        <v>580</v>
       </c>
       <c r="BC14" t="s">
-        <v>497</v>
+        <v>581</v>
       </c>
       <c r="BD14" t="s">
-        <v>498</v>
+        <v>582</v>
       </c>
       <c r="BE14" t="s">
-        <v>499</v>
+        <v>583</v>
       </c>
       <c r="BF14" t="s">
-        <v>500</v>
+        <v>584</v>
       </c>
       <c r="BG14" t="s">
-        <v>501</v>
+        <v>585</v>
       </c>
       <c r="BH14" t="s">
-        <v>502</v>
+        <v>586</v>
       </c>
       <c r="BI14" t="s">
-        <v>503</v>
+        <v>587</v>
       </c>
       <c r="BJ14" t="s">
-        <v>504</v>
+        <v>588</v>
       </c>
       <c r="BK14" t="s">
-        <v>505</v>
-      </c>
-      <c r="BL14" t="s">
-        <v>506</v>
-      </c>
-      <c r="BM14" t="s">
-        <v>507</v>
-      </c>
-      <c r="BN14" t="s">
-        <v>508</v>
+        <v>589</v>
+      </c>
+      <c r="BL14" s="45" t="s">
+        <v>590</v>
+      </c>
+      <c r="BM14" s="45" t="s">
+        <v>591</v>
+      </c>
+      <c r="BN14" s="45" t="s">
+        <v>592</v>
       </c>
       <c r="BO14" t="s">
-        <v>509</v>
+        <v>593</v>
       </c>
       <c r="BP14" t="s">
-        <v>510</v>
+        <v>594</v>
       </c>
       <c r="BQ14" t="s">
-        <v>511</v>
+        <v>595</v>
       </c>
       <c r="BR14" t="s">
-        <v>512</v>
+        <v>596</v>
       </c>
       <c r="BS14" t="s">
-        <v>513</v>
+        <v>597</v>
       </c>
       <c r="BT14" t="s">
-        <v>514</v>
+        <v>598</v>
       </c>
       <c r="BU14" t="s">
-        <v>515</v>
+        <v>599</v>
       </c>
       <c r="BV14" t="s">
-        <v>516</v>
+        <v>600</v>
       </c>
       <c r="BW14" t="s">
-        <v>517</v>
+        <v>601</v>
       </c>
       <c r="BX14" t="s">
-        <v>518</v>
+        <v>602</v>
       </c>
       <c r="BY14" t="s">
-        <v>519</v>
+        <v>603</v>
       </c>
       <c r="BZ14" t="s">
-        <v>520</v>
+        <v>604</v>
       </c>
       <c r="CA14" t="s">
-        <v>521</v>
+        <v>605</v>
       </c>
       <c r="CB14" t="s">
-        <v>522</v>
+        <v>606</v>
       </c>
       <c r="CC14" t="s">
-        <v>523</v>
+        <v>607</v>
       </c>
       <c r="CD14" t="s">
-        <v>524</v>
+        <v>608</v>
       </c>
       <c r="CE14" t="s">
-        <v>525</v>
+        <v>609</v>
       </c>
       <c r="CF14" t="s">
-        <v>526</v>
+        <v>610</v>
       </c>
       <c r="CG14" t="s">
-        <v>527</v>
+        <v>611</v>
       </c>
       <c r="CH14" t="s">
-        <v>528</v>
+        <v>612</v>
       </c>
       <c r="CI14" t="s">
-        <v>529</v>
-      </c>
-      <c r="CJ14" t="s">
-        <v>530</v>
-      </c>
-      <c r="CK14" t="s">
-        <v>531</v>
-      </c>
-      <c r="CL14" t="s">
-        <v>532</v>
+        <v>613</v>
+      </c>
+      <c r="CJ14" s="45" t="s">
+        <v>614</v>
+      </c>
+      <c r="CK14" s="45" t="s">
+        <v>615</v>
+      </c>
+      <c r="CL14" s="45" t="s">
+        <v>616</v>
       </c>
       <c r="CM14" t="s">
-        <v>533</v>
+        <v>617</v>
       </c>
       <c r="CN14" t="s">
-        <v>534</v>
+        <v>618</v>
       </c>
       <c r="CO14" t="s">
-        <v>535</v>
+        <v>619</v>
       </c>
       <c r="CP14" t="s">
-        <v>536</v>
+        <v>620</v>
       </c>
       <c r="CQ14" t="s">
-        <v>537</v>
+        <v>621</v>
       </c>
       <c r="CR14" t="s">
-        <v>538</v>
+        <v>622</v>
       </c>
       <c r="CS14" t="s">
-        <v>539</v>
-      </c>
-      <c r="CT14" t="s">
-        <v>540</v>
-      </c>
-      <c r="CU14" t="s">
-        <v>541</v>
-      </c>
-      <c r="CV14" t="s">
-        <v>542</v>
-      </c>
-      <c r="CW14" t="s">
-        <v>543</v>
-      </c>
-      <c r="CX14" t="s">
-        <v>544</v>
+        <v>623</v>
+      </c>
+      <c r="CT14" s="45" t="s">
+        <v>624</v>
+      </c>
+      <c r="CU14" s="45" t="s">
+        <v>625</v>
+      </c>
+      <c r="CV14" s="45" t="s">
+        <v>626</v>
+      </c>
+      <c r="CW14" s="45" t="s">
+        <v>627</v>
+      </c>
+      <c r="CX14" s="45" t="s">
+        <v>628</v>
       </c>
       <c r="CY14" t="s">
-        <v>545</v>
+        <v>629</v>
       </c>
       <c r="CZ14" t="s">
-        <v>546</v>
+        <v>630</v>
       </c>
       <c r="DA14" t="s">
-        <v>547</v>
+        <v>631</v>
       </c>
       <c r="DB14" t="s">
-        <v>548</v>
+        <v>632</v>
       </c>
       <c r="DC14" t="s">
-        <v>549</v>
+        <v>633</v>
       </c>
       <c r="DD14" t="s">
-        <v>550</v>
+        <v>634</v>
       </c>
       <c r="DE14" t="s">
-        <v>551</v>
+        <v>635</v>
       </c>
       <c r="DF14" t="s">
-        <v>552</v>
+        <v>636</v>
       </c>
       <c r="DG14" t="s">
-        <v>553</v>
+        <v>637</v>
       </c>
       <c r="DH14" t="s">
-        <v>554</v>
-      </c>
-      <c r="DI14" t="s">
-        <v>555</v>
-      </c>
-      <c r="DJ14" t="s">
-        <v>556</v>
-      </c>
-      <c r="DK14" t="s">
-        <v>557</v>
-      </c>
-      <c r="DL14" t="s">
-        <v>558</v>
-      </c>
-      <c r="DM14" t="s">
-        <v>559</v>
-      </c>
-      <c r="DN14" t="s">
-        <v>560</v>
-      </c>
-      <c r="DO14" t="s">
-        <v>561</v>
-      </c>
-      <c r="DP14" t="s">
-        <v>562</v>
-      </c>
-      <c r="DQ14" t="s">
-        <v>563</v>
-      </c>
-      <c r="DR14" t="s">
-        <v>564</v>
-      </c>
-      <c r="DS14" t="s">
-        <v>565</v>
-      </c>
-      <c r="DT14" t="s">
-        <v>566</v>
+        <v>638</v>
+      </c>
+      <c r="DI14" s="45" t="s">
+        <v>639</v>
+      </c>
+      <c r="DJ14" s="45" t="s">
+        <v>640</v>
+      </c>
+      <c r="DK14" s="45" t="s">
+        <v>641</v>
+      </c>
+      <c r="DL14" s="45" t="s">
+        <v>642</v>
+      </c>
+      <c r="DM14" s="45" t="s">
+        <v>643</v>
+      </c>
+      <c r="DN14" s="45" t="s">
+        <v>644</v>
+      </c>
+      <c r="DO14" s="45" t="s">
+        <v>645</v>
+      </c>
+      <c r="DP14" s="45" t="s">
+        <v>646</v>
+      </c>
+      <c r="DQ14" s="45" t="s">
+        <v>647</v>
+      </c>
+      <c r="DR14" s="45" t="s">
+        <v>648</v>
+      </c>
+      <c r="DS14" s="45" t="s">
+        <v>649</v>
+      </c>
+      <c r="DT14" s="45" t="s">
+        <v>650</v>
       </c>
       <c r="DU14" t="s">
-        <v>567</v>
+        <v>651</v>
       </c>
       <c r="DV14" t="s">
-        <v>568</v>
+        <v>652</v>
       </c>
       <c r="DW14" t="s">
-        <v>569</v>
+        <v>653</v>
       </c>
       <c r="DX14" t="s">
-        <v>570</v>
+        <v>654</v>
       </c>
       <c r="DY14" t="s">
-        <v>571</v>
-      </c>
-      <c r="DZ14" t="s">
-        <v>572</v>
-      </c>
-      <c r="EA14" t="s">
-        <v>573</v>
+        <v>655</v>
+      </c>
+      <c r="DZ14" s="45" t="s">
+        <v>656</v>
+      </c>
+      <c r="EA14" s="45" t="s">
+        <v>657</v>
       </c>
       <c r="EB14" t="s">
-        <v>574</v>
+        <v>658</v>
       </c>
       <c r="EC14" t="s">
-        <v>575</v>
-      </c>
-      <c r="ED14" t="s">
-        <v>576</v>
-      </c>
-      <c r="EE14" t="s">
-        <v>577</v>
-      </c>
-      <c r="EF14" t="s">
-        <v>578</v>
+        <v>659</v>
+      </c>
+      <c r="ED14" s="45" t="s">
+        <v>660</v>
+      </c>
+      <c r="EE14" s="45" t="s">
+        <v>661</v>
+      </c>
+      <c r="EF14" s="45" t="s">
+        <v>662</v>
       </c>
       <c r="EG14" t="s">
-        <v>579</v>
+        <v>663</v>
       </c>
       <c r="EH14" t="s">
-        <v>580</v>
-      </c>
-      <c r="EI14" t="s">
-        <v>581</v>
-      </c>
-      <c r="EJ14" t="s">
-        <v>582</v>
-      </c>
-      <c r="EK14" t="s">
-        <v>583</v>
+        <v>664</v>
+      </c>
+      <c r="EI14" s="45" t="s">
+        <v>665</v>
+      </c>
+      <c r="EJ14" s="45" t="s">
+        <v>666</v>
+      </c>
+      <c r="EK14" s="45" t="s">
+        <v>667</v>
       </c>
       <c r="EL14" t="s">
-        <v>584</v>
+        <v>668</v>
       </c>
       <c r="EM14" t="s">
-        <v>585</v>
+        <v>669</v>
       </c>
       <c r="EN14" t="s">
-        <v>586</v>
+        <v>670</v>
       </c>
       <c r="EO14" t="s">
-        <v>587</v>
+        <v>671</v>
       </c>
       <c r="EP14" t="s">
-        <v>588</v>
+        <v>672</v>
       </c>
       <c r="EQ14" t="s">
-        <v>589</v>
+        <v>673</v>
       </c>
       <c r="ER14" t="s">
-        <v>590</v>
+        <v>674</v>
       </c>
       <c r="ES14" t="s">
-        <v>591</v>
+        <v>675</v>
       </c>
       <c r="ET14" t="s">
-        <v>592</v>
+        <v>676</v>
       </c>
       <c r="EU14" t="s">
-        <v>593</v>
+        <v>677</v>
       </c>
       <c r="EV14" t="s">
-        <v>594</v>
+        <v>678</v>
       </c>
       <c r="EW14" t="s">
-        <v>595</v>
+        <v>679</v>
       </c>
       <c r="EX14" t="s">
-        <v>596</v>
+        <v>680</v>
       </c>
       <c r="EY14" t="s">
-        <v>597</v>
+        <v>681</v>
       </c>
       <c r="EZ14" t="s">
-        <v>598</v>
+        <v>682</v>
       </c>
       <c r="FA14" t="s">
-        <v>599</v>
+        <v>683</v>
       </c>
       <c r="FB14" t="s">
-        <v>600</v>
+        <v>684</v>
       </c>
       <c r="FC14" t="s">
-        <v>601</v>
+        <v>685</v>
       </c>
       <c r="FD14" t="s">
-        <v>602</v>
+        <v>686</v>
       </c>
       <c r="FE14" t="s">
-        <v>603</v>
+        <v>687</v>
       </c>
       <c r="FF14" t="s">
-        <v>604</v>
+        <v>688</v>
       </c>
       <c r="FG14" t="s">
-        <v>605</v>
+        <v>689</v>
       </c>
       <c r="FH14" t="s">
-        <v>606</v>
+        <v>690</v>
       </c>
       <c r="FI14" t="s">
-        <v>607</v>
+        <v>691</v>
       </c>
       <c r="FJ14" t="s">
-        <v>608</v>
+        <v>692</v>
       </c>
       <c r="FK14" t="s">
-        <v>609</v>
+        <v>693</v>
       </c>
       <c r="FL14" t="s">
-        <v>610</v>
+        <v>694</v>
       </c>
       <c r="FM14" t="s">
-        <v>611</v>
+        <v>695</v>
       </c>
       <c r="FN14" t="s">
-        <v>612</v>
+        <v>696</v>
       </c>
       <c r="FO14" t="s">
-        <v>613</v>
+        <v>697</v>
       </c>
       <c r="FP14" t="s">
-        <v>614</v>
+        <v>698</v>
       </c>
       <c r="FQ14" t="s">
-        <v>615</v>
+        <v>699</v>
       </c>
       <c r="FR14" t="s">
-        <v>616</v>
+        <v>700</v>
       </c>
       <c r="FS14" t="s">
-        <v>617</v>
+        <v>701</v>
       </c>
       <c r="FT14" t="s">
-        <v>618</v>
+        <v>702</v>
       </c>
       <c r="FU14" t="s">
-        <v>619</v>
+        <v>703</v>
       </c>
       <c r="FV14" t="s">
-        <v>620</v>
+        <v>704</v>
       </c>
       <c r="FW14" t="s">
-        <v>621</v>
+        <v>705</v>
       </c>
       <c r="FX14" t="s">
-        <v>622</v>
+        <v>706</v>
       </c>
       <c r="FY14" t="s">
-        <v>623</v>
+        <v>707</v>
       </c>
       <c r="FZ14" t="s">
-        <v>624</v>
+        <v>708</v>
       </c>
       <c r="GA14" t="s">
-        <v>625</v>
+        <v>709</v>
       </c>
       <c r="GB14" t="s">
-        <v>626</v>
+        <v>710</v>
       </c>
       <c r="GC14" t="s">
-        <v>627</v>
+        <v>711</v>
       </c>
       <c r="GD14" t="s">
-        <v>628</v>
+        <v>712</v>
       </c>
       <c r="GE14" t="s">
-        <v>629</v>
+        <v>713</v>
       </c>
       <c r="GF14" t="s">
-        <v>630</v>
+        <v>714</v>
       </c>
       <c r="GG14" t="s">
-        <v>631</v>
+        <v>715</v>
       </c>
       <c r="GH14" t="s">
-        <v>632</v>
-      </c>
-      <c r="GI14" t="s">
-        <v>633</v>
-      </c>
-      <c r="GJ14" t="s">
-        <v>634</v>
+        <v>716</v>
+      </c>
+      <c r="GI14" s="45" t="s">
+        <v>717</v>
+      </c>
+      <c r="GJ14" s="45" t="s">
+        <v>718</v>
       </c>
       <c r="GK14" t="s">
-        <v>635</v>
+        <v>719</v>
       </c>
       <c r="GL14" t="s">
-        <v>636</v>
+        <v>720</v>
       </c>
       <c r="GM14" t="s">
-        <v>637</v>
+        <v>721</v>
       </c>
       <c r="GN14" t="s">
-        <v>638</v>
+        <v>722</v>
       </c>
       <c r="GO14" t="s">
-        <v>639</v>
+        <v>723</v>
       </c>
       <c r="GP14" t="s">
-        <v>640</v>
+        <v>724</v>
       </c>
       <c r="GQ14" t="s">
-        <v>641</v>
+        <v>725</v>
       </c>
       <c r="GR14" t="s">
-        <v>642</v>
+        <v>726</v>
       </c>
       <c r="GS14" t="s">
-        <v>643</v>
+        <v>727</v>
       </c>
       <c r="GT14" t="s">
-        <v>644</v>
+        <v>728</v>
       </c>
       <c r="GU14" t="s">
-        <v>645</v>
+        <v>729</v>
       </c>
       <c r="GV14" t="s">
-        <v>646</v>
+        <v>730</v>
       </c>
       <c r="GW14" t="s">
-        <v>647</v>
+        <v>731</v>
       </c>
       <c r="GX14" t="s">
-        <v>648</v>
-      </c>
-      <c r="GY14" t="s">
-        <v>649</v>
-      </c>
-      <c r="GZ14" t="s">
-        <v>650</v>
-      </c>
-      <c r="HA14" t="s">
-        <v>651</v>
+        <v>732</v>
+      </c>
+      <c r="GY14" s="45" t="s">
+        <v>733</v>
+      </c>
+      <c r="GZ14" s="45" t="s">
+        <v>734</v>
+      </c>
+      <c r="HA14" s="45" t="s">
+        <v>735</v>
       </c>
       <c r="HB14" t="s">
-        <v>652</v>
+        <v>736</v>
       </c>
       <c r="HC14" t="s">
-        <v>653</v>
+        <v>737</v>
       </c>
       <c r="HD14" t="s">
-        <v>654</v>
+        <v>738</v>
       </c>
       <c r="HE14" t="s">
-        <v>655</v>
+        <v>739</v>
       </c>
       <c r="HF14" t="s">
-        <v>656</v>
+        <v>740</v>
       </c>
       <c r="HG14" t="s">
-        <v>657</v>
+        <v>741</v>
       </c>
       <c r="HH14" t="s">
-        <v>658</v>
+        <v>742</v>
       </c>
       <c r="HI14" t="s">
-        <v>659</v>
+        <v>743</v>
       </c>
       <c r="HJ14" t="s">
-        <v>660</v>
+        <v>744</v>
       </c>
       <c r="HK14" t="s">
-        <v>661</v>
+        <v>745</v>
       </c>
       <c r="HL14" t="s">
-        <v>662</v>
+        <v>746</v>
       </c>
       <c r="HM14" t="s">
-        <v>663</v>
+        <v>747</v>
       </c>
       <c r="HN14" t="s">
-        <v>664</v>
+        <v>748</v>
       </c>
     </row>
-    <row r="15" spans="1:222" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:222" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>0</v>
       </c>
@@ -12528,52 +12694,52 @@
         <v>217</v>
       </c>
       <c r="AH15" t="s">
-        <v>665</v>
+        <v>446</v>
       </c>
       <c r="AI15" t="s">
-        <v>666</v>
+        <v>447</v>
       </c>
       <c r="AJ15" t="s">
-        <v>667</v>
+        <v>448</v>
       </c>
       <c r="AK15" t="s">
-        <v>668</v>
+        <v>449</v>
       </c>
       <c r="AL15" t="s">
-        <v>669</v>
+        <v>450</v>
       </c>
       <c r="AM15" t="s">
-        <v>670</v>
+        <v>451</v>
       </c>
       <c r="AN15" t="s">
-        <v>671</v>
+        <v>452</v>
       </c>
       <c r="AO15" t="s">
-        <v>672</v>
+        <v>453</v>
       </c>
       <c r="AP15" t="s">
-        <v>673</v>
+        <v>454</v>
       </c>
       <c r="AQ15" t="s">
-        <v>674</v>
+        <v>455</v>
       </c>
       <c r="AR15" t="s">
-        <v>675</v>
+        <v>456</v>
       </c>
       <c r="AS15" t="s">
-        <v>676</v>
+        <v>457</v>
       </c>
       <c r="AT15" t="s">
-        <v>677</v>
+        <v>458</v>
       </c>
       <c r="AU15" t="s">
-        <v>678</v>
+        <v>459</v>
       </c>
       <c r="AV15" t="s">
-        <v>679</v>
+        <v>460</v>
       </c>
       <c r="AW15" t="s">
-        <v>680</v>
+        <v>461</v>
       </c>
       <c r="AX15" t="s">
         <v>172</v>
@@ -12621,22 +12787,22 @@
         <v>231</v>
       </c>
       <c r="BM15" t="s">
-        <v>681</v>
+        <v>462</v>
       </c>
       <c r="BN15" t="s">
-        <v>682</v>
+        <v>463</v>
       </c>
       <c r="BO15" t="s">
-        <v>683</v>
+        <v>464</v>
       </c>
       <c r="BP15" t="s">
-        <v>684</v>
+        <v>465</v>
       </c>
       <c r="BQ15" t="s">
-        <v>685</v>
+        <v>466</v>
       </c>
       <c r="BR15" t="s">
-        <v>686</v>
+        <v>467</v>
       </c>
       <c r="BS15" t="s">
         <v>232</v>
@@ -12663,40 +12829,40 @@
         <v>239</v>
       </c>
       <c r="CA15" t="s">
-        <v>687</v>
+        <v>468</v>
       </c>
       <c r="CB15" t="s">
-        <v>688</v>
+        <v>469</v>
       </c>
       <c r="CC15" t="s">
-        <v>689</v>
+        <v>470</v>
       </c>
       <c r="CD15" t="s">
-        <v>690</v>
+        <v>471</v>
       </c>
       <c r="CE15" t="s">
-        <v>691</v>
+        <v>472</v>
       </c>
       <c r="CF15" t="s">
-        <v>692</v>
+        <v>473</v>
       </c>
       <c r="CG15" t="s">
-        <v>693</v>
+        <v>474</v>
       </c>
       <c r="CH15" t="s">
-        <v>694</v>
+        <v>475</v>
       </c>
       <c r="CI15" t="s">
-        <v>695</v>
+        <v>476</v>
       </c>
       <c r="CJ15" t="s">
-        <v>696</v>
+        <v>477</v>
       </c>
       <c r="CK15" t="s">
-        <v>697</v>
+        <v>478</v>
       </c>
       <c r="CL15" t="s">
-        <v>698</v>
+        <v>479</v>
       </c>
       <c r="CM15" t="s">
         <v>174</v>
@@ -12708,10 +12874,10 @@
         <v>260</v>
       </c>
       <c r="CP15" t="s">
-        <v>699</v>
+        <v>480</v>
       </c>
       <c r="CQ15" t="s">
-        <v>700</v>
+        <v>481</v>
       </c>
       <c r="CR15" t="s">
         <v>175</v>
@@ -12735,22 +12901,22 @@
         <v>266</v>
       </c>
       <c r="CY15" t="s">
-        <v>701</v>
+        <v>482</v>
       </c>
       <c r="CZ15" t="s">
-        <v>702</v>
+        <v>483</v>
       </c>
       <c r="DA15" t="s">
-        <v>703</v>
+        <v>484</v>
       </c>
       <c r="DB15" t="s">
-        <v>704</v>
+        <v>485</v>
       </c>
       <c r="DC15" t="s">
-        <v>705</v>
+        <v>486</v>
       </c>
       <c r="DD15" t="s">
-        <v>706</v>
+        <v>487</v>
       </c>
       <c r="DE15" t="s">
         <v>173</v>
@@ -12813,13 +12979,13 @@
         <v>258</v>
       </c>
       <c r="DY15" t="s">
-        <v>707</v>
+        <v>488</v>
       </c>
       <c r="DZ15" t="s">
-        <v>708</v>
+        <v>489</v>
       </c>
       <c r="EA15" t="s">
-        <v>709</v>
+        <v>490</v>
       </c>
       <c r="EB15" t="s">
         <v>176</v>
@@ -12861,22 +13027,22 @@
         <v>276</v>
       </c>
       <c r="EO15" t="s">
-        <v>710</v>
+        <v>491</v>
       </c>
       <c r="EP15" t="s">
-        <v>711</v>
+        <v>492</v>
       </c>
       <c r="EQ15" t="s">
-        <v>712</v>
+        <v>493</v>
       </c>
       <c r="ER15" t="s">
-        <v>713</v>
+        <v>494</v>
       </c>
       <c r="ES15" t="s">
-        <v>714</v>
+        <v>495</v>
       </c>
       <c r="ET15" t="s">
-        <v>715</v>
+        <v>496</v>
       </c>
       <c r="EU15" t="s">
         <v>180</v>
@@ -12888,7 +13054,7 @@
         <v>280</v>
       </c>
       <c r="EX15" t="s">
-        <v>716</v>
+        <v>497</v>
       </c>
       <c r="EY15" t="s">
         <v>179</v>
@@ -12900,10 +13066,10 @@
         <v>278</v>
       </c>
       <c r="FB15" t="s">
-        <v>717</v>
+        <v>498</v>
       </c>
       <c r="FC15" t="s">
-        <v>718</v>
+        <v>499</v>
       </c>
       <c r="FD15" t="s">
         <v>181</v>
@@ -12915,16 +13081,16 @@
         <v>282</v>
       </c>
       <c r="FG15" t="s">
-        <v>719</v>
+        <v>500</v>
       </c>
       <c r="FH15" t="s">
-        <v>720</v>
+        <v>501</v>
       </c>
       <c r="FI15" t="s">
-        <v>721</v>
+        <v>502</v>
       </c>
       <c r="FJ15" t="s">
-        <v>722</v>
+        <v>503</v>
       </c>
       <c r="FK15" t="s">
         <v>182</v>
@@ -12936,13 +13102,13 @@
         <v>284</v>
       </c>
       <c r="FN15" t="s">
-        <v>723</v>
+        <v>504</v>
       </c>
       <c r="FO15" t="s">
         <v>183</v>
       </c>
       <c r="FP15" t="s">
-        <v>724</v>
+        <v>505</v>
       </c>
       <c r="FQ15" t="s">
         <v>285</v>
@@ -12969,28 +13135,28 @@
         <v>292</v>
       </c>
       <c r="FY15" t="s">
-        <v>725</v>
+        <v>506</v>
       </c>
       <c r="FZ15" t="s">
-        <v>726</v>
+        <v>507</v>
       </c>
       <c r="GA15" t="s">
-        <v>727</v>
+        <v>508</v>
       </c>
       <c r="GB15" t="s">
-        <v>728</v>
+        <v>509</v>
       </c>
       <c r="GC15" t="s">
-        <v>729</v>
+        <v>510</v>
       </c>
       <c r="GD15" t="s">
-        <v>730</v>
+        <v>511</v>
       </c>
       <c r="GE15" t="s">
-        <v>731</v>
+        <v>512</v>
       </c>
       <c r="GF15" t="s">
-        <v>732</v>
+        <v>513</v>
       </c>
       <c r="GG15" t="s">
         <v>184</v>
@@ -13023,22 +13189,22 @@
         <v>301</v>
       </c>
       <c r="GQ15" t="s">
-        <v>733</v>
+        <v>514</v>
       </c>
       <c r="GR15" t="s">
-        <v>734</v>
+        <v>515</v>
       </c>
       <c r="GS15" t="s">
-        <v>735</v>
+        <v>516</v>
       </c>
       <c r="GT15" t="s">
-        <v>736</v>
+        <v>517</v>
       </c>
       <c r="GU15" t="s">
-        <v>737</v>
+        <v>518</v>
       </c>
       <c r="GV15" t="s">
-        <v>738</v>
+        <v>519</v>
       </c>
       <c r="GW15" t="s">
         <v>185</v>
@@ -13047,7 +13213,7 @@
         <v>302</v>
       </c>
       <c r="GY15" t="s">
-        <v>739</v>
+        <v>520</v>
       </c>
       <c r="GZ15" t="s">
         <v>303</v>
@@ -13074,28 +13240,28 @@
         <v>308</v>
       </c>
       <c r="HH15" t="s">
-        <v>740</v>
+        <v>521</v>
       </c>
       <c r="HI15" t="s">
-        <v>741</v>
+        <v>522</v>
       </c>
       <c r="HJ15" t="s">
-        <v>742</v>
+        <v>523</v>
       </c>
       <c r="HK15" t="s">
-        <v>743</v>
+        <v>524</v>
       </c>
       <c r="HL15" t="s">
         <v>188</v>
       </c>
       <c r="HM15" t="s">
-        <v>744</v>
+        <v>525</v>
       </c>
       <c r="HN15" t="s">
-        <v>745</v>
+        <v>526</v>
       </c>
     </row>
-    <row r="16" spans="1:222" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:222" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="P16"/>
       <c r="R16"/>
       <c r="S16"/>
@@ -13175,7 +13341,7 @@
       <c r="HG16"/>
       <c r="HI16"/>
     </row>
-    <row r="17" spans="1:217" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:217" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -13258,7 +13424,7 @@
       <c r="HG17"/>
       <c r="HI17"/>
     </row>
-    <row r="18" spans="1:217" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:217" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
@@ -13362,7 +13528,7 @@
       <c r="HG18"/>
       <c r="HI18"/>
     </row>
-    <row r="19" spans="1:217" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:217" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>31</v>
       </c>
@@ -13466,7 +13632,7 @@
       <c r="HG19"/>
       <c r="HI19"/>
     </row>
-    <row r="20" spans="1:217" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:217" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="P20"/>
       <c r="R20"/>
       <c r="S20"/>
@@ -13546,7 +13712,7 @@
       <c r="HG20"/>
       <c r="HI20"/>
     </row>
-    <row r="21" spans="1:217" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:217" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -13623,7 +13789,7 @@
       <c r="HG21"/>
       <c r="HI21"/>
     </row>
-    <row r="22" spans="1:217" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:217" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>5</v>
       </c>
@@ -13769,7 +13935,7 @@
       <c r="HG22"/>
       <c r="HI22"/>
     </row>
-    <row r="23" spans="1:217" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:217" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>36</v>
       </c>
@@ -13915,7 +14081,7 @@
       <c r="HG23"/>
       <c r="HI23"/>
     </row>
-    <row r="24" spans="1:217" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:217" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>4</v>
       </c>
@@ -14061,7 +14227,7 @@
       <c r="HG24"/>
       <c r="HI24"/>
     </row>
-    <row r="25" spans="1:217" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:217" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="AD25"/>
       <c r="AE25"/>
       <c r="AG25"/>
@@ -14135,7 +14301,7 @@
       <c r="HG25"/>
       <c r="HI25"/>
     </row>
-    <row r="26" spans="1:217" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:217" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -14212,7 +14378,7 @@
       <c r="HG26"/>
       <c r="HI26"/>
     </row>
-    <row r="27" spans="1:217" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:217" x14ac:dyDescent="0.2">
       <c r="A27" s="27" t="s">
         <v>40</v>
       </c>
@@ -14232,7 +14398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:217" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:217" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
         <v>39</v>
       </c>
@@ -14252,14 +14418,14 @@
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:217" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="1:217" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:217" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:217" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>47</v>
       </c>
       <c r="F30" s="45"/>
     </row>
-    <row r="31" spans="1:217" s="51" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:217" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="55" t="s">
         <v>44</v>
       </c>
@@ -14291,7 +14457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:217" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:217" x14ac:dyDescent="0.2">
       <c r="A32" s="33" t="s">
         <v>45</v>
       </c>
@@ -14299,22 +14465,22 @@
         <v>26</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>746</v>
+        <v>527</v>
       </c>
       <c r="D32" s="37" t="s">
-        <v>747</v>
+        <v>528</v>
       </c>
       <c r="E32" s="37" t="s">
-        <v>748</v>
+        <v>529</v>
       </c>
       <c r="F32" s="37" t="s">
-        <v>748</v>
+        <v>529</v>
       </c>
       <c r="G32" s="37" t="s">
-        <v>748</v>
+        <v>529</v>
       </c>
       <c r="H32" s="37" t="s">
-        <v>747</v>
+        <v>528</v>
       </c>
       <c r="I32" s="37" t="s">
         <v>140</v>
@@ -14415,7 +14581,7 @@
       <c r="HG32"/>
       <c r="HI32"/>
     </row>
-    <row r="33" spans="1:217" s="51" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:217" s="51" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
         <v>0</v>
       </c>
@@ -14447,7 +14613,7 @@
         <v>40001</v>
       </c>
     </row>
-    <row r="34" spans="1:217" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:217" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="K34" s="45"/>
       <c r="L34" s="45"/>
       <c r="N34" s="45"/>
@@ -14541,7 +14707,7 @@
       <c r="HG34"/>
       <c r="HI34"/>
     </row>
-    <row r="35" spans="1:217" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:217" x14ac:dyDescent="0.2">
       <c r="A35" s="43" t="s">
         <v>141</v>
       </c>
@@ -14653,7 +14819,7 @@
       <c r="HG35"/>
       <c r="HI35"/>
     </row>
-    <row r="36" spans="1:217" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:217" x14ac:dyDescent="0.2">
       <c r="A36" s="43" t="s">
         <v>142</v>
       </c>
@@ -14765,7 +14931,7 @@
       <c r="HG36"/>
       <c r="HI36"/>
     </row>
-    <row r="37" spans="1:217" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:217" x14ac:dyDescent="0.2">
       <c r="A37" s="43" t="s">
         <v>143</v>
       </c>
@@ -14877,7 +15043,7 @@
       <c r="HG37"/>
       <c r="HI37"/>
     </row>
-    <row r="38" spans="1:217" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:217" x14ac:dyDescent="0.2">
       <c r="A38" s="43" t="s">
         <v>144</v>
       </c>
@@ -14989,7 +15155,7 @@
       <c r="HG38"/>
       <c r="HI38"/>
     </row>
-    <row r="39" spans="1:217" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:217" x14ac:dyDescent="0.2">
       <c r="A39" s="43" t="s">
         <v>145</v>
       </c>
@@ -15009,7 +15175,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="40" spans="1:217" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:217" x14ac:dyDescent="0.2">
       <c r="A40" s="43" t="s">
         <v>146</v>
       </c>
@@ -15026,7 +15192,7 @@
         <v>8011011011</v>
       </c>
     </row>
-    <row r="41" spans="1:217" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:217" x14ac:dyDescent="0.2">
       <c r="A41" s="43" t="s">
         <v>147</v>
       </c>
@@ -15035,7 +15201,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="1:217" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:217" x14ac:dyDescent="0.2">
       <c r="A42" s="43" t="s">
         <v>148</v>
       </c>
@@ -15046,7 +15212,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="43" spans="1:217" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:217" x14ac:dyDescent="0.2">
       <c r="A43" s="43" t="s">
         <v>149</v>
       </c>
@@ -15055,7 +15221,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:217" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:217" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="44" t="s">
         <v>150</v>
       </c>
@@ -15066,10 +15232,10 @@
         <v>161</v>
       </c>
     </row>
-    <row r="45" spans="1:217" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="1:217" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="CI12:CI14 CK12:CM14">
+  <conditionalFormatting sqref="CI12:CI14 CK12:CM13 CM14 CK14">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -15088,7 +15254,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15102,7 +15268,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
